--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9830CA3F-A6C3-42F9-A661-6D1B10842E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3DBEF-75D9-45AD-8078-089029D1D0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">DBアクセス!$A$1:$AV$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">IOデータ!$A$1:$AV$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">処理詳細!$A$1:$AV$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="174">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1702,50 +1702,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1777,6 +1753,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1790,21 +1805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3218,8 +3218,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3235,7 +3235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="400050" y="9537700"/>
-          <a:ext cx="6635750" cy="5181600"/>
+          <a:ext cx="6635750" cy="6146800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3427,8 +3427,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3444,7 +3444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="762000" y="12115800"/>
-          <a:ext cx="1308100" cy="2324100"/>
+          <a:ext cx="1308100" cy="2254250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4573,6 +4573,646 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D042327-1B7F-4259-BA02-9E83B9B3090C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>F1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147814</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204964</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C536A37B-0109-4F40-8C6C-8CCDA0B5F399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1557514" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111478</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168628</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A368E39D-AC40-4982-85ED-CE06428FAE3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2460978" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75142</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E2B493-586A-4753-A322-13E5B56CF293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3364442" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117F5DCE-7506-45FF-9A58-AF00EDDE3614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="539750" y="14827250"/>
+          <a:ext cx="6375400" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38806</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95956</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B599F53B-5039-4757-8476-D9557F67E33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267906" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>201085</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>23285</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E7BFE8-7667-4512-9C65-50301C58DE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074835" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2470</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>59620</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E6A04A-F2C0-4250-91C7-336061B1FFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5171370" y="15052675"/>
+          <a:ext cx="762000" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>esc </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5033,20 +5673,20 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AX3" s="45" t="s">
+      <c r="AX3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="46" t="s">
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
@@ -5097,20 +5737,20 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AX4" s="45" t="s">
+      <c r="AX4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="46" t="s">
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
@@ -5898,823 +6538,874 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="61" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="68">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="69" t="str">
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69" t="str">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="61" t="str">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="53" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="48"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="56" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="53" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="53" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="55"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="64"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="60">
+      <c r="A5" s="52">
         <v>43884</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="59" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="49" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="49" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="51"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="67"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="67"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="67"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="67"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="51"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="67"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="51"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="67"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="51"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="67"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="51"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="67"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="51"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="67"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="51"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="67"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="51"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="67"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="51"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -6731,57 +7422,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6793,139 +7433,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B2B8B-8AF5-4081-9DB1-144871B30F22}">
   <dimension ref="A1:AV94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC96" sqref="AC96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="61" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="68">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -10111,9 +10751,7 @@
     </row>
     <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="14"/>
-      <c r="B66" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -10165,9 +10803,7 @@
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="14"/>
-      <c r="B67" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -10321,7 +10957,9 @@
     </row>
     <row r="70" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="14"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11088,19 +11726,19 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="75">
+      <c r="E85" s="45">
         <v>1</v>
       </c>
-      <c r="F85" s="75">
+      <c r="F85" s="45">
         <v>2</v>
       </c>
-      <c r="G85" s="75">
+      <c r="G85" s="45">
         <v>3</v>
       </c>
-      <c r="H85" s="75">
+      <c r="H85" s="45">
         <v>4</v>
       </c>
-      <c r="I85" s="75">
+      <c r="I85" s="45">
         <v>5</v>
       </c>
       <c r="J85" s="2"/>
@@ -11707,323 +12345,323 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="76" t="s">
+      <c r="T4" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="X4" s="76" t="s">
+      <c r="X4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="Y4" s="76" t="s">
+      <c r="Y4" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="O5" s="79" t="s">
+      <c r="O5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="79" t="s">
+      <c r="R5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="S5" s="79" t="s">
+      <c r="S5" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="79" t="s">
+      <c r="T5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="79" t="s">
+      <c r="U5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="79" t="s">
+      <c r="V5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="W5" s="79" t="s">
+      <c r="W5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="X5" s="79" t="s">
+      <c r="X5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="Y5" s="79" t="s">
+      <c r="Y5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="Z5" s="79" t="s">
+      <c r="Z5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AA5" s="79" t="s">
+      <c r="AA5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AB5" s="79" t="s">
+      <c r="AB5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AC5" s="79" t="s">
+      <c r="AC5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AD5" s="79" t="s">
+      <c r="AD5" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AE5" s="79" t="s">
+      <c r="AE5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" s="79" t="s">
+      <c r="AF5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AG5" s="79" t="s">
+      <c r="AG5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" s="79" t="s">
+      <c r="AH5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AI5" s="79" t="s">
+      <c r="AI5" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="78" t="s">
+      <c r="P6" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="R6" s="78" t="s">
+      <c r="R6" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="78" t="s">
+      <c r="S6" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="T6" s="78" t="s">
+      <c r="T6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="W6" s="78" t="s">
+      <c r="W6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="X6" s="78" t="s">
+      <c r="X6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="Y6" s="78" t="s">
+      <c r="Y6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="Z6" s="78" t="s">
+      <c r="Z6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="78" t="s">
+      <c r="AA6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="AB6" s="78" t="s">
+      <c r="AB6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="AC6" s="78" t="s">
+      <c r="AC6" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="AD6" s="78" t="s">
+      <c r="AD6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="AE6" s="78" t="s">
+      <c r="AE6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="AF6" s="78" t="s">
+      <c r="AF6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="AG6" s="78" t="s">
+      <c r="AG6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="AH6" s="78" t="s">
+      <c r="AH6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="AI6" s="78" t="s">
+      <c r="AI6" s="48" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12033,116 +12671,116 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="46" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="49" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12163,132 +12801,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="61" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="68">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -12296,112 +12934,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="71" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="73"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="78"/>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="71" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="73"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="78"/>
     </row>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12410,490 +13048,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="74" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="70" t="s">
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="70"/>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75"/>
     </row>
     <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="71" t="s">
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="73"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="78"/>
     </row>
     <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="71" t="s">
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="73"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="78"/>
     </row>
     <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="71" t="s">
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="73"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="78"/>
     </row>
     <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="71" t="s">
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="73"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="78"/>
     </row>
     <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="71" t="s">
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="73"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="78"/>
     </row>
     <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="73"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="78"/>
     </row>
     <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="73"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="78"/>
     </row>
     <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="73"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="78"/>
     </row>
     <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12902,229 +13540,239 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="71" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="73"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="78"/>
     </row>
     <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="71" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="72"/>
-      <c r="AN21" s="72"/>
-      <c r="AO21" s="72"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="73"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="78"/>
     </row>
     <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="73"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="78"/>
     </row>
     <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="72"/>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="72"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="73"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="78"/>
     </row>
     <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -13141,28 +13789,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13181,132 +13819,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="61" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="68">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -13478,132 +14116,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="61" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="68">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3DBEF-75D9-45AD-8078-089029D1D0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31279044-CFA4-4873-B57B-3E3572D7F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">DBアクセス!$A$1:$AV$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">IOデータ!$A$1:$AV$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$125</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">処理詳細!$A$1:$AV$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="207">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1074,6 +1074,171 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・load_images</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・jump_cut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・jump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・animate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpriteSheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・get_image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■sprites.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■main.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class SpriteSheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・load_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・draw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・show_start_screen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・show_go_screen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・wait_for_key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・draw_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込み</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・events</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・LayeredUpdates</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューゲーム後のリポップ</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→spriteが描かれる順番を決めることができる</t>
+    <rPh sb="8" eb="9">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1723,6 +1888,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1751,45 +1955,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
@@ -6538,215 +6703,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="66" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="69" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="62" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="62" t="s">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="64"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="60"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52">
+      <c r="A5" s="65">
         <v>43884</v>
       </c>
       <c r="B5" s="51"/>
@@ -6756,52 +6921,52 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="65" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="65" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="67"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="56"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="51"/>
@@ -6812,46 +6977,46 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="67"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="56"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="51"/>
@@ -6862,46 +7027,46 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="67"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="56"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="51"/>
@@ -6912,46 +7077,46 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="67"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="56"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="51"/>
@@ -6962,46 +7127,46 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="67"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="56"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="51"/>
@@ -7012,46 +7177,46 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="67"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="56"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="51"/>
@@ -7062,46 +7227,46 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="67"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="56"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="51"/>
@@ -7112,46 +7277,46 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="67"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="56"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51"/>
@@ -7162,46 +7327,46 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="67"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="56"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51"/>
@@ -7212,46 +7377,46 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="67"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="56"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="51"/>
@@ -7262,46 +7427,46 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="67"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="56"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="51"/>
@@ -7312,78 +7477,71 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="67"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -7400,28 +7558,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7431,141 +7596,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B2B8B-8AF5-4081-9DB1-144871B30F22}">
-  <dimension ref="A1:AV94"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC96" sqref="AC96"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -12303,6 +12468,162 @@
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
     </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c r="I97" t="s">
+        <v>180</v>
+      </c>
+      <c r="O97" t="s">
+        <v>182</v>
+      </c>
+      <c r="T97" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I98" t="s">
+        <v>181</v>
+      </c>
+      <c r="T98" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="I106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I107" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="I108" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="I109" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="I110" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="I111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="I112" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="I113" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="I114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="I115" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:H2"/>
@@ -12801,132 +13122,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -13751,6 +14072,40 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -13767,40 +14122,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13812,139 +14133,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91435FB5-23B6-4319-B205-FB0A6A4D7936}">
   <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -14116,132 +14437,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31279044-CFA4-4873-B57B-3E3572D7F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5AF63A-F0A4-4973-B137-10BC3CD87632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="5320" yWindow="790" windowWidth="11100" windowHeight="7360" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1888,45 +1889,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1955,6 +1917,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
@@ -6703,215 +6704,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74" t="str">
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74" t="str">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="53" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="61" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="58" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="58" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="60"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="64"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="65">
+      <c r="A5" s="52">
         <v>43884</v>
       </c>
       <c r="B5" s="51"/>
@@ -6921,52 +6922,52 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="54" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="54" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="56"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="67"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="51"/>
@@ -6977,46 +6978,46 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="56"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="67"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="51"/>
@@ -7027,46 +7028,46 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="56"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="67"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="51"/>
@@ -7077,46 +7078,46 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="56"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="67"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="51"/>
@@ -7127,46 +7128,46 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="56"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="67"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="51"/>
@@ -7177,46 +7178,46 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="56"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="67"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="51"/>
@@ -7227,46 +7228,46 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="56"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="67"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="51"/>
@@ -7277,46 +7278,46 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="56"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="67"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51"/>
@@ -7327,46 +7328,46 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="55"/>
-      <c r="AV13" s="56"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="67"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51"/>
@@ -7377,46 +7378,46 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="56"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="67"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="51"/>
@@ -7427,46 +7428,46 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="56"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="67"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="51"/>
@@ -7477,49 +7478,100 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="55"/>
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="56"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -7536,57 +7588,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7598,139 +7599,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B2B8B-8AF5-4081-9DB1-144871B30F22}">
   <dimension ref="A1:AV119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -13122,132 +13123,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -14072,18 +14073,28 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -14100,28 +14111,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14140,132 +14141,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -14437,132 +14438,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5AF63A-F0A4-4973-B137-10BC3CD87632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D71C6-6BC1-4783-8A2D-703D0B03CCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="790" windowWidth="11100" windowHeight="7360" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1889,6 +1888,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1917,45 +1955,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
@@ -6704,215 +6703,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="66" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="69" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="62" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="62" t="s">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="64"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="60"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52">
+      <c r="A5" s="65">
         <v>43884</v>
       </c>
       <c r="B5" s="51"/>
@@ -6922,52 +6921,52 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="65" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="65" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="67"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="56"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="51"/>
@@ -6978,46 +6977,46 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="67"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="56"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="51"/>
@@ -7028,46 +7027,46 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="67"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="56"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="51"/>
@@ -7078,46 +7077,46 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="67"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="56"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="51"/>
@@ -7128,46 +7127,46 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="67"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="56"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="51"/>
@@ -7178,46 +7177,46 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="67"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="56"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="51"/>
@@ -7228,46 +7227,46 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="67"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="56"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="51"/>
@@ -7278,46 +7277,46 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="67"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="56"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51"/>
@@ -7328,46 +7327,46 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="67"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="56"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51"/>
@@ -7378,46 +7377,46 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="67"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="56"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="51"/>
@@ -7428,46 +7427,46 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="67"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="56"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="51"/>
@@ -7478,78 +7477,71 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="67"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -7566,28 +7558,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7599,139 +7598,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B2B8B-8AF5-4081-9DB1-144871B30F22}">
   <dimension ref="A1:AV119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y108" sqref="Y108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -13123,132 +13122,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -14073,6 +14072,40 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -14089,40 +14122,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14141,132 +14140,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -14438,132 +14437,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="66" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="73">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D71C6-6BC1-4783-8A2D-703D0B03CCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCEFCC5-2B3E-48FA-884A-BA3B3EB5245D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="2100" yWindow="2840" windowWidth="11100" windowHeight="7360" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -1888,45 +1888,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1955,6 +1916,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
@@ -6703,215 +6703,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74" t="str">
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74" t="str">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="53" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="61" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="58" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="58" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="60"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="64"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="65">
+      <c r="A5" s="52">
         <v>43884</v>
       </c>
       <c r="B5" s="51"/>
@@ -6921,52 +6921,52 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="54" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="54" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="56"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="67"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="51"/>
@@ -6977,46 +6977,46 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="56"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="67"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="51"/>
@@ -7027,46 +7027,46 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="56"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="67"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="51"/>
@@ -7077,46 +7077,46 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="56"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="67"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="51"/>
@@ -7127,46 +7127,46 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="56"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="67"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="51"/>
@@ -7177,46 +7177,46 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="56"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="67"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="51"/>
@@ -7227,46 +7227,46 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="56"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="67"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="51"/>
@@ -7277,46 +7277,46 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="56"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="67"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51"/>
@@ -7327,46 +7327,46 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="55"/>
-      <c r="AV13" s="56"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="67"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51"/>
@@ -7377,46 +7377,46 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="56"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="67"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="51"/>
@@ -7427,46 +7427,46 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="56"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="67"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="51"/>
@@ -7477,49 +7477,100 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="55"/>
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="56"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -7536,57 +7587,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7599,138 +7599,138 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y108" sqref="Y108"/>
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -13122,132 +13122,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -14072,18 +14072,28 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -14100,28 +14110,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14140,132 +14140,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -14437,132 +14437,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="55" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="72" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="66" t="str">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="53" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="73">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="str">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66" t="str">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66" t="str">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCEFCC5-2B3E-48FA-884A-BA3B3EB5245D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8BCDC-5AD9-47D0-A9A8-2798E99136DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2840" windowWidth="11100" windowHeight="7360" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">IOデータ!$A$1:$AV$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$125</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">処理詳細!$A$1:$AV$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">処理詳細!$A$1:$AV$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -238,16 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．初期処理</t>
-    <rPh sb="2" eb="4">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１－１．処理対象日を取得</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
@@ -315,26 +305,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．マスタ取込処理</t>
-    <rPh sb="5" eb="7">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２－１．キャラクタマスタ取込処理</t>
-    <rPh sb="12" eb="14">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1240,6 +1210,109 @@
     <rPh sb="15" eb="16">
       <t>キ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．ログイン処理</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．メインメニュー表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面項目．ユーザID</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面項目．パスワード</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザマスタ.ユーザコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザマスタ.パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２－１．キャラクタマスタ取得処理</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１－３．チェック処理</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力チェック</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正誤判定</t>
+    <rPh sb="1" eb="3">
+      <t>セイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１でユーザ情報を取得できた場合、キャラクタデータを取得</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>a1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1383,7 +1456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1722,6 +1795,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,7 +1830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,11 +1981,53 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1918,45 +2059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1970,6 +2072,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5838,20 +5946,20 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AX3" s="50" t="s">
+      <c r="AX3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="51" t="s">
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="51"/>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="51"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
@@ -5902,20 +6010,20 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AX4" s="50" t="s">
+      <c r="AX4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
-      <c r="BB4" s="50"/>
-      <c r="BC4" s="51" t="s">
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="51"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
@@ -6703,852 +6811,845 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="69" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="67" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="74">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61" t="str">
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="75" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61" t="str">
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="67" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="54"/>
+      <c r="BF3" s="54"/>
+      <c r="BG3" s="54"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="69" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="62" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="62" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="64"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="61"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52">
+      <c r="A5" s="66">
         <v>43884</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="72" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="65" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="65" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="67"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="57"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="67"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="57"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="67"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="57"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="67"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="57"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="67"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="57"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="67"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="57"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="67"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="57"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="67"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="57"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="67"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="57"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="67"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="57"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="67"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="57"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="67"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -7565,28 +7666,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7598,139 +7706,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B2B8B-8AF5-4081-9DB1-144871B30F22}">
   <dimension ref="A1:AV119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="69" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="67" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="74">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -8123,7 +8231,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="14"/>
       <c r="AH11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -8277,7 +8385,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="14"/>
       <c r="AH14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -8329,7 +8437,7 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="14"/>
       <c r="AH15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -8382,7 +8490,7 @@
       <c r="AG16" s="14"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -8433,7 +8541,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="14"/>
       <c r="AH17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -8485,7 +8593,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="14"/>
       <c r="AH18" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -9454,7 +9562,7 @@
     </row>
     <row r="38" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -9591,7 +9699,7 @@
       <c r="AF40" s="15"/>
       <c r="AG40" s="14"/>
       <c r="AH40" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
@@ -9612,7 +9720,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -9645,7 +9753,7 @@
       <c r="AF41" s="15"/>
       <c r="AG41" s="14"/>
       <c r="AH41" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
@@ -9747,7 +9855,7 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="14"/>
       <c r="AH43" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
@@ -9799,14 +9907,14 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="14"/>
       <c r="AH44" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -9853,7 +9961,7 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="14"/>
       <c r="AH45" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
@@ -9905,7 +10013,7 @@
       <c r="AF46" s="15"/>
       <c r="AG46" s="14"/>
       <c r="AH46" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
@@ -9957,12 +10065,12 @@
       <c r="AF47" s="15"/>
       <c r="AG47" s="14"/>
       <c r="AH47" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
@@ -10011,7 +10119,7 @@
       <c r="AF48" s="15"/>
       <c r="AG48" s="14"/>
       <c r="AH48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
@@ -10063,7 +10171,7 @@
       <c r="AF49" s="15"/>
       <c r="AG49" s="14"/>
       <c r="AH49" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
@@ -10115,12 +10223,12 @@
       <c r="AF50" s="15"/>
       <c r="AG50" s="14"/>
       <c r="AH50" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
@@ -10169,7 +10277,7 @@
       <c r="AF51" s="15"/>
       <c r="AG51" s="14"/>
       <c r="AH51" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
@@ -10221,7 +10329,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="14"/>
       <c r="AH52" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
@@ -10273,12 +10381,12 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="14"/>
       <c r="AH53" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
@@ -10327,7 +10435,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="14"/>
       <c r="AH54" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
@@ -10379,7 +10487,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="14"/>
       <c r="AH55" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
@@ -10431,7 +10539,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="14"/>
       <c r="AH56" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
@@ -10483,7 +10591,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="14"/>
       <c r="AH57" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
@@ -10535,7 +10643,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="14"/>
       <c r="AH58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
@@ -10587,7 +10695,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="14"/>
       <c r="AH59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
@@ -10640,7 +10748,7 @@
       <c r="AG60" s="14"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
@@ -10691,7 +10799,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="14"/>
       <c r="AH61" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
@@ -10743,7 +10851,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="14"/>
       <c r="AH62" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
@@ -10845,7 +10953,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="14"/>
       <c r="AH64" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
@@ -10897,7 +11005,7 @@
       <c r="AF65" s="15"/>
       <c r="AG65" s="14"/>
       <c r="AH65" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
@@ -10949,7 +11057,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="14"/>
       <c r="AH66" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
@@ -11001,7 +11109,7 @@
       <c r="AF67" s="15"/>
       <c r="AG67" s="14"/>
       <c r="AH67" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
@@ -11053,7 +11161,7 @@
       <c r="AF68" s="15"/>
       <c r="AG68" s="14"/>
       <c r="AH68" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
@@ -11123,7 +11231,7 @@
     <row r="70" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="14"/>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -11157,7 +11265,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -11209,7 +11317,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -11261,7 +11369,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -11683,7 +11791,7 @@
     <row r="81" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -11735,7 +11843,7 @@
     <row r="82" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -11840,7 +11948,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -11948,7 +12056,7 @@
     </row>
     <row r="86" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -11956,24 +12064,24 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12020,24 +12128,24 @@
         <v>2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12084,19 +12192,19 @@
         <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -12146,19 +12254,19 @@
         <v>4</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -12208,19 +12316,19 @@
         <v>5</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -12315,7 +12423,7 @@
     <row r="92" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -12367,7 +12475,7 @@
     <row r="93" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -12419,7 +12527,7 @@
     <row r="94" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12470,158 +12578,158 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I97" t="s">
+        <v>177</v>
+      </c>
+      <c r="O97" t="s">
+        <v>179</v>
+      </c>
+      <c r="T97" t="s">
         <v>180</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Y97" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC97" t="s">
         <v>182</v>
-      </c>
-      <c r="T97" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AC98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I106" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q107" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q108" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -12647,462 +12755,550 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="E4" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="F4" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="H4" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="I4" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="J4" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="M4" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="N4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="46" t="s">
+      <c r="O4" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="P4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="R4" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="S4" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="T4" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="U4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="V4" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="X4" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="Y4" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="Z4" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="AA4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="AB4" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="AC4" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AD4" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AE4" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="46" t="s">
+      <c r="AF4" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AD4" s="46" t="s">
+      <c r="AG4" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AE4" s="46" t="s">
+      <c r="AH4" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AF4" s="46" t="s">
+      <c r="AI4" s="46" t="s">
         <v>139</v>
-      </c>
-      <c r="AG4" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH4" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI4" s="46" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="49" t="s">
+      <c r="M5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="S5" s="49" t="s">
-        <v>159</v>
-      </c>
       <c r="T5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Z5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD5" s="49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AE5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AF5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AH5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI5" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="M6" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="48" t="s">
+      <c r="P6" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="N6" s="48" t="s">
+      <c r="U6" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="V6" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="O6" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="R6" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>170</v>
-      </c>
       <c r="W6" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X6" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y6" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AA6" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB6" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AC6" s="48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AD6" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AE6" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF6" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AG6" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AH6" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AI6" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="46" t="s">
+      <c r="K9" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="L9" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="G10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="H10" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="49" t="s">
+      <c r="L10" s="49" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="G11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="47" t="s">
+      <c r="I11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>170</v>
+      <c r="K14" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -13122,132 +13318,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="69" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="67" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="74">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -13255,112 +13451,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="76" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="77"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="79"/>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="78"/>
+      <c r="A6" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="79"/>
     </row>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13369,490 +13565,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="79" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="75" t="s">
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
     </row>
     <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="79"/>
+    </row>
+    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="78"/>
-    </row>
-    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="79"/>
     </row>
     <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="79"/>
+    </row>
+    <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="76" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="78"/>
-    </row>
-    <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="75" t="s">
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="79"/>
+    </row>
+    <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="78"/>
-    </row>
-    <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="79"/>
     </row>
     <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="78"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="79"/>
     </row>
     <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="78"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="79"/>
     </row>
     <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="78"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="79"/>
     </row>
     <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13861,217 +14057,251 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="76" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="79"/>
     </row>
     <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="78"/>
+      <c r="A21" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="79"/>
     </row>
     <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="77"/>
-      <c r="AV22" s="78"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="79"/>
     </row>
     <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="77"/>
-      <c r="AK23" s="77"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="77"/>
-      <c r="AV23" s="78"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="78"/>
+      <c r="AQ23" s="78"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="79"/>
     </row>
     <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -14088,40 +14318,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14131,141 +14327,141 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91435FB5-23B6-4319-B205-FB0A6A4D7936}">
-  <dimension ref="A1:AV36"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="69" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="67" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="74">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -14319,93 +14515,234 @@
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="29" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA9" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AA12" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AA13" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+    </row>
+    <row r="18" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="U18" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP18" s="31"/>
+    </row>
+    <row r="19" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="U19" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP19" s="31"/>
+    </row>
+    <row r="20" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="33"/>
+    </row>
+    <row r="21" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="29" t="s">
+    <row r="35" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="3:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -14430,139 +14767,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF81728-3DF3-4757-BB71-2D0D22694511}">
   <dimension ref="A1:AV38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="69" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59" t="s">
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="53" t="str">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="67" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="60">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="74">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="str">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53" t="str">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53" t="str">
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -14617,7 +14954,7 @@
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -14625,7 +14962,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -14728,7 +15065,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -14782,10 +15119,10 @@
       <c r="G11" s="38"/>
       <c r="H11" s="39"/>
       <c r="I11" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA11" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP11" s="31"/>
     </row>
@@ -14796,10 +15133,10 @@
       <c r="G12" s="38"/>
       <c r="H12" s="39"/>
       <c r="I12" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA12" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP12" s="31"/>
     </row>
@@ -14810,10 +15147,10 @@
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
       <c r="I13" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA13" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP13" s="31"/>
     </row>
@@ -14824,10 +15161,10 @@
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
       <c r="I14" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA14" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP14" s="31"/>
     </row>
@@ -14838,10 +15175,10 @@
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
       <c r="I15" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA15" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP15" s="31"/>
     </row>
@@ -14852,10 +15189,10 @@
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
       <c r="I16" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA16" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="31"/>
     </row>
@@ -14866,10 +15203,10 @@
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
       <c r="I17" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP17" s="31"/>
     </row>
@@ -14880,10 +15217,10 @@
       <c r="G18" s="38"/>
       <c r="H18" s="39"/>
       <c r="I18" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="31"/>
     </row>
@@ -14894,10 +15231,10 @@
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
       <c r="I19" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA19" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP19" s="31"/>
     </row>
@@ -14908,10 +15245,10 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
       <c r="I20" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA20" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="31"/>
     </row>
@@ -14925,7 +15262,7 @@
     </row>
     <row r="22" spans="4:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -14973,7 +15310,7 @@
       <c r="G23" s="38"/>
       <c r="H23" s="39"/>
       <c r="I23" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP23" s="31"/>
     </row>
@@ -14984,7 +15321,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
       <c r="I24" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP24" s="31"/>
     </row>
@@ -15031,7 +15368,7 @@
     </row>
     <row r="26" spans="4:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -15079,7 +15416,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
       <c r="I27" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP27" s="31"/>
     </row>
@@ -15090,7 +15427,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
       <c r="I28" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP28" s="31"/>
     </row>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661D32D-3E63-43E4-9582-2B96DD70A2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1685DC-6A20-428F-A283-A5E6408F6252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="265">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -840,9 +840,6 @@
     <t>class3</t>
   </si>
   <si>
-    <t>rank</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -861,16 +858,10 @@
     <t>bit</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>def</t>
   </si>
   <si>
     <t>agi</t>
-  </si>
-  <si>
-    <t>talent</t>
   </si>
   <si>
     <t>is_deleted</t>
@@ -1593,6 +1584,24 @@
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guild_rank</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>talent1</t>
+  </si>
+  <si>
+    <t>talent2</t>
+  </si>
+  <si>
+    <t>talent3</t>
   </si>
 </sst>
 </file>
@@ -2297,11 +2306,68 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2333,45 +2399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2385,42 +2412,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -2439,6 +2430,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9073,7 +9082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DD7EB2-AEF7-43F5-8A50-168CCC8773B4}">
   <dimension ref="A1:BG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="102" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="102" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -9229,20 +9238,20 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AX3" s="61" t="s">
+      <c r="AX3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="62" t="s">
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
@@ -9293,20 +9302,20 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AX4" s="61" t="s">
+      <c r="AX4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="62" t="s">
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
@@ -10094,852 +10103,845 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="91" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="83" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="80" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="73" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="73" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="75"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="77"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="63">
+      <c r="A5" s="82">
         <v>43884</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="83" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="76" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="76" t="s">
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="77"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="78"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="72"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="72"/>
+      <c r="AV5" s="73"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="78"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="72"/>
+      <c r="AU6" s="72"/>
+      <c r="AV6" s="73"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="78"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="73"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="78"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="73"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="78"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="73"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="78"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="73"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="78"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="73"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="78"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="73"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="78"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="73"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="78"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="73"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="78"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="73"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="78"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -10956,28 +10958,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10989,139 +10998,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B2B8B-8AF5-4081-9DB1-144871B30F22}">
   <dimension ref="A1:AV119"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="str">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -14548,7 +14557,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -14600,7 +14609,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -14652,7 +14661,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -15861,158 +15870,158 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I97" t="s">
+        <v>163</v>
+      </c>
+      <c r="O97" t="s">
+        <v>165</v>
+      </c>
+      <c r="T97" t="s">
         <v>166</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Y97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC97" t="s">
         <v>168</v>
-      </c>
-      <c r="T97" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I106" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I107" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q107" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q108" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q112" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q113" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -16047,132 +16056,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="str">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
     </row>
     <row r="4" spans="1:48" s="53" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -19599,7 +19608,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -19651,7 +19660,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -19703,7 +19712,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -20912,158 +20921,158 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I97" t="s">
+        <v>163</v>
+      </c>
+      <c r="O97" t="s">
+        <v>165</v>
+      </c>
+      <c r="T97" t="s">
         <v>166</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Y97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC97" t="s">
         <v>168</v>
-      </c>
-      <c r="T97" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I106" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I107" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q107" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q108" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q112" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q113" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -21089,23 +21098,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="51" t="s">
         <v>103</v>
       </c>
@@ -21161,64 +21172,73 @@
         <v>118</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="U4" s="51" t="s">
         <v>121</v>
       </c>
       <c r="V4" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="Y4" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="Z4" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="AA4" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="AC4" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AD4" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE4" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF4" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG4" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH4" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ4" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK4" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL4" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM4" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="AB4" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC4" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD4" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE4" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF4" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG4" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH4" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI4" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ4" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK4" s="51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -21257,324 +21277,333 @@
       <c r="AJ5" s="49"/>
       <c r="AK5" s="49"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" t="s">
         <v>208</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" t="s">
+        <v>210</v>
+      </c>
+      <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
         <v>208</v>
       </c>
-      <c r="D6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="P6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>212</v>
+      </c>
+      <c r="R6" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
         <v>208</v>
       </c>
-      <c r="F6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="Y6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG6" t="s">
         <v>214</v>
       </c>
-      <c r="O6" t="s">
-        <v>211</v>
-      </c>
-      <c r="P6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>215</v>
-      </c>
-      <c r="R6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S6" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" t="s">
-        <v>211</v>
-      </c>
-      <c r="U6" t="s">
-        <v>211</v>
-      </c>
-      <c r="V6" t="s">
-        <v>217</v>
-      </c>
-      <c r="W6" t="s">
-        <v>211</v>
-      </c>
-      <c r="X6" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>217</v>
-      </c>
       <c r="AH6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI6">
+        <v>214</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL6">
         <v>1</v>
       </c>
-      <c r="AJ6">
+      <c r="AM6">
         <v>1</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="46" t="s">
+      <c r="D11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="46" t="s">
+      <c r="M14" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="N14" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="49" t="s">
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="E15" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="H15" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="47" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="L15" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="48" t="s">
+      <c r="M15" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="48" t="s">
+      <c r="N15" s="47" t="s">
         <v>153</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -21594,132 +21623,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="str">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -21727,112 +21756,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="87" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="89"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="95"/>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="87" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="88"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="88"/>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="88"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="89"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
     </row>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21841,490 +21870,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="90" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="86" t="s">
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
     </row>
     <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="87" t="s">
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="88"/>
-      <c r="AS10" s="88"/>
-      <c r="AT10" s="88"/>
-      <c r="AU10" s="88"/>
-      <c r="AV10" s="89"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="95"/>
     </row>
     <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="87" t="s">
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="88"/>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="89"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="95"/>
     </row>
     <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="87" t="s">
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="88"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="88"/>
-      <c r="AN12" s="88"/>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="88"/>
-      <c r="AQ12" s="88"/>
-      <c r="AR12" s="88"/>
-      <c r="AS12" s="88"/>
-      <c r="AT12" s="88"/>
-      <c r="AU12" s="88"/>
-      <c r="AV12" s="89"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="95"/>
     </row>
     <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="87" t="s">
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="88"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="88"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="88"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="88"/>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="89"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="95"/>
     </row>
     <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="87" t="s">
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="89"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="95"/>
     </row>
     <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="88"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="88"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="88"/>
-      <c r="AT15" s="88"/>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="95"/>
     </row>
     <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="88"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="88"/>
-      <c r="AT16" s="88"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="89"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="95"/>
     </row>
     <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="88"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="88"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="88"/>
-      <c r="AQ17" s="88"/>
-      <c r="AR17" s="88"/>
-      <c r="AS17" s="88"/>
-      <c r="AT17" s="88"/>
-      <c r="AU17" s="88"/>
-      <c r="AV17" s="89"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="95"/>
     </row>
     <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22333,217 +22362,251 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="87" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="89"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="95"/>
     </row>
     <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="87" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="88"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="88"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="89"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="95"/>
     </row>
     <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="88"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="88"/>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="89"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="94"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="95"/>
     </row>
     <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="88"/>
-      <c r="AN23" s="88"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="88"/>
-      <c r="AR23" s="88"/>
-      <c r="AS23" s="88"/>
-      <c r="AT23" s="88"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="89"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="94"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="94"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
+      <c r="AU23" s="94"/>
+      <c r="AV23" s="95"/>
     </row>
     <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -22560,40 +22623,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22613,132 +22642,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="str">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -22792,7 +22821,7 @@
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -22824,7 +22853,7 @@
     <row r="13" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22899,13 +22928,13 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
       <c r="I20" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="U20" s="50" t="s">
         <v>195</v>
-      </c>
-      <c r="R20" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="U20" s="50" t="s">
-        <v>198</v>
       </c>
       <c r="AP20" s="31"/>
     </row>
@@ -22916,13 +22945,13 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="U21" s="50" t="s">
         <v>196</v>
-      </c>
-      <c r="R21" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="U21" s="50" t="s">
-        <v>199</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
@@ -22970,195 +22999,195 @@
     <row r="23" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="24" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="26" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="29" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="31" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="33" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="36" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="38" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="106" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="108"/>
+    </row>
+    <row r="41" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="93" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="94"/>
+      <c r="AD41" s="94"/>
+      <c r="AE41" s="94"/>
+      <c r="AF41" s="95"/>
+    </row>
+    <row r="42" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="91" t="s">
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="105"/>
+    </row>
+    <row r="43" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="93"/>
-    </row>
-    <row r="41" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="89"/>
-    </row>
-    <row r="42" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E42" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="96"/>
-    </row>
-    <row r="43" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="96"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="105"/>
     </row>
     <row r="44" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
@@ -23169,78 +23198,78 @@
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="56"/>
-      <c r="O44" s="87" t="b">
+      <c r="O44" s="93" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="89"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="94"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="95"/>
     </row>
     <row r="45" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="87" t="b">
+      <c r="E45" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="93" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="89"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="94"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="94"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94"/>
+      <c r="AD45" s="94"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="95"/>
     </row>
     <row r="46" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="48" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="50" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="52" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" s="58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
@@ -23251,37 +23280,37 @@
       <c r="L52" s="59"/>
       <c r="M52" s="59"/>
       <c r="N52" s="60"/>
-      <c r="O52" s="101" t="s">
-        <v>248</v>
-      </c>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="97"/>
-      <c r="T52" s="97"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="97"/>
-      <c r="W52" s="97"/>
-      <c r="X52" s="97"/>
-      <c r="Y52" s="97"/>
-      <c r="Z52" s="97"/>
-      <c r="AA52" s="97"/>
-      <c r="AB52" s="97"/>
-      <c r="AC52" s="97"/>
-      <c r="AD52" s="97"/>
-      <c r="AE52" s="97"/>
-      <c r="AF52" s="98"/>
+      <c r="O52" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="62"/>
     </row>
     <row r="53" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="54" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="56" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E56" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F56" s="59"/>
       <c r="G56" s="59"/>
@@ -23292,30 +23321,30 @@
       <c r="L56" s="59"/>
       <c r="M56" s="59"/>
       <c r="N56" s="60"/>
-      <c r="O56" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="97"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="97"/>
-      <c r="AE56" s="97"/>
-      <c r="AF56" s="98"/>
+      <c r="O56" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="62"/>
     </row>
     <row r="57" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E57" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F57" s="59"/>
       <c r="G57" s="59"/>
@@ -23326,55 +23355,55 @@
       <c r="L57" s="59"/>
       <c r="M57" s="59"/>
       <c r="N57" s="60"/>
-      <c r="O57" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="99"/>
-      <c r="S57" s="99"/>
-      <c r="T57" s="99"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
-      <c r="X57" s="99"/>
-      <c r="Y57" s="99"/>
-      <c r="Z57" s="99"/>
-      <c r="AA57" s="99"/>
-      <c r="AB57" s="99"/>
-      <c r="AC57" s="99"/>
-      <c r="AD57" s="99"/>
-      <c r="AE57" s="99"/>
-      <c r="AF57" s="100"/>
+      <c r="O57" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="Y57" s="63"/>
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="63"/>
+      <c r="AB57" s="63"/>
+      <c r="AC57" s="63"/>
+      <c r="AD57" s="63"/>
+      <c r="AE57" s="63"/>
+      <c r="AF57" s="64"/>
     </row>
     <row r="58" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="59" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="60" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="62" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" s="53" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="64" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E64" s="53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="66" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F66" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F67" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G67" s="59"/>
       <c r="H67" s="59"/>
@@ -23385,96 +23414,96 @@
       <c r="M67" s="59"/>
       <c r="N67" s="59"/>
       <c r="O67" s="60"/>
-      <c r="P67" s="101" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q67" s="97"/>
-      <c r="R67" s="97"/>
-      <c r="S67" s="97"/>
-      <c r="T67" s="97"/>
-      <c r="U67" s="97"/>
-      <c r="V67" s="97"/>
-      <c r="W67" s="97"/>
-      <c r="X67" s="97"/>
-      <c r="Y67" s="97"/>
-      <c r="Z67" s="97"/>
-      <c r="AA67" s="97"/>
-      <c r="AB67" s="97"/>
-      <c r="AC67" s="97"/>
-      <c r="AD67" s="97"/>
-      <c r="AE67" s="97"/>
-      <c r="AF67" s="97"/>
-      <c r="AG67" s="98"/>
+      <c r="P67" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="61"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="62"/>
     </row>
     <row r="68" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="104"/>
-      <c r="O68" s="105"/>
-      <c r="P68" s="101" t="s">
+      <c r="F68" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="98"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
+      <c r="AB68" s="61"/>
+      <c r="AC68" s="61"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="61"/>
+      <c r="AF68" s="61"/>
+      <c r="AG68" s="62"/>
+    </row>
+    <row r="69" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" s="100"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="Q68" s="97"/>
-      <c r="R68" s="97"/>
-      <c r="S68" s="97"/>
-      <c r="T68" s="97"/>
-      <c r="U68" s="97"/>
-      <c r="V68" s="97"/>
-      <c r="W68" s="97"/>
-      <c r="X68" s="97"/>
-      <c r="Y68" s="97"/>
-      <c r="Z68" s="97"/>
-      <c r="AA68" s="97"/>
-      <c r="AB68" s="97"/>
-      <c r="AC68" s="97"/>
-      <c r="AD68" s="97"/>
-      <c r="AE68" s="97"/>
-      <c r="AF68" s="97"/>
-      <c r="AG68" s="98"/>
-    </row>
-    <row r="69" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="106"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="107"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q69" s="97"/>
-      <c r="R69" s="97"/>
-      <c r="S69" s="97"/>
-      <c r="T69" s="97"/>
-      <c r="U69" s="97"/>
-      <c r="V69" s="97"/>
-      <c r="W69" s="97"/>
-      <c r="X69" s="97"/>
-      <c r="Y69" s="97"/>
-      <c r="Z69" s="97"/>
-      <c r="AA69" s="97"/>
-      <c r="AB69" s="97"/>
-      <c r="AC69" s="97"/>
-      <c r="AD69" s="97"/>
-      <c r="AE69" s="97"/>
-      <c r="AF69" s="97"/>
-      <c r="AG69" s="98"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+      <c r="Z69" s="61"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="61"/>
+      <c r="AC69" s="61"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="61"/>
+      <c r="AF69" s="61"/>
+      <c r="AG69" s="62"/>
     </row>
     <row r="70" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F70" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G70" s="59"/>
       <c r="H70" s="59"/>
@@ -23485,30 +23514,30 @@
       <c r="M70" s="59"/>
       <c r="N70" s="59"/>
       <c r="O70" s="60"/>
-      <c r="P70" s="102" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="99"/>
-      <c r="T70" s="99"/>
-      <c r="U70" s="99"/>
-      <c r="V70" s="99"/>
-      <c r="W70" s="99"/>
-      <c r="X70" s="99"/>
-      <c r="Y70" s="99"/>
-      <c r="Z70" s="99"/>
-      <c r="AA70" s="99"/>
-      <c r="AB70" s="99"/>
-      <c r="AC70" s="99"/>
-      <c r="AD70" s="99"/>
-      <c r="AE70" s="99"/>
-      <c r="AF70" s="99"/>
-      <c r="AG70" s="100"/>
+      <c r="P70" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
+      <c r="U70" s="63"/>
+      <c r="V70" s="63"/>
+      <c r="W70" s="63"/>
+      <c r="X70" s="63"/>
+      <c r="Y70" s="63"/>
+      <c r="Z70" s="63"/>
+      <c r="AA70" s="63"/>
+      <c r="AB70" s="63"/>
+      <c r="AC70" s="63"/>
+      <c r="AD70" s="63"/>
+      <c r="AE70" s="63"/>
+      <c r="AF70" s="63"/>
+      <c r="AG70" s="64"/>
     </row>
     <row r="71" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F71" s="58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G71" s="59"/>
       <c r="H71" s="59"/>
@@ -23519,42 +23548,42 @@
       <c r="M71" s="59"/>
       <c r="N71" s="59"/>
       <c r="O71" s="60"/>
-      <c r="P71" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q71" s="99"/>
-      <c r="R71" s="99"/>
-      <c r="S71" s="99"/>
-      <c r="T71" s="99"/>
-      <c r="U71" s="99"/>
-      <c r="V71" s="99"/>
-      <c r="W71" s="99"/>
-      <c r="X71" s="99"/>
-      <c r="Y71" s="99"/>
-      <c r="Z71" s="99"/>
-      <c r="AA71" s="99"/>
-      <c r="AB71" s="99"/>
-      <c r="AC71" s="99"/>
-      <c r="AD71" s="99"/>
-      <c r="AE71" s="99"/>
-      <c r="AF71" s="99"/>
-      <c r="AG71" s="100"/>
+      <c r="P71" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="63"/>
+      <c r="U71" s="63"/>
+      <c r="V71" s="63"/>
+      <c r="W71" s="63"/>
+      <c r="X71" s="63"/>
+      <c r="Y71" s="63"/>
+      <c r="Z71" s="63"/>
+      <c r="AA71" s="63"/>
+      <c r="AB71" s="63"/>
+      <c r="AC71" s="63"/>
+      <c r="AD71" s="63"/>
+      <c r="AE71" s="63"/>
+      <c r="AF71" s="63"/>
+      <c r="AG71" s="64"/>
     </row>
     <row r="72" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="73" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" s="53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="75" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F75" s="53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F76" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G76" s="59"/>
       <c r="H76" s="59"/>
@@ -23565,96 +23594,96 @@
       <c r="M76" s="59"/>
       <c r="N76" s="59"/>
       <c r="O76" s="60"/>
-      <c r="P76" s="101" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q76" s="97"/>
-      <c r="R76" s="97"/>
-      <c r="S76" s="97"/>
-      <c r="T76" s="97"/>
-      <c r="U76" s="97"/>
-      <c r="V76" s="97"/>
-      <c r="W76" s="97"/>
-      <c r="X76" s="97"/>
-      <c r="Y76" s="97"/>
-      <c r="Z76" s="97"/>
-      <c r="AA76" s="97"/>
-      <c r="AB76" s="97"/>
-      <c r="AC76" s="97"/>
-      <c r="AD76" s="97"/>
-      <c r="AE76" s="97"/>
-      <c r="AF76" s="97"/>
-      <c r="AG76" s="98"/>
+      <c r="P76" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61"/>
+      <c r="X76" s="61"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61"/>
+      <c r="AA76" s="61"/>
+      <c r="AB76" s="61"/>
+      <c r="AC76" s="61"/>
+      <c r="AD76" s="61"/>
+      <c r="AE76" s="61"/>
+      <c r="AF76" s="61"/>
+      <c r="AG76" s="62"/>
     </row>
     <row r="77" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="104"/>
-      <c r="N77" s="104"/>
-      <c r="O77" s="105"/>
-      <c r="P77" s="101" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q77" s="97"/>
-      <c r="R77" s="97"/>
-      <c r="S77" s="97"/>
-      <c r="T77" s="97"/>
-      <c r="U77" s="97"/>
-      <c r="V77" s="97"/>
-      <c r="W77" s="97"/>
-      <c r="X77" s="97"/>
-      <c r="Y77" s="97"/>
-      <c r="Z77" s="97"/>
-      <c r="AA77" s="97"/>
-      <c r="AB77" s="97"/>
-      <c r="AC77" s="97"/>
-      <c r="AD77" s="97"/>
-      <c r="AE77" s="97"/>
-      <c r="AF77" s="97"/>
-      <c r="AG77" s="98"/>
+      <c r="F77" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="98"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="98"/>
+      <c r="M77" s="98"/>
+      <c r="N77" s="98"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="61"/>
+      <c r="T77" s="61"/>
+      <c r="U77" s="61"/>
+      <c r="V77" s="61"/>
+      <c r="W77" s="61"/>
+      <c r="X77" s="61"/>
+      <c r="Y77" s="61"/>
+      <c r="Z77" s="61"/>
+      <c r="AA77" s="61"/>
+      <c r="AB77" s="61"/>
+      <c r="AC77" s="61"/>
+      <c r="AD77" s="61"/>
+      <c r="AE77" s="61"/>
+      <c r="AF77" s="61"/>
+      <c r="AG77" s="62"/>
     </row>
     <row r="78" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="106"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="108"/>
-      <c r="P78" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q78" s="97"/>
-      <c r="R78" s="97"/>
-      <c r="S78" s="97"/>
-      <c r="T78" s="97"/>
-      <c r="U78" s="97"/>
-      <c r="V78" s="97"/>
-      <c r="W78" s="97"/>
-      <c r="X78" s="97"/>
-      <c r="Y78" s="97"/>
-      <c r="Z78" s="97"/>
-      <c r="AA78" s="97"/>
-      <c r="AB78" s="97"/>
-      <c r="AC78" s="97"/>
-      <c r="AD78" s="97"/>
-      <c r="AE78" s="97"/>
-      <c r="AF78" s="97"/>
-      <c r="AG78" s="98"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="101"/>
+      <c r="J78" s="101"/>
+      <c r="K78" s="101"/>
+      <c r="L78" s="101"/>
+      <c r="M78" s="101"/>
+      <c r="N78" s="101"/>
+      <c r="O78" s="102"/>
+      <c r="P78" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="61"/>
+      <c r="Y78" s="61"/>
+      <c r="Z78" s="61"/>
+      <c r="AA78" s="61"/>
+      <c r="AB78" s="61"/>
+      <c r="AC78" s="61"/>
+      <c r="AD78" s="61"/>
+      <c r="AE78" s="61"/>
+      <c r="AF78" s="61"/>
+      <c r="AG78" s="62"/>
     </row>
     <row r="79" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F79" s="58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G79" s="59"/>
       <c r="H79" s="59"/>
@@ -23665,30 +23694,30 @@
       <c r="M79" s="59"/>
       <c r="N79" s="59"/>
       <c r="O79" s="60"/>
-      <c r="P79" s="102" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q79" s="99"/>
-      <c r="R79" s="99"/>
-      <c r="S79" s="99"/>
-      <c r="T79" s="99"/>
-      <c r="U79" s="99"/>
-      <c r="V79" s="99"/>
-      <c r="W79" s="99"/>
-      <c r="X79" s="99"/>
-      <c r="Y79" s="99"/>
-      <c r="Z79" s="99"/>
-      <c r="AA79" s="99"/>
-      <c r="AB79" s="99"/>
-      <c r="AC79" s="99"/>
-      <c r="AD79" s="99"/>
-      <c r="AE79" s="99"/>
-      <c r="AF79" s="99"/>
-      <c r="AG79" s="100"/>
+      <c r="P79" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="63"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="63"/>
+      <c r="W79" s="63"/>
+      <c r="X79" s="63"/>
+      <c r="Y79" s="63"/>
+      <c r="Z79" s="63"/>
+      <c r="AA79" s="63"/>
+      <c r="AB79" s="63"/>
+      <c r="AC79" s="63"/>
+      <c r="AD79" s="63"/>
+      <c r="AE79" s="63"/>
+      <c r="AF79" s="63"/>
+      <c r="AG79" s="64"/>
     </row>
     <row r="80" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F80" s="58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G80" s="59"/>
       <c r="H80" s="59"/>
@@ -23699,37 +23728,37 @@
       <c r="M80" s="59"/>
       <c r="N80" s="59"/>
       <c r="O80" s="60"/>
-      <c r="P80" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="99"/>
-      <c r="S80" s="99"/>
-      <c r="T80" s="99"/>
-      <c r="U80" s="99"/>
-      <c r="V80" s="99"/>
-      <c r="W80" s="99"/>
-      <c r="X80" s="99"/>
-      <c r="Y80" s="99"/>
-      <c r="Z80" s="99"/>
-      <c r="AA80" s="99"/>
-      <c r="AB80" s="99"/>
-      <c r="AC80" s="99"/>
-      <c r="AD80" s="99"/>
-      <c r="AE80" s="99"/>
-      <c r="AF80" s="99"/>
-      <c r="AG80" s="100"/>
+      <c r="P80" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="63"/>
+      <c r="T80" s="63"/>
+      <c r="U80" s="63"/>
+      <c r="V80" s="63"/>
+      <c r="W80" s="63"/>
+      <c r="X80" s="63"/>
+      <c r="Y80" s="63"/>
+      <c r="Z80" s="63"/>
+      <c r="AA80" s="63"/>
+      <c r="AB80" s="63"/>
+      <c r="AC80" s="63"/>
+      <c r="AD80" s="63"/>
+      <c r="AE80" s="63"/>
+      <c r="AF80" s="63"/>
+      <c r="AG80" s="64"/>
     </row>
     <row r="81" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="82" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" s="53" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="84" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" s="53" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -23740,19 +23769,6 @@
     <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -23764,6 +23780,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23782,132 +23811,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="str">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -23963,7 +23992,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24017,7 +24046,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -24173,7 +24202,7 @@
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
       <c r="I10" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AP10" s="31"/>
     </row>
@@ -24238,10 +24267,10 @@
         <v>94</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP13" s="31"/>
     </row>
@@ -24255,10 +24284,10 @@
         <v>93</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="W14" s="53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AP14" s="31"/>
     </row>
@@ -24310,7 +24339,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -24466,7 +24495,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
@@ -24531,10 +24560,10 @@
         <v>94</v>
       </c>
       <c r="S24" s="53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="W24" s="53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP24" s="31"/>
     </row>
@@ -24619,132 +24648,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="str">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="83" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="71">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="90">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="str">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64" t="str">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
     </row>
     <row r="4" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -24801,7 +24830,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1685DC-6A20-428F-A283-A5E6408F6252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10EE76A-8FFF-4C24-B96D-BEC1DDBECD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -2330,45 +2330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2399,6 +2360,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2413,6 +2413,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2430,24 +2448,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10103,215 +10103,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="91" t="str">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="78" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91" t="str">
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="70" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="70"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="91"/>
+      <c r="BD3" s="91"/>
+      <c r="BE3" s="91"/>
+      <c r="BF3" s="91"/>
+      <c r="BG3" s="91"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="78" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="75" t="s">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="75" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="77"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="81"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="82">
+      <c r="A5" s="69">
         <v>43884</v>
       </c>
       <c r="B5" s="68"/>
@@ -10321,52 +10321,52 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="71" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="71" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="73"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="84"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="68"/>
@@ -10377,46 +10377,46 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="73"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="84"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="68"/>
@@ -10427,46 +10427,46 @@
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="73"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="84"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="68"/>
@@ -10477,46 +10477,46 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="73"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="84"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="68"/>
@@ -10527,46 +10527,46 @@
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="73"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="84"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="68"/>
@@ -10577,46 +10577,46 @@
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="73"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="84"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="68"/>
@@ -10627,46 +10627,46 @@
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
       <c r="H11" s="68"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="73"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="84"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="68"/>
@@ -10677,46 +10677,46 @@
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="73"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="84"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="68"/>
@@ -10727,46 +10727,46 @@
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="73"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="84"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="68"/>
@@ -10777,46 +10777,46 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="73"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="84"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="68"/>
@@ -10827,46 +10827,46 @@
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="73"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="84"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="68"/>
@@ -10877,49 +10877,100 @@
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="73"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -10936,57 +10987,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11005,132 +11005,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83" t="str">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83" t="str">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -16056,132 +16056,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83" t="str">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83" t="str">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="4" spans="1:48" s="53" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
@@ -21101,7 +21101,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -21623,132 +21623,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83" t="str">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83" t="str">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
@@ -22573,18 +22573,28 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -22601,28 +22611,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22642,132 +22642,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83" t="str">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83" t="str">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -23050,38 +23050,38 @@
     </row>
     <row r="39" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="106" t="s">
+      <c r="E40" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="106" t="s">
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="107"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="107"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="108"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="98"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="98"/>
+      <c r="V40" s="98"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="98"/>
+      <c r="AB40" s="98"/>
+      <c r="AC40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="99"/>
     </row>
     <row r="41" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="93" t="s">
@@ -23130,26 +23130,26 @@
       <c r="L42" s="94"/>
       <c r="M42" s="94"/>
       <c r="N42" s="95"/>
-      <c r="O42" s="103" t="s">
+      <c r="O42" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="105"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+      <c r="AA42" s="101"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="101"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="101"/>
+      <c r="AF42" s="102"/>
     </row>
     <row r="43" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="93" t="s">
@@ -23164,26 +23164,26 @@
       <c r="L43" s="94"/>
       <c r="M43" s="94"/>
       <c r="N43" s="95"/>
-      <c r="O43" s="103" t="s">
+      <c r="O43" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="104"/>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="105"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="101"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="101"/>
+      <c r="Z43" s="101"/>
+      <c r="AA43" s="101"/>
+      <c r="AB43" s="101"/>
+      <c r="AC43" s="101"/>
+      <c r="AD43" s="101"/>
+      <c r="AE43" s="101"/>
+      <c r="AF43" s="102"/>
     </row>
     <row r="44" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="54" t="s">
@@ -23436,18 +23436,18 @@
       <c r="AG67" s="62"/>
     </row>
     <row r="68" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="97" t="s">
+      <c r="F68" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="98"/>
-      <c r="K68" s="98"/>
-      <c r="L68" s="98"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="98"/>
-      <c r="O68" s="99"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="104"/>
+      <c r="O68" s="105"/>
       <c r="P68" s="65" t="s">
         <v>240</v>
       </c>
@@ -23470,16 +23470,16 @@
       <c r="AG68" s="62"/>
     </row>
     <row r="69" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="100"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="101"/>
-      <c r="K69" s="101"/>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="101"/>
-      <c r="O69" s="102"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="108"/>
       <c r="P69" s="65" t="s">
         <v>243</v>
       </c>
@@ -23616,18 +23616,18 @@
       <c r="AG76" s="62"/>
     </row>
     <row r="77" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="97" t="s">
+      <c r="F77" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98"/>
-      <c r="O77" s="99"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="104"/>
+      <c r="N77" s="104"/>
+      <c r="O77" s="105"/>
       <c r="P77" s="65" t="s">
         <v>239</v>
       </c>
@@ -23650,16 +23650,16 @@
       <c r="AG77" s="62"/>
     </row>
     <row r="78" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="100"/>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="101"/>
-      <c r="K78" s="101"/>
-      <c r="L78" s="101"/>
-      <c r="M78" s="101"/>
-      <c r="N78" s="101"/>
-      <c r="O78" s="102"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="107"/>
+      <c r="M78" s="107"/>
+      <c r="N78" s="107"/>
+      <c r="O78" s="108"/>
       <c r="P78" s="65" t="s">
         <v>243</v>
       </c>
@@ -23769,6 +23769,19 @@
     <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -23780,19 +23793,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23811,132 +23811,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83" t="str">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83" t="str">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
@@ -24648,132 +24648,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="83" t="str">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="70" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="90">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="77">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83" t="str">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83" t="str">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83" t="str">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="4" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10EE76A-8FFF-4C24-B96D-BEC1DDBECD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB4AAD-F6B9-43F5-A0CD-4704CA705DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="1950" yWindow="180" windowWidth="11100" windowHeight="7360" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="279">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -912,27 +912,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int auto_increment</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-  </si>
-  <si>
-    <t>decimal(10,3)</t>
-  </si>
-  <si>
     <t>2020/3/17</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1602,6 +1581,75 @@
   </si>
   <si>
     <t>talent3</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>title_id</t>
+  </si>
+  <si>
+    <t>charisma</t>
+  </si>
+  <si>
+    <t>karma</t>
+  </si>
+  <si>
+    <t>is_reader</t>
+  </si>
+  <si>
+    <t>is_dangeon</t>
+  </si>
+  <si>
+    <t>is_master</t>
+  </si>
+  <si>
+    <t>ガッツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_HP</t>
+  </si>
+  <si>
+    <t>s_MP</t>
+  </si>
+  <si>
+    <t>s_atk</t>
+  </si>
+  <si>
+    <t>s_bit</t>
+  </si>
+  <si>
+    <t>s_mag</t>
+  </si>
+  <si>
+    <t>s_def</t>
+  </si>
+  <si>
+    <t>s_agi</t>
+  </si>
+  <si>
+    <t>total_sense</t>
+  </si>
+  <si>
+    <t>g_rank</t>
+  </si>
+  <si>
+    <t>↓遺伝子</t>
+    <rPh sb="1" eb="4">
+      <t>イデンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1744,7 +1792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2067,49 +2115,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,13 +2268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1">
@@ -2276,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2292,9 +2293,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
@@ -2322,6 +2320,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -14557,7 +14564,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -14609,7 +14616,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -14661,7 +14668,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -15870,158 +15877,158 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I97" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O97" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="T97" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Y97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AC97" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I98" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Y98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AC98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I107" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Q107" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q108" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q109" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q110" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q112" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q113" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -16183,55 +16190,55 @@
       <c r="AU2" s="70"/>
       <c r="AV2" s="70"/>
     </row>
-    <row r="4" spans="1:48" s="53" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:48" s="51" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
       <c r="AI4" s="26"/>
       <c r="AJ4" s="26"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="56"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="54"/>
     </row>
     <row r="5" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="23" t="s">
@@ -17553,7 +17560,7 @@
       <c r="AU30" s="2"/>
       <c r="AV30" s="15"/>
     </row>
-    <row r="31" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -17753,7 +17760,7 @@
       <c r="AU34" s="2"/>
       <c r="AV34" s="15"/>
     </row>
-    <row r="35" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -19261,7 +19268,7 @@
       <c r="AU63" s="2"/>
       <c r="AV63" s="15"/>
     </row>
-    <row r="64" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="14"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -19469,7 +19476,7 @@
       <c r="AU67" s="2"/>
       <c r="AV67" s="15"/>
     </row>
-    <row r="68" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -19608,7 +19615,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -19660,7 +19667,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -19712,7 +19719,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -20868,211 +20875,211 @@
       <c r="AV93" s="2"/>
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
-      <c r="O94" s="53"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="53"/>
-      <c r="T94" s="53"/>
-      <c r="U94" s="53"/>
-      <c r="V94" s="53"/>
-      <c r="W94" s="53"/>
-      <c r="X94" s="53"/>
-      <c r="Y94" s="53"/>
-      <c r="Z94" s="53"/>
-      <c r="AA94" s="53"/>
-      <c r="AB94" s="53"/>
-      <c r="AC94" s="53"/>
-      <c r="AD94" s="53"/>
-      <c r="AE94" s="53"/>
-      <c r="AF94" s="53"/>
-      <c r="AG94" s="53"/>
-      <c r="AH94" s="53"/>
-      <c r="AI94" s="53"/>
-      <c r="AJ94" s="53"/>
-      <c r="AK94" s="53"/>
-      <c r="AL94" s="53"/>
-      <c r="AM94" s="53"/>
-      <c r="AN94" s="53"/>
-      <c r="AO94" s="53"/>
-      <c r="AP94" s="53"/>
-      <c r="AQ94" s="53"/>
-      <c r="AR94" s="53"/>
-      <c r="AS94" s="53"/>
-      <c r="AT94" s="53"/>
-      <c r="AU94" s="53"/>
-      <c r="AV94" s="53"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
+      <c r="V94" s="51"/>
+      <c r="W94" s="51"/>
+      <c r="X94" s="51"/>
+      <c r="Y94" s="51"/>
+      <c r="Z94" s="51"/>
+      <c r="AA94" s="51"/>
+      <c r="AB94" s="51"/>
+      <c r="AC94" s="51"/>
+      <c r="AD94" s="51"/>
+      <c r="AE94" s="51"/>
+      <c r="AF94" s="51"/>
+      <c r="AG94" s="51"/>
+      <c r="AH94" s="51"/>
+      <c r="AI94" s="51"/>
+      <c r="AJ94" s="51"/>
+      <c r="AK94" s="51"/>
+      <c r="AL94" s="51"/>
+      <c r="AM94" s="51"/>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="51"/>
+      <c r="AR94" s="51"/>
+      <c r="AS94" s="51"/>
+      <c r="AT94" s="51"/>
+      <c r="AU94" s="51"/>
+      <c r="AV94" s="51"/>
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I97" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O97" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="T97" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Y97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AC97" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I98" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Y98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AC98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I107" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Q107" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q108" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q109" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q110" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q112" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q113" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -21098,242 +21105,245 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:47" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="S4" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="T4" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="U4" s="51" t="s">
+      <c r="S4" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="U4" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AA4" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB4" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="AD4" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE4" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF4" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AD4" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE4" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF4" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG4" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="AK4" s="51" t="s">
+      <c r="AK4" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN4" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" t="s">
         <v>204</v>
       </c>
-      <c r="AN4" s="51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="O6" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q6" t="s">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
+      <c r="R6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S6" t="s">
         <v>206</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L6" t="s">
-        <v>209</v>
-      </c>
-      <c r="M6" t="s">
-        <v>210</v>
-      </c>
-      <c r="N6" t="s">
-        <v>211</v>
-      </c>
-      <c r="O6" t="s">
-        <v>208</v>
-      </c>
-      <c r="P6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>212</v>
-      </c>
-      <c r="R6" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" t="s">
-        <v>213</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -21348,46 +21358,46 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Z6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AA6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AB6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AC6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG6" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>207</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>207</v>
       </c>
-      <c r="AG6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>214</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AK6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AL6">
         <v>1</v>
@@ -21399,211 +21409,426 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:47" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="R8" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="S8" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="U8" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="V8" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="W8" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z8" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA8" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB8" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC8" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE8" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF8" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH8" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI8" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ8" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK8" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL8" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM8" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN8" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO8" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP8" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ8" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR8" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS8" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT8" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU8" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="66">
+        <v>43943</v>
+      </c>
+      <c r="K9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>268</v>
+      </c>
+      <c r="R9" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="46" t="s">
+    <row r="12" spans="1:47" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B12" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="K12" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="L12" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="M12" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="49" t="s">
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="64">
+        <v>0</v>
+      </c>
+      <c r="H13" s="64">
+        <v>0</v>
+      </c>
+      <c r="I13" s="64">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="K13" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="49" t="s">
+      <c r="L13" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="51" t="s">
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="L16" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="M16" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="N16" s="49" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -22821,7 +23046,7 @@
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="29" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -22850,10 +23075,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="53" t="s">
-        <v>252</v>
+    <row r="13" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="51" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22877,8 +23102,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="34" t="s">
         <v>42</v>
       </c>
@@ -22921,41 +23146,41 @@
       <c r="AO19" s="35"/>
       <c r="AP19" s="36"/>
     </row>
-    <row r="20" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="R20" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="U20" s="50" t="s">
-        <v>195</v>
+      <c r="I20" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="R20" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="U20" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="AP20" s="31"/>
     </row>
-    <row r="21" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="R21" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="U21" s="50" t="s">
-        <v>196</v>
+      <c r="I21" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="U21" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
-    <row r="22" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="40"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -22997,61 +23222,61 @@
       <c r="AP22" s="33"/>
     </row>
     <row r="23" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="29" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="29" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="31" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="3:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="53" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="3:42" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" spans="4:32" s="48" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="97" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F40" s="98"/>
       <c r="G40" s="98"/>
@@ -23063,7 +23288,7 @@
       <c r="M40" s="98"/>
       <c r="N40" s="99"/>
       <c r="O40" s="97" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P40" s="98"/>
       <c r="Q40" s="98"/>
@@ -23083,9 +23308,9 @@
       <c r="AE40" s="98"/>
       <c r="AF40" s="99"/>
     </row>
-    <row r="41" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="93" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F41" s="94"/>
       <c r="G41" s="94"/>
@@ -23117,9 +23342,9 @@
       <c r="AE41" s="94"/>
       <c r="AF41" s="95"/>
     </row>
-    <row r="42" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="93" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F42" s="94"/>
       <c r="G42" s="94"/>
@@ -23131,7 +23356,7 @@
       <c r="M42" s="94"/>
       <c r="N42" s="95"/>
       <c r="O42" s="100" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P42" s="101"/>
       <c r="Q42" s="101"/>
@@ -23151,9 +23376,9 @@
       <c r="AE42" s="101"/>
       <c r="AF42" s="102"/>
     </row>
-    <row r="43" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="93" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F43" s="94"/>
       <c r="G43" s="94"/>
@@ -23165,7 +23390,7 @@
       <c r="M43" s="94"/>
       <c r="N43" s="95"/>
       <c r="O43" s="100" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P43" s="101"/>
       <c r="Q43" s="101"/>
@@ -23185,19 +23410,19 @@
       <c r="AE43" s="101"/>
       <c r="AF43" s="102"/>
     </row>
-    <row r="44" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
+    <row r="44" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="54"/>
       <c r="O44" s="93" t="b">
         <v>1</v>
       </c>
@@ -23219,9 +23444,9 @@
       <c r="AE44" s="94"/>
       <c r="AF44" s="95"/>
     </row>
-    <row r="45" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="93" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F45" s="94"/>
       <c r="G45" s="94"/>
@@ -23253,191 +23478,191 @@
       <c r="AE45" s="94"/>
       <c r="AF45" s="95"/>
     </row>
-    <row r="46" spans="4:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="4:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="48" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="50" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="52" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E52" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="62"/>
-    </row>
-    <row r="53" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="54" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E54" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="56" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E56" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="62"/>
-    </row>
-    <row r="57" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E57" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="63"/>
-      <c r="V57" s="63"/>
-      <c r="W57" s="63"/>
-      <c r="X57" s="63"/>
-      <c r="Y57" s="63"/>
-      <c r="Z57" s="63"/>
-      <c r="AA57" s="63"/>
-      <c r="AB57" s="63"/>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="63"/>
-      <c r="AE57" s="63"/>
-      <c r="AF57" s="64"/>
-    </row>
-    <row r="58" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="59"/>
+    </row>
+    <row r="53" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54" s="51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="58"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="58"/>
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="58"/>
+      <c r="AC56" s="58"/>
+      <c r="AD56" s="58"/>
+      <c r="AE56" s="58"/>
+      <c r="AF56" s="59"/>
+    </row>
+    <row r="57" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="60"/>
+      <c r="AE57" s="60"/>
+      <c r="AF57" s="61"/>
+    </row>
+    <row r="58" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="59" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="60" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="29" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="62" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D62" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="3:32" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E64" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F66" s="53" t="s">
+      <c r="D62" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="3:32" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64" s="51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="62" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="67" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F67" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="61"/>
-      <c r="AA67" s="61"/>
-      <c r="AB67" s="61"/>
-      <c r="AC67" s="61"/>
-      <c r="AD67" s="61"/>
-      <c r="AE67" s="61"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="62"/>
-    </row>
-    <row r="68" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q67" s="58"/>
+      <c r="R67" s="58"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="58"/>
+      <c r="W67" s="58"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="58"/>
+      <c r="Z67" s="58"/>
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="58"/>
+      <c r="AC67" s="58"/>
+      <c r="AD67" s="58"/>
+      <c r="AE67" s="58"/>
+      <c r="AF67" s="58"/>
+      <c r="AG67" s="59"/>
+    </row>
+    <row r="68" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F68" s="103" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G68" s="104"/>
       <c r="H68" s="104"/>
@@ -23448,28 +23673,28 @@
       <c r="M68" s="104"/>
       <c r="N68" s="104"/>
       <c r="O68" s="105"/>
-      <c r="P68" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
-      <c r="AA68" s="61"/>
-      <c r="AB68" s="61"/>
-      <c r="AC68" s="61"/>
-      <c r="AD68" s="61"/>
-      <c r="AE68" s="61"/>
-      <c r="AF68" s="61"/>
-      <c r="AG68" s="62"/>
-    </row>
-    <row r="69" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P68" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="58"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="58"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="58"/>
+      <c r="W68" s="58"/>
+      <c r="X68" s="58"/>
+      <c r="Y68" s="58"/>
+      <c r="Z68" s="58"/>
+      <c r="AA68" s="58"/>
+      <c r="AB68" s="58"/>
+      <c r="AC68" s="58"/>
+      <c r="AD68" s="58"/>
+      <c r="AE68" s="58"/>
+      <c r="AF68" s="58"/>
+      <c r="AG68" s="59"/>
+    </row>
+    <row r="69" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F69" s="106"/>
       <c r="G69" s="107"/>
       <c r="H69" s="107"/>
@@ -23480,144 +23705,144 @@
       <c r="M69" s="107"/>
       <c r="N69" s="107"/>
       <c r="O69" s="108"/>
-      <c r="P69" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="61"/>
-      <c r="AA69" s="61"/>
-      <c r="AB69" s="61"/>
-      <c r="AC69" s="61"/>
-      <c r="AD69" s="61"/>
-      <c r="AE69" s="61"/>
-      <c r="AF69" s="61"/>
-      <c r="AG69" s="62"/>
-    </row>
-    <row r="70" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F70" s="58" t="s">
+      <c r="P69" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="58"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="58"/>
+      <c r="U69" s="58"/>
+      <c r="V69" s="58"/>
+      <c r="W69" s="58"/>
+      <c r="X69" s="58"/>
+      <c r="Y69" s="58"/>
+      <c r="Z69" s="58"/>
+      <c r="AA69" s="58"/>
+      <c r="AB69" s="58"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="58"/>
+      <c r="AE69" s="58"/>
+      <c r="AF69" s="58"/>
+      <c r="AG69" s="59"/>
+    </row>
+    <row r="70" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="60"/>
+      <c r="AA70" s="60"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="60"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="61"/>
+    </row>
+    <row r="71" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="66" t="s">
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
+      <c r="AB71" s="60"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="60"/>
+      <c r="AE71" s="60"/>
+      <c r="AF71" s="60"/>
+      <c r="AG71" s="61"/>
+    </row>
+    <row r="72" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="63"/>
-      <c r="V70" s="63"/>
-      <c r="W70" s="63"/>
-      <c r="X70" s="63"/>
-      <c r="Y70" s="63"/>
-      <c r="Z70" s="63"/>
-      <c r="AA70" s="63"/>
-      <c r="AB70" s="63"/>
-      <c r="AC70" s="63"/>
-      <c r="AD70" s="63"/>
-      <c r="AE70" s="63"/>
-      <c r="AF70" s="63"/>
-      <c r="AG70" s="64"/>
-    </row>
-    <row r="71" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F71" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
-      <c r="U71" s="63"/>
-      <c r="V71" s="63"/>
-      <c r="W71" s="63"/>
-      <c r="X71" s="63"/>
-      <c r="Y71" s="63"/>
-      <c r="Z71" s="63"/>
-      <c r="AA71" s="63"/>
-      <c r="AB71" s="63"/>
-      <c r="AC71" s="63"/>
-      <c r="AD71" s="63"/>
-      <c r="AE71" s="63"/>
-      <c r="AF71" s="63"/>
-      <c r="AG71" s="64"/>
-    </row>
-    <row r="72" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E73" s="53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F75" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F76" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="61"/>
-      <c r="U76" s="61"/>
-      <c r="V76" s="61"/>
-      <c r="W76" s="61"/>
-      <c r="X76" s="61"/>
-      <c r="Y76" s="61"/>
-      <c r="Z76" s="61"/>
-      <c r="AA76" s="61"/>
-      <c r="AB76" s="61"/>
-      <c r="AC76" s="61"/>
-      <c r="AD76" s="61"/>
-      <c r="AE76" s="61"/>
-      <c r="AF76" s="61"/>
-      <c r="AG76" s="62"/>
-    </row>
-    <row r="77" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="58"/>
+      <c r="T76" s="58"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="58"/>
+      <c r="W76" s="58"/>
+      <c r="X76" s="58"/>
+      <c r="Y76" s="58"/>
+      <c r="Z76" s="58"/>
+      <c r="AA76" s="58"/>
+      <c r="AB76" s="58"/>
+      <c r="AC76" s="58"/>
+      <c r="AD76" s="58"/>
+      <c r="AE76" s="58"/>
+      <c r="AF76" s="58"/>
+      <c r="AG76" s="59"/>
+    </row>
+    <row r="77" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F77" s="103" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G77" s="104"/>
       <c r="H77" s="104"/>
@@ -23628,28 +23853,28 @@
       <c r="M77" s="104"/>
       <c r="N77" s="104"/>
       <c r="O77" s="105"/>
-      <c r="P77" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="61"/>
-      <c r="S77" s="61"/>
-      <c r="T77" s="61"/>
-      <c r="U77" s="61"/>
-      <c r="V77" s="61"/>
-      <c r="W77" s="61"/>
-      <c r="X77" s="61"/>
-      <c r="Y77" s="61"/>
-      <c r="Z77" s="61"/>
-      <c r="AA77" s="61"/>
-      <c r="AB77" s="61"/>
-      <c r="AC77" s="61"/>
-      <c r="AD77" s="61"/>
-      <c r="AE77" s="61"/>
-      <c r="AF77" s="61"/>
-      <c r="AG77" s="62"/>
-    </row>
-    <row r="78" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P77" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q77" s="58"/>
+      <c r="R77" s="58"/>
+      <c r="S77" s="58"/>
+      <c r="T77" s="58"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="58"/>
+      <c r="W77" s="58"/>
+      <c r="X77" s="58"/>
+      <c r="Y77" s="58"/>
+      <c r="Z77" s="58"/>
+      <c r="AA77" s="58"/>
+      <c r="AB77" s="58"/>
+      <c r="AC77" s="58"/>
+      <c r="AD77" s="58"/>
+      <c r="AE77" s="58"/>
+      <c r="AF77" s="58"/>
+      <c r="AG77" s="59"/>
+    </row>
+    <row r="78" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F78" s="106"/>
       <c r="G78" s="107"/>
       <c r="H78" s="107"/>
@@ -23660,109 +23885,109 @@
       <c r="M78" s="107"/>
       <c r="N78" s="107"/>
       <c r="O78" s="108"/>
-      <c r="P78" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="61"/>
-      <c r="S78" s="61"/>
-      <c r="T78" s="61"/>
-      <c r="U78" s="61"/>
-      <c r="V78" s="61"/>
-      <c r="W78" s="61"/>
-      <c r="X78" s="61"/>
-      <c r="Y78" s="61"/>
-      <c r="Z78" s="61"/>
-      <c r="AA78" s="61"/>
-      <c r="AB78" s="61"/>
-      <c r="AC78" s="61"/>
-      <c r="AD78" s="61"/>
-      <c r="AE78" s="61"/>
-      <c r="AF78" s="61"/>
-      <c r="AG78" s="62"/>
-    </row>
-    <row r="79" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F79" s="58" t="s">
+      <c r="P78" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="58"/>
+      <c r="W78" s="58"/>
+      <c r="X78" s="58"/>
+      <c r="Y78" s="58"/>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="58"/>
+      <c r="AB78" s="58"/>
+      <c r="AC78" s="58"/>
+      <c r="AD78" s="58"/>
+      <c r="AE78" s="58"/>
+      <c r="AF78" s="58"/>
+      <c r="AG78" s="59"/>
+    </row>
+    <row r="79" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q79" s="60"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="60"/>
+      <c r="T79" s="60"/>
+      <c r="U79" s="60"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="60"/>
+      <c r="X79" s="60"/>
+      <c r="Y79" s="60"/>
+      <c r="Z79" s="60"/>
+      <c r="AA79" s="60"/>
+      <c r="AB79" s="60"/>
+      <c r="AC79" s="60"/>
+      <c r="AD79" s="60"/>
+      <c r="AE79" s="60"/>
+      <c r="AF79" s="60"/>
+      <c r="AG79" s="61"/>
+    </row>
+    <row r="80" spans="5:33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="60"/>
-      <c r="P79" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="63"/>
-      <c r="U79" s="63"/>
-      <c r="V79" s="63"/>
-      <c r="W79" s="63"/>
-      <c r="X79" s="63"/>
-      <c r="Y79" s="63"/>
-      <c r="Z79" s="63"/>
-      <c r="AA79" s="63"/>
-      <c r="AB79" s="63"/>
-      <c r="AC79" s="63"/>
-      <c r="AD79" s="63"/>
-      <c r="AE79" s="63"/>
-      <c r="AF79" s="63"/>
-      <c r="AG79" s="64"/>
-    </row>
-    <row r="80" spans="5:33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F80" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="63"/>
-      <c r="S80" s="63"/>
-      <c r="T80" s="63"/>
-      <c r="U80" s="63"/>
-      <c r="V80" s="63"/>
-      <c r="W80" s="63"/>
-      <c r="X80" s="63"/>
-      <c r="Y80" s="63"/>
-      <c r="Z80" s="63"/>
-      <c r="AA80" s="63"/>
-      <c r="AB80" s="63"/>
-      <c r="AC80" s="63"/>
-      <c r="AD80" s="63"/>
-      <c r="AE80" s="63"/>
-      <c r="AF80" s="63"/>
-      <c r="AG80" s="64"/>
-    </row>
-    <row r="81" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="82" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="53" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E84" s="53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="4:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="60"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="60"/>
+      <c r="X80" s="60"/>
+      <c r="Y80" s="60"/>
+      <c r="Z80" s="60"/>
+      <c r="AA80" s="60"/>
+      <c r="AB80" s="60"/>
+      <c r="AC80" s="60"/>
+      <c r="AD80" s="60"/>
+      <c r="AE80" s="60"/>
+      <c r="AF80" s="60"/>
+      <c r="AG80" s="61"/>
+    </row>
+    <row r="81" spans="4:5" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" spans="4:5" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" spans="4:5" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" s="51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" spans="4:5" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="87" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="88" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="89" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -23988,11 +24213,11 @@
       <c r="AU4" s="26"/>
       <c r="AV4" s="26"/>
     </row>
-    <row r="5" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24046,7 +24271,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -24202,7 +24427,7 @@
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
       <c r="I10" s="29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AP10" s="31"/>
     </row>
@@ -24263,14 +24488,14 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="51" t="s">
         <v>94</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AP13" s="31"/>
     </row>
@@ -24280,14 +24505,14 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="51" t="s">
         <v>93</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="W14" s="53" t="s">
-        <v>255</v>
+        <v>187</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>248</v>
       </c>
       <c r="AP14" s="31"/>
     </row>
@@ -24334,12 +24559,12 @@
     </row>
     <row r="16" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -24386,7 +24611,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
     </row>
-    <row r="19" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -24436,7 +24661,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
     </row>
-    <row r="20" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -24488,18 +24713,18 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="53" t="s">
-        <v>253</v>
+      <c r="I21" s="51" t="s">
+        <v>246</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
-    <row r="22" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -24507,7 +24732,7 @@
       <c r="H22" s="39"/>
       <c r="AP22" s="31"/>
     </row>
-    <row r="23" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="34" t="s">
         <v>42</v>
       </c>
@@ -24550,24 +24775,24 @@
       <c r="AO23" s="35"/>
       <c r="AP23" s="36"/>
     </row>
-    <row r="24" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="S24" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="W24" s="53" t="s">
-        <v>254</v>
+      <c r="S24" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="W24" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="AP24" s="31"/>
     </row>
-    <row r="25" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -24608,8 +24833,8 @@
       <c r="AO25" s="32"/>
       <c r="AP25" s="33"/>
     </row>
-    <row r="26" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="28" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="29" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="30" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -24775,7 +25000,7 @@
       <c r="AU2" s="70"/>
       <c r="AV2" s="70"/>
     </row>
-    <row r="4" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -24825,12 +25050,12 @@
       <c r="AU4" s="26"/>
       <c r="AV4" s="26"/>
     </row>
-    <row r="5" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -24878,7 +25103,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
     </row>
-    <row r="7" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -24928,7 +25153,7 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
     </row>
-    <row r="8" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -24980,147 +25205,147 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
     </row>
-    <row r="9" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="39"/>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA9" s="53" t="s">
+      <c r="AA9" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP9" s="31"/>
     </row>
-    <row r="10" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA10" s="53" t="s">
+      <c r="AA10" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP10" s="31"/>
     </row>
-    <row r="11" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA11" s="53" t="s">
+      <c r="AA11" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP11" s="31"/>
     </row>
-    <row r="12" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" s="53" t="s">
+      <c r="AA12" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP12" s="31"/>
     </row>
-    <row r="13" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA13" s="53" t="s">
+      <c r="AA13" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP13" s="31"/>
     </row>
-    <row r="14" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA14" s="53" t="s">
+      <c r="AA14" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP14" s="31"/>
     </row>
-    <row r="15" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="53" t="s">
+      <c r="AA15" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP15" s="31"/>
     </row>
-    <row r="16" spans="1:48" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="53" t="s">
+      <c r="AA16" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP16" s="31"/>
     </row>
-    <row r="17" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA17" s="53" t="s">
+      <c r="AA17" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP17" s="31"/>
     </row>
-    <row r="18" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA18" s="53" t="s">
+      <c r="AA18" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AP18" s="31"/>
     </row>
-    <row r="19" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="37"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
@@ -25128,7 +25353,7 @@
       <c r="H19" s="39"/>
       <c r="AP19" s="31"/>
     </row>
-    <row r="20" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="34" t="s">
         <v>41</v>
       </c>
@@ -25171,29 +25396,29 @@
       <c r="AO20" s="35"/>
       <c r="AP20" s="36"/>
     </row>
-    <row r="21" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="51" t="s">
         <v>45</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
-    <row r="22" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="51" t="s">
         <v>45</v>
       </c>
       <c r="AP22" s="31"/>
     </row>
-    <row r="23" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="40"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -25234,7 +25459,7 @@
       <c r="AO23" s="32"/>
       <c r="AP23" s="33"/>
     </row>
-    <row r="24" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="34" t="s">
         <v>42</v>
       </c>
@@ -25277,29 +25502,29 @@
       <c r="AO24" s="35"/>
       <c r="AP24" s="36"/>
     </row>
-    <row r="25" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="51" t="s">
         <v>45</v>
       </c>
       <c r="AP25" s="31"/>
     </row>
-    <row r="26" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="51" t="s">
         <v>45</v>
       </c>
       <c r="AP26" s="31"/>
     </row>
-    <row r="27" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="40"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -25340,15 +25565,15 @@
       <c r="AO27" s="32"/>
       <c r="AP27" s="33"/>
     </row>
-    <row r="28" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="4:42" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="4:42" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" s="51" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F718A-751E-4568-8B74-225CB5493C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96032193-F62E-4039-AD4A-9F57999A17C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1790" windowWidth="14400" windowHeight="7510" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="31305" yWindow="345" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="429">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -909,10 +909,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/3/17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0000000001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1224,12 +1220,6 @@
     <t>is_user</t>
   </si>
   <si>
-    <t>0000000001</t>
-  </si>
-  <si>
-    <t>2020/3/17</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -1237,12 +1227,6 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>２－２．データ名表示</t>
@@ -1574,9 +1558,6 @@
     <t>birthplace</t>
   </si>
   <si>
-    <t>ep</t>
-  </si>
-  <si>
     <t>title_id</t>
   </si>
   <si>
@@ -1586,17 +1567,10 @@
     <t>karma</t>
   </si>
   <si>
-    <t>is_reader</t>
-  </si>
-  <si>
     <t>is_dangeon</t>
   </si>
   <si>
     <t>is_master</t>
-  </si>
-  <si>
-    <t>ガッツ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>G</t>
@@ -2142,6 +2116,36 @@
   </si>
   <si>
     <t>up_code</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+  </si>
+  <si>
+    <t>セキュリティフラグ</t>
+  </si>
+  <si>
+    <t>セーブフラグ</t>
+  </si>
+  <si>
+    <t>プレイ時間</t>
+  </si>
+  <si>
+    <t>合計時間</t>
+  </si>
+  <si>
+    <t>使用金額</t>
+  </si>
+  <si>
+    <t>作成 ID</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -2809,9 +2813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2823,6 +2824,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9584,12 +9588,12 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="102" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="25" max="25" width="3.08203125" customWidth="1"/>
+    <col min="25" max="25" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9639,7 +9643,7 @@
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -9689,7 +9693,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -9753,7 +9757,7 @@
       <c r="BF3" s="70"/>
       <c r="BG3" s="70"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -9817,7 +9821,7 @@
       <c r="BF4" s="70"/>
       <c r="BG4" s="70"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9867,7 +9871,7 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9917,7 +9921,7 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
     </row>
-    <row r="7" spans="1:59" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:59" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9970,7 +9974,7 @@
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
     </row>
-    <row r="8" spans="1:59" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:59" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -10023,7 +10027,7 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -10073,7 +10077,7 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -10123,7 +10127,7 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -10179,7 +10183,7 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10229,7 +10233,7 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10279,7 +10283,7 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -10329,7 +10333,7 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -10379,7 +10383,7 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -10429,7 +10433,7 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -10479,7 +10483,7 @@
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -10529,7 +10533,7 @@
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -10600,9 +10604,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
@@ -10665,7 +10669,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -10740,7 +10744,7 @@
       <c r="BF2" s="93"/>
       <c r="BG2" s="93"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.4">
       <c r="AX3" s="92"/>
       <c r="AY3" s="92"/>
       <c r="AZ3" s="92"/>
@@ -10752,7 +10756,7 @@
       <c r="BF3" s="93"/>
       <c r="BG3" s="93"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="73" t="s">
         <v>1</v>
       </c>
@@ -10810,7 +10814,7 @@
       <c r="AU4" s="82"/>
       <c r="AV4" s="83"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="71">
         <v>43884</v>
       </c>
@@ -10868,7 +10872,7 @@
       <c r="AU5" s="85"/>
       <c r="AV5" s="86"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -10918,7 +10922,7 @@
       <c r="AU6" s="85"/>
       <c r="AV6" s="86"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -10968,7 +10972,7 @@
       <c r="AU7" s="85"/>
       <c r="AV7" s="86"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -11018,7 +11022,7 @@
       <c r="AU8" s="85"/>
       <c r="AV8" s="86"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -11068,7 +11072,7 @@
       <c r="AU9" s="85"/>
       <c r="AV9" s="86"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -11118,7 +11122,7 @@
       <c r="AU10" s="85"/>
       <c r="AV10" s="86"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -11168,7 +11172,7 @@
       <c r="AU11" s="85"/>
       <c r="AV11" s="86"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -11218,7 +11222,7 @@
       <c r="AU12" s="85"/>
       <c r="AV12" s="86"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -11268,7 +11272,7 @@
       <c r="AU13" s="85"/>
       <c r="AV13" s="86"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -11318,7 +11322,7 @@
       <c r="AU14" s="85"/>
       <c r="AV14" s="86"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="70"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -11368,7 +11372,7 @@
       <c r="AU15" s="85"/>
       <c r="AV15" s="86"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="70"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
@@ -11502,9 +11506,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
@@ -11567,7 +11571,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -11632,7 +11636,7 @@
       <c r="AU2" s="72"/>
       <c r="AV2" s="72"/>
     </row>
-    <row r="4" spans="1:48" s="1" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:48" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -11682,7 +11686,7 @@
       <c r="AU4" s="21"/>
       <c r="AV4" s="22"/>
     </row>
-    <row r="5" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
@@ -11736,7 +11740,7 @@
       <c r="AU5" s="12"/>
       <c r="AV5" s="13"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11786,7 +11790,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11836,7 +11840,7 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="15"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11886,7 +11890,7 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="15"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11936,7 +11940,7 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11988,7 +11992,7 @@
       <c r="AU10" s="2"/>
       <c r="AV10" s="15"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12040,7 +12044,7 @@
       <c r="AU11" s="2"/>
       <c r="AV11" s="15"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -12090,7 +12094,7 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -12142,7 +12146,7 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="15"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -12194,7 +12198,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="15"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -12246,7 +12250,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -12298,7 +12302,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="15"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -12350,7 +12354,7 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="15"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -12402,7 +12406,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -12452,7 +12456,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="15"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -12502,7 +12506,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -12552,7 +12556,7 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -12602,7 +12606,7 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="15"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -12652,7 +12656,7 @@
       <c r="AU23" s="2"/>
       <c r="AV23" s="15"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -12702,7 +12706,7 @@
       <c r="AU24" s="2"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -12752,7 +12756,7 @@
       <c r="AU25" s="2"/>
       <c r="AV25" s="15"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -12802,7 +12806,7 @@
       <c r="AU26" s="2"/>
       <c r="AV26" s="15"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -12852,7 +12856,7 @@
       <c r="AU27" s="2"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12902,7 +12906,7 @@
       <c r="AU28" s="2"/>
       <c r="AV28" s="15"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -12952,7 +12956,7 @@
       <c r="AU29" s="2"/>
       <c r="AV29" s="15"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -13002,7 +13006,7 @@
       <c r="AU30" s="2"/>
       <c r="AV30" s="15"/>
     </row>
-    <row r="31" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -13052,7 +13056,7 @@
       <c r="AU31" s="2"/>
       <c r="AV31" s="15"/>
     </row>
-    <row r="32" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13102,7 +13106,7 @@
       <c r="AU32" s="2"/>
       <c r="AV32" s="15"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13152,7 +13156,7 @@
       <c r="AU33" s="2"/>
       <c r="AV33" s="15"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13202,7 +13206,7 @@
       <c r="AU34" s="2"/>
       <c r="AV34" s="15"/>
     </row>
-    <row r="35" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -13252,7 +13256,7 @@
       <c r="AU35" s="2"/>
       <c r="AV35" s="15"/>
     </row>
-    <row r="36" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -13302,7 +13306,7 @@
       <c r="AU36" s="2"/>
       <c r="AV36" s="15"/>
     </row>
-    <row r="37" spans="1:48" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:48" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -13352,7 +13356,7 @@
       <c r="AU37" s="17"/>
       <c r="AV37" s="18"/>
     </row>
-    <row r="38" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>58</v>
       </c>
@@ -13406,7 +13410,7 @@
       <c r="AU38" s="12"/>
       <c r="AV38" s="13"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13456,7 +13460,7 @@
       <c r="AU39" s="2"/>
       <c r="AV39" s="15"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13508,7 +13512,7 @@
       <c r="AU40" s="2"/>
       <c r="AV40" s="15"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
@@ -13562,7 +13566,7 @@
       <c r="AU41" s="2"/>
       <c r="AV41" s="15"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -13612,7 +13616,7 @@
       <c r="AU42" s="2"/>
       <c r="AV42" s="15"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13664,7 +13668,7 @@
       <c r="AU43" s="2"/>
       <c r="AV43" s="15"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13718,7 +13722,7 @@
       <c r="AU44" s="2"/>
       <c r="AV44" s="15"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13770,7 +13774,7 @@
       <c r="AU45" s="2"/>
       <c r="AV45" s="15"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13822,7 +13826,7 @@
       <c r="AU46" s="2"/>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13876,7 +13880,7 @@
       <c r="AU47" s="2"/>
       <c r="AV47" s="15"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -13928,7 +13932,7 @@
       <c r="AU48" s="2"/>
       <c r="AV48" s="15"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -13980,7 +13984,7 @@
       <c r="AU49" s="2"/>
       <c r="AV49" s="15"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -14034,7 +14038,7 @@
       <c r="AU50" s="2"/>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -14086,7 +14090,7 @@
       <c r="AU51" s="2"/>
       <c r="AV51" s="15"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -14138,7 +14142,7 @@
       <c r="AU52" s="2"/>
       <c r="AV52" s="15"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -14192,7 +14196,7 @@
       <c r="AU53" s="2"/>
       <c r="AV53" s="15"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -14244,7 +14248,7 @@
       <c r="AU54" s="2"/>
       <c r="AV54" s="15"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -14296,7 +14300,7 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="15"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -14348,7 +14352,7 @@
       <c r="AU56" s="2"/>
       <c r="AV56" s="15"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -14400,7 +14404,7 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="15"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -14452,7 +14456,7 @@
       <c r="AU58" s="2"/>
       <c r="AV58" s="15"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -14504,7 +14508,7 @@
       <c r="AU59" s="2"/>
       <c r="AV59" s="15"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -14556,7 +14560,7 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="15"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -14608,7 +14612,7 @@
       <c r="AU61" s="2"/>
       <c r="AV61" s="15"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -14660,7 +14664,7 @@
       <c r="AU62" s="2"/>
       <c r="AV62" s="15"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -14710,7 +14714,7 @@
       <c r="AU63" s="2"/>
       <c r="AV63" s="15"/>
     </row>
-    <row r="64" spans="1:48" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -14762,7 +14766,7 @@
       <c r="AU64" s="2"/>
       <c r="AV64" s="15"/>
     </row>
-    <row r="65" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -14814,7 +14818,7 @@
       <c r="AU65" s="2"/>
       <c r="AV65" s="15"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -14866,7 +14870,7 @@
       <c r="AU66" s="2"/>
       <c r="AV66" s="15"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -14918,7 +14922,7 @@
       <c r="AU67" s="2"/>
       <c r="AV67" s="15"/>
     </row>
-    <row r="68" spans="1:48" s="43" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -14970,7 +14974,7 @@
       <c r="AU68" s="2"/>
       <c r="AV68" s="15"/>
     </row>
-    <row r="69" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -15020,7 +15024,7 @@
       <c r="AU69" s="2"/>
       <c r="AV69" s="15"/>
     </row>
-    <row r="70" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="2" t="s">
         <v>80</v>
@@ -15057,7 +15061,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -15074,7 +15078,7 @@
       <c r="AU70" s="2"/>
       <c r="AV70" s="15"/>
     </row>
-    <row r="71" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -15109,7 +15113,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -15126,7 +15130,7 @@
       <c r="AU71" s="2"/>
       <c r="AV71" s="15"/>
     </row>
-    <row r="72" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -15161,7 +15165,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -15178,7 +15182,7 @@
       <c r="AU72" s="2"/>
       <c r="AV72" s="15"/>
     </row>
-    <row r="73" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -15228,7 +15232,7 @@
       <c r="AU73" s="2"/>
       <c r="AV73" s="15"/>
     </row>
-    <row r="74" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -15278,7 +15282,7 @@
       <c r="AU74" s="2"/>
       <c r="AV74" s="15"/>
     </row>
-    <row r="75" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -15328,7 +15332,7 @@
       <c r="AU75" s="2"/>
       <c r="AV75" s="15"/>
     </row>
-    <row r="76" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -15378,7 +15382,7 @@
       <c r="AU76" s="2"/>
       <c r="AV76" s="15"/>
     </row>
-    <row r="77" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -15428,7 +15432,7 @@
       <c r="AU77" s="17"/>
       <c r="AV77" s="18"/>
     </row>
-    <row r="78" spans="1:48" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:48" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -15478,7 +15482,7 @@
       <c r="AU78" s="19"/>
       <c r="AV78" s="20"/>
     </row>
-    <row r="79" spans="1:48" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:48" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="23" t="s">
         <v>13</v>
       </c>
@@ -15530,7 +15534,7 @@
       <c r="AU79" s="2"/>
       <c r="AV79" s="2"/>
     </row>
-    <row r="80" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -15580,7 +15584,7 @@
       <c r="AU80" s="2"/>
       <c r="AV80" s="2"/>
     </row>
-    <row r="81" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>75</v>
@@ -15632,7 +15636,7 @@
       <c r="AU81" s="2"/>
       <c r="AV81" s="2"/>
     </row>
-    <row r="82" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>76</v>
@@ -15684,7 +15688,7 @@
       <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
     </row>
-    <row r="83" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -15734,7 +15738,7 @@
       <c r="AU83" s="2"/>
       <c r="AV83" s="2"/>
     </row>
-    <row r="84" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -15786,7 +15790,7 @@
       <c r="AU84" s="2"/>
       <c r="AV84" s="2"/>
     </row>
-    <row r="85" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -15846,7 +15850,7 @@
       <c r="AU85" s="2"/>
       <c r="AV85" s="2"/>
     </row>
-    <row r="86" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>100</v>
       </c>
@@ -15912,7 +15916,7 @@
       <c r="AU86" s="2"/>
       <c r="AV86" s="2"/>
     </row>
-    <row r="87" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -15976,7 +15980,7 @@
       <c r="AU87" s="2"/>
       <c r="AV87" s="2"/>
     </row>
-    <row r="88" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -16038,7 +16042,7 @@
       <c r="AU88" s="2"/>
       <c r="AV88" s="2"/>
     </row>
-    <row r="89" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -16100,7 +16104,7 @@
       <c r="AU89" s="2"/>
       <c r="AV89" s="2"/>
     </row>
-    <row r="90" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -16162,7 +16166,7 @@
       <c r="AU90" s="2"/>
       <c r="AV90" s="2"/>
     </row>
-    <row r="91" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -16212,7 +16216,7 @@
       <c r="AU91" s="2"/>
       <c r="AV91" s="2"/>
     </row>
-    <row r="92" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -16264,7 +16268,7 @@
       <c r="AU92" s="2"/>
       <c r="AV92" s="2"/>
     </row>
-    <row r="93" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -16316,7 +16320,7 @@
       <c r="AU93" s="2"/>
       <c r="AV93" s="2"/>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="43" t="s">
         <v>79</v>
@@ -16368,160 +16372,160 @@
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" t="s">
+        <v>154</v>
+      </c>
+      <c r="O97" t="s">
+        <v>156</v>
+      </c>
+      <c r="T97" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" t="s">
+        <v>155</v>
+      </c>
+      <c r="T98" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" t="s">
-        <v>149</v>
-      </c>
-      <c r="I97" t="s">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="I106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B107" t="s">
         <v>155</v>
       </c>
-      <c r="O97" t="s">
-        <v>157</v>
-      </c>
-      <c r="T97" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" t="s">
-        <v>151</v>
-      </c>
-      <c r="I98" t="s">
-        <v>156</v>
-      </c>
-      <c r="T98" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" t="s">
+      <c r="I107" t="s">
         <v>163</v>
       </c>
-      <c r="I106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" t="s">
-        <v>156</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="Q107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I108" t="s">
         <v>164</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="Q108" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I108" t="s">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I109" t="s">
         <v>165</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="Q109" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I109" t="s">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I110" t="s">
         <v>166</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="Q110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I111" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I110" t="s">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I112" t="s">
         <v>167</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="Q112" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I112" t="s">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I113" t="s">
         <v>168</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="Q113" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="I113" t="s">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I114" t="s">
         <v>169</v>
       </c>
-      <c r="Q113" t="s">
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="I114" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="I115" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" t="s">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B119" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -16553,9 +16557,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
@@ -16618,7 +16622,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -16683,7 +16687,7 @@
       <c r="AU2" s="72"/>
       <c r="AV2" s="72"/>
     </row>
-    <row r="4" spans="1:48" s="50" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:48" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -16733,7 +16737,7 @@
       <c r="AU4" s="52"/>
       <c r="AV4" s="53"/>
     </row>
-    <row r="5" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
@@ -16787,7 +16791,7 @@
       <c r="AU5" s="12"/>
       <c r="AV5" s="13"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -16837,7 +16841,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -16887,7 +16891,7 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="15"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -16937,7 +16941,7 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="15"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -16987,7 +16991,7 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -17039,7 +17043,7 @@
       <c r="AU10" s="2"/>
       <c r="AV10" s="15"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -17091,7 +17095,7 @@
       <c r="AU11" s="2"/>
       <c r="AV11" s="15"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -17141,7 +17145,7 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -17193,7 +17197,7 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="15"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -17245,7 +17249,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="15"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -17297,7 +17301,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -17349,7 +17353,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="15"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -17401,7 +17405,7 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="15"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -17453,7 +17457,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -17503,7 +17507,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="15"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -17553,7 +17557,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -17603,7 +17607,7 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -17653,7 +17657,7 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="15"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -17703,7 +17707,7 @@
       <c r="AU23" s="2"/>
       <c r="AV23" s="15"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -17753,7 +17757,7 @@
       <c r="AU24" s="2"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -17803,7 +17807,7 @@
       <c r="AU25" s="2"/>
       <c r="AV25" s="15"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -17853,7 +17857,7 @@
       <c r="AU26" s="2"/>
       <c r="AV26" s="15"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -17903,7 +17907,7 @@
       <c r="AU27" s="2"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -17953,7 +17957,7 @@
       <c r="AU28" s="2"/>
       <c r="AV28" s="15"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -18003,7 +18007,7 @@
       <c r="AU29" s="2"/>
       <c r="AV29" s="15"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -18053,7 +18057,7 @@
       <c r="AU30" s="2"/>
       <c r="AV30" s="15"/>
     </row>
-    <row r="31" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -18103,7 +18107,7 @@
       <c r="AU31" s="2"/>
       <c r="AV31" s="15"/>
     </row>
-    <row r="32" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -18153,7 +18157,7 @@
       <c r="AU32" s="2"/>
       <c r="AV32" s="15"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -18203,7 +18207,7 @@
       <c r="AU33" s="2"/>
       <c r="AV33" s="15"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -18253,7 +18257,7 @@
       <c r="AU34" s="2"/>
       <c r="AV34" s="15"/>
     </row>
-    <row r="35" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -18303,7 +18307,7 @@
       <c r="AU35" s="2"/>
       <c r="AV35" s="15"/>
     </row>
-    <row r="36" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -18353,7 +18357,7 @@
       <c r="AU36" s="2"/>
       <c r="AV36" s="15"/>
     </row>
-    <row r="37" spans="1:48" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:48" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -18403,7 +18407,7 @@
       <c r="AU37" s="17"/>
       <c r="AV37" s="18"/>
     </row>
-    <row r="38" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>58</v>
       </c>
@@ -18457,7 +18461,7 @@
       <c r="AU38" s="12"/>
       <c r="AV38" s="13"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -18507,7 +18511,7 @@
       <c r="AU39" s="2"/>
       <c r="AV39" s="15"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -18559,7 +18563,7 @@
       <c r="AU40" s="2"/>
       <c r="AV40" s="15"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
@@ -18613,7 +18617,7 @@
       <c r="AU41" s="2"/>
       <c r="AV41" s="15"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -18663,7 +18667,7 @@
       <c r="AU42" s="2"/>
       <c r="AV42" s="15"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -18715,7 +18719,7 @@
       <c r="AU43" s="2"/>
       <c r="AV43" s="15"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -18769,7 +18773,7 @@
       <c r="AU44" s="2"/>
       <c r="AV44" s="15"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -18821,7 +18825,7 @@
       <c r="AU45" s="2"/>
       <c r="AV45" s="15"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -18873,7 +18877,7 @@
       <c r="AU46" s="2"/>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -18927,7 +18931,7 @@
       <c r="AU47" s="2"/>
       <c r="AV47" s="15"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -18979,7 +18983,7 @@
       <c r="AU48" s="2"/>
       <c r="AV48" s="15"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -19031,7 +19035,7 @@
       <c r="AU49" s="2"/>
       <c r="AV49" s="15"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -19085,7 +19089,7 @@
       <c r="AU50" s="2"/>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -19137,7 +19141,7 @@
       <c r="AU51" s="2"/>
       <c r="AV51" s="15"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -19189,7 +19193,7 @@
       <c r="AU52" s="2"/>
       <c r="AV52" s="15"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -19243,7 +19247,7 @@
       <c r="AU53" s="2"/>
       <c r="AV53" s="15"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -19295,7 +19299,7 @@
       <c r="AU54" s="2"/>
       <c r="AV54" s="15"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -19347,7 +19351,7 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="15"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -19399,7 +19403,7 @@
       <c r="AU56" s="2"/>
       <c r="AV56" s="15"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -19451,7 +19455,7 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="15"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -19503,7 +19507,7 @@
       <c r="AU58" s="2"/>
       <c r="AV58" s="15"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -19555,7 +19559,7 @@
       <c r="AU59" s="2"/>
       <c r="AV59" s="15"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -19607,7 +19611,7 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="15"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -19659,7 +19663,7 @@
       <c r="AU61" s="2"/>
       <c r="AV61" s="15"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -19711,7 +19715,7 @@
       <c r="AU62" s="2"/>
       <c r="AV62" s="15"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -19761,7 +19765,7 @@
       <c r="AU63" s="2"/>
       <c r="AV63" s="15"/>
     </row>
-    <row r="64" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -19813,7 +19817,7 @@
       <c r="AU64" s="2"/>
       <c r="AV64" s="15"/>
     </row>
-    <row r="65" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -19865,7 +19869,7 @@
       <c r="AU65" s="2"/>
       <c r="AV65" s="15"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -19917,7 +19921,7 @@
       <c r="AU66" s="2"/>
       <c r="AV66" s="15"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -19969,7 +19973,7 @@
       <c r="AU67" s="2"/>
       <c r="AV67" s="15"/>
     </row>
-    <row r="68" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -20021,7 +20025,7 @@
       <c r="AU68" s="2"/>
       <c r="AV68" s="15"/>
     </row>
-    <row r="69" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -20071,7 +20075,7 @@
       <c r="AU69" s="2"/>
       <c r="AV69" s="15"/>
     </row>
-    <row r="70" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="2" t="s">
         <v>80</v>
@@ -20108,7 +20112,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -20125,7 +20129,7 @@
       <c r="AU70" s="2"/>
       <c r="AV70" s="15"/>
     </row>
-    <row r="71" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -20160,7 +20164,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -20177,7 +20181,7 @@
       <c r="AU71" s="2"/>
       <c r="AV71" s="15"/>
     </row>
-    <row r="72" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -20212,7 +20216,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -20229,7 +20233,7 @@
       <c r="AU72" s="2"/>
       <c r="AV72" s="15"/>
     </row>
-    <row r="73" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -20279,7 +20283,7 @@
       <c r="AU73" s="2"/>
       <c r="AV73" s="15"/>
     </row>
-    <row r="74" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -20329,7 +20333,7 @@
       <c r="AU74" s="2"/>
       <c r="AV74" s="15"/>
     </row>
-    <row r="75" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -20379,7 +20383,7 @@
       <c r="AU75" s="2"/>
       <c r="AV75" s="15"/>
     </row>
-    <row r="76" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -20429,7 +20433,7 @@
       <c r="AU76" s="2"/>
       <c r="AV76" s="15"/>
     </row>
-    <row r="77" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -20479,7 +20483,7 @@
       <c r="AU77" s="17"/>
       <c r="AV77" s="18"/>
     </row>
-    <row r="78" spans="1:48" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:48" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -20529,7 +20533,7 @@
       <c r="AU78" s="19"/>
       <c r="AV78" s="20"/>
     </row>
-    <row r="79" spans="1:48" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:48" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="23" t="s">
         <v>13</v>
       </c>
@@ -20581,7 +20585,7 @@
       <c r="AU79" s="2"/>
       <c r="AV79" s="2"/>
     </row>
-    <row r="80" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -20631,7 +20635,7 @@
       <c r="AU80" s="2"/>
       <c r="AV80" s="2"/>
     </row>
-    <row r="81" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>75</v>
@@ -20683,7 +20687,7 @@
       <c r="AU81" s="2"/>
       <c r="AV81" s="2"/>
     </row>
-    <row r="82" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>76</v>
@@ -20735,7 +20739,7 @@
       <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
     </row>
-    <row r="83" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -20785,7 +20789,7 @@
       <c r="AU83" s="2"/>
       <c r="AV83" s="2"/>
     </row>
-    <row r="84" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -20837,7 +20841,7 @@
       <c r="AU84" s="2"/>
       <c r="AV84" s="2"/>
     </row>
-    <row r="85" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -20897,7 +20901,7 @@
       <c r="AU85" s="2"/>
       <c r="AV85" s="2"/>
     </row>
-    <row r="86" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>100</v>
       </c>
@@ -20963,7 +20967,7 @@
       <c r="AU86" s="2"/>
       <c r="AV86" s="2"/>
     </row>
-    <row r="87" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -21027,7 +21031,7 @@
       <c r="AU87" s="2"/>
       <c r="AV87" s="2"/>
     </row>
-    <row r="88" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -21089,7 +21093,7 @@
       <c r="AU88" s="2"/>
       <c r="AV88" s="2"/>
     </row>
-    <row r="89" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -21151,7 +21155,7 @@
       <c r="AU89" s="2"/>
       <c r="AV89" s="2"/>
     </row>
-    <row r="90" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -21213,7 +21217,7 @@
       <c r="AU90" s="2"/>
       <c r="AV90" s="2"/>
     </row>
-    <row r="91" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -21263,7 +21267,7 @@
       <c r="AU91" s="2"/>
       <c r="AV91" s="2"/>
     </row>
-    <row r="92" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -21315,7 +21319,7 @@
       <c r="AU92" s="2"/>
       <c r="AV92" s="2"/>
     </row>
-    <row r="93" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -21367,7 +21371,7 @@
       <c r="AU93" s="2"/>
       <c r="AV93" s="2"/>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A94" s="50"/>
       <c r="B94" s="50" t="s">
         <v>79</v>
@@ -21419,160 +21423,160 @@
       <c r="AU94" s="50"/>
       <c r="AV94" s="50"/>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" t="s">
+        <v>154</v>
+      </c>
+      <c r="O97" t="s">
+        <v>156</v>
+      </c>
+      <c r="T97" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" t="s">
+        <v>155</v>
+      </c>
+      <c r="T98" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" t="s">
-        <v>149</v>
-      </c>
-      <c r="I97" t="s">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="I106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B107" t="s">
         <v>155</v>
       </c>
-      <c r="O97" t="s">
-        <v>157</v>
-      </c>
-      <c r="T97" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" t="s">
-        <v>151</v>
-      </c>
-      <c r="I98" t="s">
-        <v>156</v>
-      </c>
-      <c r="T98" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" t="s">
+      <c r="I107" t="s">
         <v>163</v>
       </c>
-      <c r="I106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" t="s">
-        <v>156</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="Q107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I108" t="s">
         <v>164</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="Q108" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I108" t="s">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I109" t="s">
         <v>165</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="Q109" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I109" t="s">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I110" t="s">
         <v>166</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="Q110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I111" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I110" t="s">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I112" t="s">
         <v>167</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="Q112" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="I112" t="s">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I113" t="s">
         <v>168</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="Q113" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="I113" t="s">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I114" t="s">
         <v>169</v>
       </c>
-      <c r="Q113" t="s">
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="I114" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="I115" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" t="s">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B119" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -21598,203 +21602,200 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:BC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.58203125" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.4140625" customWidth="1"/>
-    <col min="55" max="55" width="10.58203125" customWidth="1"/>
+    <col min="53" max="53" width="10.375" customWidth="1"/>
+    <col min="55" max="55" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:55" ht="36" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="I4" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="J4" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="K4" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="L4" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="M4" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="N4" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="O4" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="P4" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="Q4" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="R4" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="S4" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="T4" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="U4" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="V4" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="W4" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="X4" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="Y4" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="Z4" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="AC4" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="AD4" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="AE4" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="AF4" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="AG4" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="AH4" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="AI4" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="AA4" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB4" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AJ4" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AK4" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="AE4" s="48" t="s">
+      <c r="AL4" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="AF4" s="48" t="s">
+      <c r="AM4" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="AG4" s="48" t="s">
+      <c r="AN4" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="AH4" s="48" t="s">
+      <c r="AO4" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="AI4" s="48" t="s">
+      <c r="AP4" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="AJ4" s="48" t="s">
+      <c r="AQ4" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="AK4" s="48" t="s">
+      <c r="AR4" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="AL4" s="48" t="s">
+      <c r="AS4" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="AM4" s="48" t="s">
+      <c r="AT4" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="AN4" s="48" t="s">
+      <c r="AU4" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="AO4" s="48" t="s">
+      <c r="AV4" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="AP4" s="48" t="s">
+      <c r="AW4" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="AQ4" s="48" t="s">
+      <c r="AX4" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="AR4" s="48" t="s">
+      <c r="AY4" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="AS4" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="AT4" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="AU4" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="AV4" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="AW4" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="AX4" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="AY4" s="48" t="s">
-        <v>361</v>
-      </c>
       <c r="AZ4" s="48" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="BA4" s="48" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="BB4" s="48" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="BC4" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="BD4" s="48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A5" s="48" t="s">
         <v>103</v>
       </c>
@@ -21805,1393 +21806,1160 @@
         <v>109</v>
       </c>
       <c r="D5" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="X5" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z5" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA5" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC5" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE5" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF5" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG5" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH5" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI5" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ5" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK5" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL5" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM5" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN5" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO5" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP5" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ5" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR5" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS5" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT5" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU5" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV5" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="48" t="s">
+      <c r="AW5" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX5" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="AY5" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ5" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA5" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC5" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A6" s="65">
+        <v>1</v>
+      </c>
+      <c r="B6" s="65">
+        <v>1</v>
+      </c>
+      <c r="C6" s="65">
+        <v>1</v>
+      </c>
+      <c r="D6" s="65">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65">
+        <v>1</v>
+      </c>
+      <c r="F6" s="65">
+        <v>1</v>
+      </c>
+      <c r="G6" s="65">
+        <v>1</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="65">
+        <v>0</v>
+      </c>
+      <c r="J6" s="65">
+        <v>0</v>
+      </c>
+      <c r="K6" s="67">
+        <v>43946</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="65">
+        <v>0</v>
+      </c>
+      <c r="N6" s="65">
+        <v>0</v>
+      </c>
+      <c r="O6" s="65">
+        <v>1</v>
+      </c>
+      <c r="P6" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="65">
+        <v>0</v>
+      </c>
+      <c r="R6" s="65">
+        <v>0</v>
+      </c>
+      <c r="S6" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" s="65">
+        <v>0</v>
+      </c>
+      <c r="U6" s="65">
+        <v>1</v>
+      </c>
+      <c r="V6" s="65">
+        <v>1</v>
+      </c>
+      <c r="W6" s="65">
+        <v>1</v>
+      </c>
+      <c r="X6" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="67">
+        <v>43946</v>
+      </c>
+      <c r="BA6" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB6" s="67">
+        <v>43946</v>
+      </c>
+      <c r="BC6" s="66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="54" x14ac:dyDescent="0.4">
+      <c r="A10" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O10" s="48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+      <c r="A11" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="P5" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="S5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="U5" s="48" t="s">
+      <c r="D11" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A12" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="63">
+        <v>0</v>
+      </c>
+      <c r="H12" s="63">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63">
+        <v>0</v>
+      </c>
+      <c r="J12" s="68">
+        <v>0</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="67">
+        <v>43946</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="N12" s="67">
+        <v>43946</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="V5" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="48" t="s">
+      <c r="F16" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="X5" s="48" t="s">
+      <c r="G16" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="Y5" s="48" t="s">
+      <c r="I16" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="65">
+        <v>1</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="65">
+        <v>0</v>
+      </c>
+      <c r="D17" s="65">
+        <v>1</v>
+      </c>
+      <c r="E17" s="65">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65">
+        <v>1</v>
+      </c>
+      <c r="G17" s="65">
+        <v>1</v>
+      </c>
+      <c r="H17" s="65">
+        <v>1</v>
+      </c>
+      <c r="I17" s="65">
+        <v>1</v>
+      </c>
+      <c r="J17" s="65">
+        <v>1</v>
+      </c>
+      <c r="K17" s="65">
+        <v>1</v>
+      </c>
+      <c r="L17" s="65">
+        <v>1</v>
+      </c>
+      <c r="M17" s="65">
+        <v>8</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="O17" s="67">
+        <v>43946</v>
+      </c>
+      <c r="P17" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q17" s="67">
+        <v>43946</v>
+      </c>
+      <c r="R17" s="66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="36" x14ac:dyDescent="0.4">
+      <c r="A20" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>255</v>
+      </c>
+      <c r="M22" s="64">
+        <v>43946</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="64">
+        <v>43946</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="36" x14ac:dyDescent="0.4">
+      <c r="A26" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="Z5" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA5" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB5" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC5" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD5" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE5" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF5" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG5" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH5" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI5" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ5" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK5" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL5" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM5" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN5" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO5" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP5" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ5" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR5" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS5" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT5" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU5" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV5" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="AW5" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="AX5" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY5" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="AZ5" s="48" t="s">
+      <c r="D26" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="BA5" s="48" t="s">
+      <c r="E26" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="BB5" s="48" t="s">
+      <c r="I26" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="BC5" s="48" t="s">
+      <c r="J26" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="BD5" s="48" t="s">
+      <c r="K26" s="48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="66">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>1</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C6" s="66">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="D6" s="66">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="E6" s="66">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="F6" s="66">
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="G6" s="66">
+      <c r="H27" s="64">
+        <v>43946</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="64">
+        <v>43946</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.4">
+      <c r="A30" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" s="48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>1</v>
       </c>
-      <c r="H6" s="66">
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="I6" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6" s="66">
-        <v>0</v>
-      </c>
-      <c r="K6" s="66">
-        <v>0</v>
-      </c>
-      <c r="L6" s="68">
-        <v>43946</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="N6" s="66">
-        <v>0</v>
-      </c>
-      <c r="O6" s="66">
-        <v>0</v>
-      </c>
-      <c r="P6" s="66">
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="R6" s="66">
-        <v>0</v>
-      </c>
-      <c r="S6" s="66">
-        <v>0</v>
-      </c>
-      <c r="T6" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="U6" s="66">
-        <v>0</v>
-      </c>
-      <c r="V6" s="66">
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="W6" s="66">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="X6" s="66">
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="Y6" s="66">
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="Z6" s="66">
+      <c r="J32">
         <v>1</v>
       </c>
-      <c r="AA6" s="66">
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" s="64">
+        <v>43947</v>
+      </c>
+      <c r="N32" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="64">
+        <v>43947</v>
+      </c>
+      <c r="P32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.4">
+      <c r="A35" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.4">
+      <c r="A36" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>1</v>
       </c>
-      <c r="AB6" s="66">
+      <c r="B37" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="AC6" s="66">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="AD6" s="66">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="66">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="66">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="66">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="66">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="AV6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="66">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="66">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="68">
-        <v>43946</v>
-      </c>
-      <c r="BB6" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC6" s="68">
-        <v>43946</v>
-      </c>
-      <c r="BD6" s="67" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="48" t="s">
+      <c r="E37" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="R8" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="S8" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="V8" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="W8" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="X8" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y8" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z8" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB8" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC8" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD8" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE8" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF8" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG8" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH8" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI8" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ8" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK8" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL8" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN8" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO8" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP8" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ8" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR8" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS8" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT8" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU8" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65">
-        <v>43943</v>
-      </c>
-      <c r="K9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>263</v>
-      </c>
-      <c r="R9" t="s">
-        <v>202</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:56" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="63">
-        <v>0</v>
-      </c>
-      <c r="H13" s="63">
-        <v>0</v>
-      </c>
-      <c r="I13" s="63">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="P16" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="R16" s="48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="R17" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="66">
-        <v>1</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" s="66">
-        <v>0</v>
-      </c>
-      <c r="D18" s="66">
-        <v>1</v>
-      </c>
-      <c r="E18" s="66">
-        <v>1</v>
-      </c>
-      <c r="F18" s="66">
-        <v>1</v>
-      </c>
-      <c r="G18" s="66">
-        <v>1</v>
-      </c>
-      <c r="H18" s="66">
-        <v>1</v>
-      </c>
-      <c r="I18" s="66">
-        <v>1</v>
-      </c>
-      <c r="J18" s="66">
-        <v>1</v>
-      </c>
-      <c r="K18" s="66">
-        <v>1</v>
-      </c>
-      <c r="L18" s="66">
-        <v>1</v>
-      </c>
-      <c r="M18" s="66">
+      <c r="F37" s="64">
+        <v>43947</v>
+      </c>
+      <c r="G37" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="O18" s="68">
-        <v>43946</v>
-      </c>
-      <c r="P18" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q18" s="68">
-        <v>43946</v>
-      </c>
-      <c r="R18" s="67" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="M21" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="O21" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="P21" s="48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="M22" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="O22" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-      <c r="L23" t="s">
-        <v>263</v>
-      </c>
-      <c r="M23" s="65">
-        <v>43946</v>
-      </c>
-      <c r="N23" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="65">
-        <v>43946</v>
-      </c>
-      <c r="P23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>386</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="65">
-        <v>43946</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="65">
-        <v>43946</v>
-      </c>
-      <c r="K28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="J31" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="L31" s="48" t="s">
-        <v>410</v>
-      </c>
-      <c r="M31" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="N31" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="O31" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="P31" s="48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="48" t="s">
-        <v>411</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="N32" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="O32" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="P32" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>414</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33" t="s">
-        <v>263</v>
-      </c>
-      <c r="M33" s="65">
+      <c r="H37" s="64">
         <v>43947</v>
       </c>
-      <c r="N33" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="65">
-        <v>43947</v>
-      </c>
-      <c r="P33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>420</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="65">
-        <v>43947</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="65">
-        <v>43947</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="I37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -23209,9 +22977,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
@@ -23274,7 +23042,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -23339,12 +23107,12 @@
       <c r="AU2" s="72"/>
       <c r="AV2" s="72"/>
     </row>
-    <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="95" t="s">
         <v>24</v>
       </c>
@@ -23398,7 +23166,7 @@
       <c r="AU5" s="96"/>
       <c r="AV5" s="97"/>
     </row>
-    <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="95" t="s">
         <v>40</v>
       </c>
@@ -23452,13 +23220,13 @@
       <c r="AU6" s="96"/>
       <c r="AV6" s="97"/>
     </row>
-    <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="94" t="s">
         <v>19</v>
       </c>
@@ -23514,7 +23282,7 @@
       <c r="AU9" s="94"/>
       <c r="AV9" s="94"/>
     </row>
-    <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="94" t="s">
         <v>32</v>
       </c>
@@ -23570,7 +23338,7 @@
       <c r="AU10" s="96"/>
       <c r="AV10" s="97"/>
     </row>
-    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="94" t="s">
         <v>35</v>
       </c>
@@ -23626,7 +23394,7 @@
       <c r="AU11" s="96"/>
       <c r="AV11" s="97"/>
     </row>
-    <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="94" t="s">
         <v>46</v>
       </c>
@@ -23682,7 +23450,7 @@
       <c r="AU12" s="96"/>
       <c r="AV12" s="97"/>
     </row>
-    <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94" t="s">
         <v>49</v>
       </c>
@@ -23738,7 +23506,7 @@
       <c r="AU13" s="96"/>
       <c r="AV13" s="97"/>
     </row>
-    <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="94" t="s">
         <v>50</v>
       </c>
@@ -23794,7 +23562,7 @@
       <c r="AU14" s="96"/>
       <c r="AV14" s="97"/>
     </row>
-    <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="94"/>
       <c r="B15" s="94"/>
       <c r="C15" s="94"/>
@@ -23844,7 +23612,7 @@
       <c r="AU15" s="96"/>
       <c r="AV15" s="97"/>
     </row>
-    <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="94"/>
       <c r="B16" s="94"/>
       <c r="C16" s="94"/>
@@ -23894,7 +23662,7 @@
       <c r="AU16" s="96"/>
       <c r="AV16" s="97"/>
     </row>
-    <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="94"/>
       <c r="B17" s="94"/>
       <c r="C17" s="94"/>
@@ -23944,13 +23712,13 @@
       <c r="AU17" s="96"/>
       <c r="AV17" s="97"/>
     </row>
-    <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="95" t="s">
         <v>19</v>
       </c>
@@ -24004,7 +23772,7 @@
       <c r="AU20" s="96"/>
       <c r="AV20" s="97"/>
     </row>
-    <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="95" t="s">
         <v>38</v>
       </c>
@@ -24058,7 +23826,7 @@
       <c r="AU21" s="96"/>
       <c r="AV21" s="97"/>
     </row>
-    <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -24108,7 +23876,7 @@
       <c r="AU22" s="96"/>
       <c r="AV22" s="97"/>
     </row>
-    <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="95"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -24158,8 +23926,8 @@
       <c r="AU23" s="96"/>
       <c r="AV23" s="97"/>
     </row>
-    <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
     <mergeCell ref="I2:P2"/>
@@ -24228,9 +23996,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
@@ -24293,7 +24061,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -24358,7 +24126,7 @@
       <c r="AU2" s="72"/>
       <c r="AV2" s="72"/>
     </row>
-    <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -24408,19 +24176,19 @@
       <c r="AU4" s="26"/>
       <c r="AV4" s="26"/>
     </row>
-    <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C5" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D7" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E9" s="29" t="s">
         <v>28</v>
       </c>
@@ -24428,29 +24196,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E10" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E14" s="50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AA15" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E16" s="29" t="s">
         <v>29</v>
       </c>
@@ -24458,7 +24226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E17" s="29" t="s">
         <v>30</v>
       </c>
@@ -24466,8 +24234,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D19" s="34" t="s">
         <v>42</v>
       </c>
@@ -24510,41 +24278,41 @@
       <c r="AO19" s="35"/>
       <c r="AP19" s="36"/>
     </row>
-    <row r="20" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
       <c r="I20" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R20" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="U20" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="U20" s="47" t="s">
-        <v>187</v>
-      </c>
       <c r="AP20" s="31"/>
     </row>
-    <row r="21" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="R21" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="R21" s="49" t="s">
-        <v>186</v>
-      </c>
       <c r="U21" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
-    <row r="22" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="40"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -24585,62 +24353,62 @@
       <c r="AO22" s="32"/>
       <c r="AP22" s="33"/>
     </row>
-    <row r="23" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="47" t="s">
+    <row r="27" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="47" t="s">
+    <row r="28" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="4:32" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="47" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" spans="4:32" s="47" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E34" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D36" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E38" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E40" s="99" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F40" s="100"/>
       <c r="G40" s="100"/>
@@ -24652,7 +24420,7 @@
       <c r="M40" s="100"/>
       <c r="N40" s="101"/>
       <c r="O40" s="99" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P40" s="100"/>
       <c r="Q40" s="100"/>
@@ -24672,9 +24440,9 @@
       <c r="AE40" s="100"/>
       <c r="AF40" s="101"/>
     </row>
-    <row r="41" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="95" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F41" s="96"/>
       <c r="G41" s="96"/>
@@ -24706,9 +24474,9 @@
       <c r="AE41" s="96"/>
       <c r="AF41" s="97"/>
     </row>
-    <row r="42" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E42" s="95" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
@@ -24720,7 +24488,7 @@
       <c r="M42" s="96"/>
       <c r="N42" s="97"/>
       <c r="O42" s="102" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P42" s="103"/>
       <c r="Q42" s="103"/>
@@ -24740,9 +24508,9 @@
       <c r="AE42" s="103"/>
       <c r="AF42" s="104"/>
     </row>
-    <row r="43" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="95" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F43" s="96"/>
       <c r="G43" s="96"/>
@@ -24754,7 +24522,7 @@
       <c r="M43" s="96"/>
       <c r="N43" s="97"/>
       <c r="O43" s="102" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P43" s="103"/>
       <c r="Q43" s="103"/>
@@ -24774,9 +24542,9 @@
       <c r="AE43" s="103"/>
       <c r="AF43" s="104"/>
     </row>
-    <row r="44" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
@@ -24808,9 +24576,9 @@
       <c r="AE44" s="96"/>
       <c r="AF44" s="97"/>
     </row>
-    <row r="45" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E45" s="95" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F45" s="96"/>
       <c r="G45" s="96"/>
@@ -24842,23 +24610,23 @@
       <c r="AE45" s="96"/>
       <c r="AF45" s="97"/>
     </row>
-    <row r="46" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="48" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D48" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="50" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E50" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="52" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E52" s="54" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
@@ -24870,7 +24638,7 @@
       <c r="M52" s="55"/>
       <c r="N52" s="56"/>
       <c r="O52" s="61" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P52" s="57"/>
       <c r="Q52" s="57"/>
@@ -24890,16 +24658,16 @@
       <c r="AE52" s="57"/>
       <c r="AF52" s="58"/>
     </row>
-    <row r="53" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="54" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E54" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="56" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E56" s="54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
@@ -24911,7 +24679,7 @@
       <c r="M56" s="55"/>
       <c r="N56" s="56"/>
       <c r="O56" s="61" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P56" s="57"/>
       <c r="Q56" s="57"/>
@@ -24931,9 +24699,9 @@
       <c r="AE56" s="57"/>
       <c r="AF56" s="58"/>
     </row>
-    <row r="57" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E57" s="54" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
@@ -24945,7 +24713,7 @@
       <c r="M57" s="55"/>
       <c r="N57" s="56"/>
       <c r="O57" s="62" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P57" s="59"/>
       <c r="Q57" s="59"/>
@@ -24965,34 +24733,34 @@
       <c r="AE57" s="59"/>
       <c r="AF57" s="60"/>
     </row>
-    <row r="58" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="59" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="60" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D62" s="50" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E64" s="50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F66" s="50" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F67" s="54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -25004,7 +24772,7 @@
       <c r="N67" s="55"/>
       <c r="O67" s="56"/>
       <c r="P67" s="61" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q67" s="57"/>
       <c r="R67" s="57"/>
@@ -25024,9 +24792,9 @@
       <c r="AF67" s="57"/>
       <c r="AG67" s="58"/>
     </row>
-    <row r="68" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F68" s="105" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G68" s="106"/>
       <c r="H68" s="106"/>
@@ -25038,7 +24806,7 @@
       <c r="N68" s="106"/>
       <c r="O68" s="107"/>
       <c r="P68" s="61" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q68" s="57"/>
       <c r="R68" s="57"/>
@@ -25058,7 +24826,7 @@
       <c r="AF68" s="57"/>
       <c r="AG68" s="58"/>
     </row>
-    <row r="69" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F69" s="108"/>
       <c r="G69" s="109"/>
       <c r="H69" s="109"/>
@@ -25070,7 +24838,7 @@
       <c r="N69" s="109"/>
       <c r="O69" s="110"/>
       <c r="P69" s="61" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q69" s="57"/>
       <c r="R69" s="57"/>
@@ -25090,9 +24858,9 @@
       <c r="AF69" s="57"/>
       <c r="AG69" s="58"/>
     </row>
-    <row r="70" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F70" s="54" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55"/>
@@ -25104,7 +24872,7 @@
       <c r="N70" s="55"/>
       <c r="O70" s="56"/>
       <c r="P70" s="62" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q70" s="59"/>
       <c r="R70" s="59"/>
@@ -25124,9 +24892,9 @@
       <c r="AF70" s="59"/>
       <c r="AG70" s="60"/>
     </row>
-    <row r="71" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F71" s="54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
@@ -25138,7 +24906,7 @@
       <c r="N71" s="55"/>
       <c r="O71" s="56"/>
       <c r="P71" s="62" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q71" s="59"/>
       <c r="R71" s="59"/>
@@ -25158,21 +24926,21 @@
       <c r="AF71" s="59"/>
       <c r="AG71" s="60"/>
     </row>
-    <row r="72" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E73" s="50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F75" s="50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F76" s="54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G76" s="55"/>
       <c r="H76" s="55"/>
@@ -25184,7 +24952,7 @@
       <c r="N76" s="55"/>
       <c r="O76" s="56"/>
       <c r="P76" s="61" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q76" s="57"/>
       <c r="R76" s="57"/>
@@ -25204,9 +24972,9 @@
       <c r="AF76" s="57"/>
       <c r="AG76" s="58"/>
     </row>
-    <row r="77" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F77" s="105" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G77" s="106"/>
       <c r="H77" s="106"/>
@@ -25218,7 +24986,7 @@
       <c r="N77" s="106"/>
       <c r="O77" s="107"/>
       <c r="P77" s="61" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q77" s="57"/>
       <c r="R77" s="57"/>
@@ -25238,7 +25006,7 @@
       <c r="AF77" s="57"/>
       <c r="AG77" s="58"/>
     </row>
-    <row r="78" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F78" s="108"/>
       <c r="G78" s="109"/>
       <c r="H78" s="109"/>
@@ -25250,7 +25018,7 @@
       <c r="N78" s="109"/>
       <c r="O78" s="110"/>
       <c r="P78" s="61" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q78" s="57"/>
       <c r="R78" s="57"/>
@@ -25270,9 +25038,9 @@
       <c r="AF78" s="57"/>
       <c r="AG78" s="58"/>
     </row>
-    <row r="79" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F79" s="54" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G79" s="55"/>
       <c r="H79" s="55"/>
@@ -25284,7 +25052,7 @@
       <c r="N79" s="55"/>
       <c r="O79" s="56"/>
       <c r="P79" s="62" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q79" s="59"/>
       <c r="R79" s="59"/>
@@ -25304,9 +25072,9 @@
       <c r="AF79" s="59"/>
       <c r="AG79" s="60"/>
     </row>
-    <row r="80" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F80" s="54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G80" s="55"/>
       <c r="H80" s="55"/>
@@ -25318,7 +25086,7 @@
       <c r="N80" s="55"/>
       <c r="O80" s="56"/>
       <c r="P80" s="62" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q80" s="59"/>
       <c r="R80" s="59"/>
@@ -25338,24 +25106,24 @@
       <c r="AF80" s="59"/>
       <c r="AG80" s="60"/>
     </row>
-    <row r="81" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="82" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D82" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E84" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="87" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="88" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="89" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="86" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="88" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="F77:O78"/>
@@ -25397,9 +25165,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
@@ -25462,7 +25230,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -25527,7 +25295,7 @@
       <c r="AU2" s="72"/>
       <c r="AV2" s="72"/>
     </row>
-    <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -25577,11 +25345,11 @@
       <c r="AU4" s="26"/>
       <c r="AV4" s="26"/>
     </row>
-    <row r="5" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25629,13 +25397,13 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
     </row>
-    <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -25682,7 +25450,7 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
     </row>
-    <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -25732,7 +25500,7 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
     </row>
-    <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -25784,18 +25552,18 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
     </row>
-    <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
       <c r="I10" s="29" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AP10" s="31"/>
     </row>
-    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -25803,7 +25571,7 @@
       <c r="H11" s="39"/>
       <c r="AP11" s="31"/>
     </row>
-    <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="34" t="s">
         <v>42</v>
       </c>
@@ -25846,7 +25614,7 @@
       <c r="AO12" s="35"/>
       <c r="AP12" s="36"/>
     </row>
-    <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -25856,14 +25624,14 @@
         <v>94</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AP13" s="31"/>
     </row>
-    <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -25873,14 +25641,14 @@
         <v>93</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W14" s="50" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AP14" s="31"/>
     </row>
-    <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -25921,14 +25689,14 @@
       <c r="AO15" s="32"/>
       <c r="AP15" s="33"/>
     </row>
-    <row r="16" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -25975,7 +25743,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
     </row>
-    <row r="19" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -26025,7 +25793,7 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
     </row>
-    <row r="20" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -26077,18 +25845,18 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="50" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
-    <row r="22" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -26096,7 +25864,7 @@
       <c r="H22" s="39"/>
       <c r="AP22" s="31"/>
     </row>
-    <row r="23" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D23" s="34" t="s">
         <v>42</v>
       </c>
@@ -26139,7 +25907,7 @@
       <c r="AO23" s="35"/>
       <c r="AP23" s="36"/>
     </row>
-    <row r="24" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
@@ -26149,14 +25917,14 @@
         <v>94</v>
       </c>
       <c r="S24" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W24" s="50" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AP24" s="31"/>
     </row>
-    <row r="25" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -26197,15 +25965,15 @@
       <c r="AO25" s="32"/>
       <c r="AP25" s="33"/>
     </row>
-    <row r="26" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -26234,9 +26002,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
@@ -26299,7 +26067,7 @@
       <c r="AU1" s="78"/>
       <c r="AV1" s="78"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -26364,7 +26132,7 @@
       <c r="AU2" s="72"/>
       <c r="AV2" s="72"/>
     </row>
-    <row r="4" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -26414,12 +26182,12 @@
       <c r="AU4" s="26"/>
       <c r="AV4" s="26"/>
     </row>
-    <row r="5" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -26467,7 +26235,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
     </row>
-    <row r="7" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -26517,7 +26285,7 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
     </row>
-    <row r="8" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -26569,7 +26337,7 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
     </row>
-    <row r="9" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -26583,7 +26351,7 @@
       </c>
       <c r="AP9" s="31"/>
     </row>
-    <row r="10" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -26597,7 +26365,7 @@
       </c>
       <c r="AP10" s="31"/>
     </row>
-    <row r="11" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -26611,7 +26379,7 @@
       </c>
       <c r="AP11" s="31"/>
     </row>
-    <row r="12" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
@@ -26625,7 +26393,7 @@
       </c>
       <c r="AP12" s="31"/>
     </row>
-    <row r="13" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -26639,7 +26407,7 @@
       </c>
       <c r="AP13" s="31"/>
     </row>
-    <row r="14" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -26653,7 +26421,7 @@
       </c>
       <c r="AP14" s="31"/>
     </row>
-    <row r="15" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
@@ -26667,7 +26435,7 @@
       </c>
       <c r="AP15" s="31"/>
     </row>
-    <row r="16" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
@@ -26681,7 +26449,7 @@
       </c>
       <c r="AP16" s="31"/>
     </row>
-    <row r="17" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
@@ -26695,7 +26463,7 @@
       </c>
       <c r="AP17" s="31"/>
     </row>
-    <row r="18" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -26709,7 +26477,7 @@
       </c>
       <c r="AP18" s="31"/>
     </row>
-    <row r="19" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D19" s="37"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
@@ -26717,7 +26485,7 @@
       <c r="H19" s="39"/>
       <c r="AP19" s="31"/>
     </row>
-    <row r="20" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="34" t="s">
         <v>41</v>
       </c>
@@ -26760,7 +26528,7 @@
       <c r="AO20" s="35"/>
       <c r="AP20" s="36"/>
     </row>
-    <row r="21" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
@@ -26771,7 +26539,7 @@
       </c>
       <c r="AP21" s="31"/>
     </row>
-    <row r="22" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -26782,7 +26550,7 @@
       </c>
       <c r="AP22" s="31"/>
     </row>
-    <row r="23" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D23" s="40"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -26823,7 +26591,7 @@
       <c r="AO23" s="32"/>
       <c r="AP23" s="33"/>
     </row>
-    <row r="24" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="34" t="s">
         <v>42</v>
       </c>
@@ -26866,7 +26634,7 @@
       <c r="AO24" s="35"/>
       <c r="AP24" s="36"/>
     </row>
-    <row r="25" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
@@ -26877,7 +26645,7 @@
       </c>
       <c r="AP25" s="31"/>
     </row>
-    <row r="26" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
@@ -26888,7 +26656,7 @@
       </c>
       <c r="AP26" s="31"/>
     </row>
-    <row r="27" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D27" s="40"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -26929,15 +26697,15 @@
       <c r="AO27" s="32"/>
       <c r="AP27" s="33"/>
     </row>
-    <row r="28" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" s="50" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="4:42" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96032193-F62E-4039-AD4A-9F57999A17C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E61045-FE60-412E-A32D-76CF4AF0BBB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31305" yWindow="345" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="511">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -831,15 +831,6 @@
     <t>level</t>
   </si>
   <si>
-    <t>class1</t>
-  </si>
-  <si>
-    <t>class2</t>
-  </si>
-  <si>
-    <t>class3</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -1543,15 +1534,6 @@
     <t>mag</t>
   </si>
   <si>
-    <t>talent1</t>
-  </si>
-  <si>
-    <t>talent2</t>
-  </si>
-  <si>
-    <t>talent3</t>
-  </si>
-  <si>
     <t>des</t>
   </si>
   <si>
@@ -1780,15 +1762,6 @@
     <t>レベル</t>
   </si>
   <si>
-    <t>クラス１</t>
-  </si>
-  <si>
-    <t>クラス２</t>
-  </si>
-  <si>
-    <t>クラス３</t>
-  </si>
-  <si>
     <t>ギルドランク</t>
   </si>
   <si>
@@ -1826,15 +1799,6 @@
   </si>
   <si>
     <t>素早さ</t>
-  </si>
-  <si>
-    <t>異能１</t>
-  </si>
-  <si>
-    <t>異能２</t>
-  </si>
-  <si>
-    <t>異能３</t>
   </si>
   <si>
     <t>リーダーフラグ</t>
@@ -2146,6 +2110,294 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>クラス１ID</t>
+  </si>
+  <si>
+    <t>クラス２ID</t>
+  </si>
+  <si>
+    <t>クラス３ID</t>
+  </si>
+  <si>
+    <t>タレント１ID</t>
+  </si>
+  <si>
+    <t>タレント２ID</t>
+  </si>
+  <si>
+    <t>タレント３ID</t>
+  </si>
+  <si>
+    <t>class1_id</t>
+  </si>
+  <si>
+    <t>class2_id</t>
+  </si>
+  <si>
+    <t>class3_id</t>
+  </si>
+  <si>
+    <t>talent1_id</t>
+  </si>
+  <si>
+    <t>talent2_id</t>
+  </si>
+  <si>
+    <t>talent3_id</t>
+  </si>
+  <si>
+    <t>拠点ID</t>
+  </si>
+  <si>
+    <t>パートナーフラグ</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>is_partner</t>
+  </si>
+  <si>
+    <t>フィールドID</t>
+  </si>
+  <si>
+    <t>フィールド名</t>
+  </si>
+  <si>
+    <t>フィールドランク</t>
+  </si>
+  <si>
+    <t>元首家</t>
+  </si>
+  <si>
+    <t>元首ID</t>
+  </si>
+  <si>
+    <t>面積</t>
+  </si>
+  <si>
+    <t>戦争フラグ</t>
+  </si>
+  <si>
+    <t>勝利数</t>
+  </si>
+  <si>
+    <t>敗北数</t>
+  </si>
+  <si>
+    <t>盟約</t>
+  </si>
+  <si>
+    <t>城数</t>
+  </si>
+  <si>
+    <t>ストレス</t>
+  </si>
+  <si>
+    <t>ヘイト</t>
+  </si>
+  <si>
+    <t>資産</t>
+  </si>
+  <si>
+    <t>文明度</t>
+  </si>
+  <si>
+    <t>強度</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>field_id</t>
+  </si>
+  <si>
+    <t>field_name</t>
+  </si>
+  <si>
+    <t>f_rank</t>
+  </si>
+  <si>
+    <t>king_gene_id</t>
+  </si>
+  <si>
+    <t>character_id</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>is_war</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
+    <t>defeat</t>
+  </si>
+  <si>
+    <t>contract_id</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>civilization</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>↓フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケーションID</t>
+  </si>
+  <si>
+    <t>座標X</t>
+  </si>
+  <si>
+    <t>座標Y</t>
+  </si>
+  <si>
+    <t>領主家ID</t>
+  </si>
+  <si>
+    <t>領主ID</t>
+  </si>
+  <si>
+    <t>海フラグ</t>
+  </si>
+  <si>
+    <t>戦闘領域フラグ</t>
+  </si>
+  <si>
+    <t>ギルドフラグ</t>
+  </si>
+  <si>
+    <t>教会フラグ</t>
+  </si>
+  <si>
+    <t>教会ランク</t>
+  </si>
+  <si>
+    <t>鍛冶屋フラグ</t>
+  </si>
+  <si>
+    <t>鍛冶屋ランク</t>
+  </si>
+  <si>
+    <t>lord_gene_id</t>
+  </si>
+  <si>
+    <t>place_name</t>
+  </si>
+  <si>
+    <t>is_sea</t>
+  </si>
+  <si>
+    <t>is_battle</t>
+  </si>
+  <si>
+    <t>is_guild</t>
+  </si>
+  <si>
+    <t>is_church</t>
+  </si>
+  <si>
+    <t>c_rank</t>
+  </si>
+  <si>
+    <t>is_blacksmith</t>
+  </si>
+  <si>
+    <t>b_rank</t>
+  </si>
+  <si>
+    <t>↓ロケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポットID</t>
+  </si>
+  <si>
+    <t>座標x</t>
+  </si>
+  <si>
+    <t>座標y</t>
+  </si>
+  <si>
+    <t>地主家ID</t>
+  </si>
+  <si>
+    <t>地主ID</t>
+  </si>
+  <si>
+    <t>spot_id</t>
+  </si>
+  <si>
+    <t>landlord_gene_id</t>
+  </si>
+  <si>
+    <t>↓スポット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>領地名</t>
+  </si>
+  <si>
+    <t>領地ランク</t>
+  </si>
+  <si>
+    <t>ギルドポイント</t>
+  </si>
+  <si>
+    <t>教会ポイント</t>
+  </si>
+  <si>
+    <t>鍛冶屋ポイント</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>g_point</t>
+  </si>
+  <si>
+    <t>c_point</t>
+  </si>
+  <si>
+    <t>b_point</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2611,6 +2863,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2620,7 +2883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2834,6 +3097,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2864,45 +3166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2917,24 +3180,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2953,6 +3198,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10607,215 +10873,215 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="85" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="88" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="81" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="81" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="83"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="79"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="71">
+      <c r="A5" s="84">
         <v>43884</v>
       </c>
       <c r="B5" s="70"/>
@@ -10825,52 +11091,52 @@
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="84" t="s">
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="84" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="86"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="75"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="70"/>
@@ -10881,46 +11147,46 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="86"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="75"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="70"/>
@@ -10931,46 +11197,46 @@
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="86"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="86"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="75"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="70"/>
@@ -10981,46 +11247,46 @@
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="86"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="75"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="70"/>
@@ -11031,46 +11297,46 @@
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
       <c r="H9" s="70"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="86"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="75"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="70"/>
@@ -11081,46 +11347,46 @@
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="86"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="75"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="70"/>
@@ -11131,46 +11397,46 @@
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="86"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="75"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="70"/>
@@ -11181,46 +11447,46 @@
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
       <c r="H12" s="70"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="86"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="75"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="70"/>
@@ -11231,46 +11497,46 @@
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="86"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="75"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="70"/>
@@ -11281,46 +11547,46 @@
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="86"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="75"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="70"/>
@@ -11331,46 +11597,46 @@
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="86"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="86"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="75"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="70"/>
@@ -11381,78 +11647,71 @@
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="86"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="86"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -11469,28 +11728,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11509,132 +11775,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -15061,7 +15327,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -15113,7 +15379,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -15165,7 +15431,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -16374,158 +16640,158 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I97" t="s">
+        <v>151</v>
+      </c>
+      <c r="O97" t="s">
+        <v>153</v>
+      </c>
+      <c r="T97" t="s">
         <v>154</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Y97" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC97" t="s">
         <v>156</v>
-      </c>
-      <c r="T97" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AC98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I109" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I110" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I111" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I112" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q113" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I114" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I115" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -16560,132 +16826,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -20112,7 +20378,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="14"/>
       <c r="AH70" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
@@ -20164,7 +20430,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="14"/>
       <c r="AH71" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -20216,7 +20482,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="14"/>
       <c r="AH72" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -21425,158 +21691,158 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I97" t="s">
+        <v>151</v>
+      </c>
+      <c r="O97" t="s">
+        <v>153</v>
+      </c>
+      <c r="T97" t="s">
         <v>154</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Y97" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC97" t="s">
         <v>156</v>
-      </c>
-      <c r="T97" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AC98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I109" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I110" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I111" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I112" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q113" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I114" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I115" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -21602,10 +21868,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:BC37"/>
+  <dimension ref="A1:BE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21614,188 +21880,196 @@
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.25" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.375" customWidth="1"/>
     <col min="55" max="55" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="54" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="H4" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="I4" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="J4" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="L4" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="M4" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="N4" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="O4" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="P4" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="Q4" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="T4" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="U4" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="V4" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="W4" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="X4" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="Y4" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="Z4" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="AA4" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC4" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="AD4" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="AE4" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="AF4" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="AG4" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="AH4" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="AI4" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ4" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK4" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL4" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="AM4" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="AN4" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="Z4" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA4" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AO4" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AP4" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AQ4" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="AE4" s="48" t="s">
+      <c r="AR4" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="AF4" s="48" t="s">
+      <c r="AS4" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="AG4" s="48" t="s">
+      <c r="AT4" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="AH4" s="48" t="s">
+      <c r="AU4" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="AI4" s="48" t="s">
+      <c r="AV4" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="AJ4" s="48" t="s">
+      <c r="AW4" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX4" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="AK4" s="48" t="s">
+      <c r="AY4" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="AL4" s="48" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="AM4" s="48" t="s">
+      <c r="BA4" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="AN4" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="AO4" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="AP4" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ4" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR4" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS4" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="AT4" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="AU4" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="AV4" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="AW4" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="AX4" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="AY4" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="AZ4" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA4" s="48" t="s">
-        <v>278</v>
-      </c>
       <c r="BB4" s="48" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="BC4" s="48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+      <c r="BD4" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="BE4" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A5" s="48" t="s">
         <v>103</v>
       </c>
@@ -21806,170 +22080,176 @@
         <v>109</v>
       </c>
       <c r="D5" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="G5" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="H5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="I5" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>356</v>
-      </c>
       <c r="J5" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="L5" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="48" t="s">
-        <v>249</v>
-      </c>
       <c r="M5" s="48" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="O5" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="P5" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="Q5" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="X5" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z5" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA5" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="AB5" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="S5" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="T5" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U5" s="48" t="s">
+      <c r="AC5" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD5" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE5" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="W5" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="X5" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z5" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA5" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB5" s="48" t="s">
+      <c r="AF5" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG5" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH5" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="AC5" s="48" t="s">
+      <c r="AI5" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ5" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK5" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL5" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM5" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN5" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO5" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP5" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ5" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR5" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS5" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT5" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU5" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV5" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="AW5" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="AX5" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="AY5" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="AD5" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE5" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF5" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG5" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH5" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI5" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="AJ5" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK5" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL5" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM5" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN5" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO5" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP5" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ5" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR5" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS5" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AT5" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU5" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="AV5" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="AW5" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX5" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="AY5" s="48" t="s">
-        <v>365</v>
-      </c>
       <c r="AZ5" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA5" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="BB5" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="BA5" s="48" t="s">
+      <c r="BC5" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="BB5" s="48" t="s">
+      <c r="BD5" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="BC5" s="48" t="s">
+      <c r="BE5" s="48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A6" s="65">
         <v>1</v>
       </c>
       <c r="B6" s="65">
         <v>1</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="65">
@@ -21984,47 +22264,47 @@
       <c r="G6" s="65">
         <v>1</v>
       </c>
-      <c r="H6" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0</v>
+      <c r="H6" s="65">
+        <v>1</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>193</v>
       </c>
       <c r="J6" s="65">
         <v>0</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="65">
+        <v>0</v>
+      </c>
+      <c r="L6" s="67">
         <v>43946</v>
       </c>
-      <c r="L6" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="65">
-        <v>0</v>
+      <c r="M6" s="66" t="s">
+        <v>195</v>
       </c>
       <c r="N6" s="65">
         <v>0</v>
       </c>
       <c r="O6" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="65">
         <v>1</v>
       </c>
       <c r="Q6" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="65">
         <v>0</v>
       </c>
-      <c r="S6" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="T6" s="65">
+      <c r="S6" s="65">
         <v>0</v>
       </c>
+      <c r="T6" s="66" t="s">
+        <v>194</v>
+      </c>
       <c r="U6" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="65">
         <v>1</v>
@@ -22063,7 +22343,7 @@
         <v>1</v>
       </c>
       <c r="AH6" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="65">
         <v>0</v>
@@ -22096,124 +22376,130 @@
         <v>0</v>
       </c>
       <c r="AS6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="65">
         <v>1</v>
       </c>
-      <c r="AT6" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="AU6" s="65">
-        <v>0</v>
+      <c r="AU6" s="66" t="s">
+        <v>354</v>
       </c>
       <c r="AV6" s="65">
         <v>0</v>
       </c>
-      <c r="AW6" s="65">
+      <c r="AW6" s="111">
         <v>0</v>
       </c>
       <c r="AX6" s="65">
         <v>0</v>
       </c>
       <c r="AY6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="65">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="65">
         <v>1</v>
-      </c>
-      <c r="AZ6" s="67">
-        <v>43946</v>
-      </c>
-      <c r="BA6" s="66" t="s">
-        <v>304</v>
       </c>
       <c r="BB6" s="67">
         <v>43946</v>
       </c>
       <c r="BC6" s="66" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+      <c r="BD6" s="67">
+        <v>43946</v>
+      </c>
+      <c r="BE6" s="66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" ht="54" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" ht="54" x14ac:dyDescent="0.4">
       <c r="A10" s="48" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="N10" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="36" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="I11" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>139</v>
-      </c>
       <c r="J11" s="48" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>104</v>
@@ -22228,24 +22514,24 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A12" s="46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="63">
         <v>0</v>
@@ -22260,124 +22546,124 @@
         <v>0</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L12" s="67">
         <v>43946</v>
       </c>
       <c r="M12" s="66" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N12" s="67">
         <v>43946</v>
       </c>
       <c r="O12" s="66" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="36" x14ac:dyDescent="0.4">
       <c r="A15" s="48" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E15" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="L15" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="M15" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="H15" s="48" t="s">
+      <c r="N15" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="O15" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="R15" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="P15" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q15" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="R15" s="48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" ht="36" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:57" ht="36" x14ac:dyDescent="0.4">
       <c r="A16" s="48" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E16" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="M16" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="48" t="s">
+      <c r="N16" s="48" t="s">
         <v>258</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>264</v>
       </c>
       <c r="O16" s="48" t="s">
         <v>104</v>
@@ -22397,7 +22683,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C17" s="65">
         <v>0</v>
@@ -22433,74 +22719,74 @@
         <v>8</v>
       </c>
       <c r="N17" s="66" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="O17" s="67">
         <v>43946</v>
       </c>
       <c r="P17" s="66" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="67">
         <v>43946</v>
       </c>
       <c r="R17" s="66" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="36" x14ac:dyDescent="0.4">
       <c r="A20" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="I20" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="J20" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="K20" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="L20" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="M20" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="N20" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="O20" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="P20" s="48" t="s">
         <v>274</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="M20" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="O20" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="P20" s="48" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.4">
@@ -22508,37 +22794,37 @@
         <v>109</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C21" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="K21" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>288</v>
-      </c>
       <c r="L21" s="48" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M21" s="48" t="s">
         <v>104</v>
@@ -22558,7 +22844,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -22588,7 +22874,7 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M22" s="64">
         <v>43946</v>
@@ -22605,65 +22891,65 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="48" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="36" x14ac:dyDescent="0.4">
       <c r="A26" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>367</v>
-      </c>
       <c r="D26" s="48" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H26" s="48" t="s">
         <v>104</v>
@@ -22683,7 +22969,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -22715,95 +23001,95 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.4">
       <c r="A30" s="48" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I30" s="48" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="J30" s="48" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="L30" s="48" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M30" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N30" s="48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O30" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P30" s="48" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.4">
       <c r="A31" s="48" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C31" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="K31" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E31" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>288</v>
-      </c>
       <c r="L31" s="48" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M31" s="48" t="s">
         <v>104</v>
@@ -22823,7 +23109,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -22853,7 +23139,7 @@
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M32" s="64">
         <v>43947</v>
@@ -22868,58 +23154,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="36" x14ac:dyDescent="0.4">
       <c r="A35" s="48" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="36" x14ac:dyDescent="0.4">
       <c r="A36" s="48" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>104</v>
@@ -22934,12 +23220,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -22948,7 +23234,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F37" s="64">
         <v>43947</v>
@@ -22960,6 +23246,606 @@
         <v>43947</v>
       </c>
       <c r="I37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+      <c r="A40" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="M40" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="N40" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="O40" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="P40" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q40" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="R40" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="S40" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="T40" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="U40" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="V40" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+      <c r="A41" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q41" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="R41" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="S41" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="T41" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="U41" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="V41" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42" t="s">
+        <v>468</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42" s="64">
+        <v>43953</v>
+      </c>
+      <c r="T42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="64">
+        <v>43953</v>
+      </c>
+      <c r="V42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+      <c r="A45" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="O45" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="P45" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="R45" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="S45" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="T45" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="U45" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="V45" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="W45" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="X45" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y45" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z45" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+      <c r="A46" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="O46" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="P46" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q46" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="R46" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="S46" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="T46" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="U46" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="V46" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="W46" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="X46" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y46" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z46" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>499</v>
+      </c>
+      <c r="H47" t="s">
+        <v>468</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47" s="64">
+        <v>43953</v>
+      </c>
+      <c r="X47" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="64">
+        <v>43953</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="36" x14ac:dyDescent="0.4">
+      <c r="A50" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="M50" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="N50" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="O50" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="P50" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="36" x14ac:dyDescent="0.4">
+      <c r="A51" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="L51" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="M51" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N51" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" s="64">
+        <v>43953</v>
+      </c>
+      <c r="N52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="64">
+        <v>43953</v>
+      </c>
+      <c r="P52" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22980,132 +23866,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
@@ -23930,6 +24816,40 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -23946,40 +24866,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23999,132 +24885,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -24178,7 +25064,7 @@
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C5" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -24210,7 +25096,7 @@
     <row r="13" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E14" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
@@ -24285,13 +25171,13 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
       <c r="I20" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="R20" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="U20" s="47" t="s">
         <v>183</v>
-      </c>
-      <c r="R20" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="U20" s="47" t="s">
-        <v>186</v>
       </c>
       <c r="AP20" s="31"/>
     </row>
@@ -24302,13 +25188,13 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="R21" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="U21" s="47" t="s">
         <v>184</v>
-      </c>
-      <c r="R21" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="U21" s="47" t="s">
-        <v>187</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
@@ -24356,93 +25242,93 @@
     <row r="23" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E26" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E27" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C29" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="3:42" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D31" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="3:42" s="47" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="4:32" s="47" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E33" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E34" s="50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D36" s="50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E38" s="50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="100"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="100"/>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="100"/>
-      <c r="AF40" s="101"/>
+      <c r="E40" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
+      <c r="AE40" s="109"/>
+      <c r="AF40" s="110"/>
     </row>
     <row r="41" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="95" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F41" s="96"/>
       <c r="G41" s="96"/>
@@ -24476,7 +25362,7 @@
     </row>
     <row r="42" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E42" s="95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
@@ -24487,30 +25373,30 @@
       <c r="L42" s="96"/>
       <c r="M42" s="96"/>
       <c r="N42" s="97"/>
-      <c r="O42" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="103"/>
-      <c r="X42" s="103"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="103"/>
-      <c r="AA42" s="103"/>
-      <c r="AB42" s="103"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="104"/>
+      <c r="O42" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="106"/>
+      <c r="AE42" s="106"/>
+      <c r="AF42" s="107"/>
     </row>
     <row r="43" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="95" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F43" s="96"/>
       <c r="G43" s="96"/>
@@ -24521,30 +25407,30 @@
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
       <c r="N43" s="97"/>
-      <c r="O43" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="103"/>
-      <c r="V43" s="103"/>
-      <c r="W43" s="103"/>
-      <c r="X43" s="103"/>
-      <c r="Y43" s="103"/>
-      <c r="Z43" s="103"/>
-      <c r="AA43" s="103"/>
-      <c r="AB43" s="103"/>
-      <c r="AC43" s="103"/>
-      <c r="AD43" s="103"/>
-      <c r="AE43" s="103"/>
-      <c r="AF43" s="104"/>
+      <c r="O43" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="106"/>
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="106"/>
+      <c r="AF43" s="107"/>
     </row>
     <row r="44" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
@@ -24578,7 +25464,7 @@
     </row>
     <row r="45" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E45" s="95" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F45" s="96"/>
       <c r="G45" s="96"/>
@@ -24614,19 +25500,19 @@
     <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="48" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D48" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="50" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E50" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="52" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E52" s="54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
@@ -24638,7 +25524,7 @@
       <c r="M52" s="55"/>
       <c r="N52" s="56"/>
       <c r="O52" s="61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P52" s="57"/>
       <c r="Q52" s="57"/>
@@ -24661,13 +25547,13 @@
     <row r="53" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E54" s="50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E56" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
@@ -24679,7 +25565,7 @@
       <c r="M56" s="55"/>
       <c r="N56" s="56"/>
       <c r="O56" s="61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P56" s="57"/>
       <c r="Q56" s="57"/>
@@ -24701,7 +25587,7 @@
     </row>
     <row r="57" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E57" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
@@ -24713,7 +25599,7 @@
       <c r="M57" s="55"/>
       <c r="N57" s="56"/>
       <c r="O57" s="62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P57" s="59"/>
       <c r="Q57" s="59"/>
@@ -24737,30 +25623,30 @@
     <row r="59" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="62" spans="3:32" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D62" s="50" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="3:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E64" s="50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F66" s="50" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F67" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -24772,7 +25658,7 @@
       <c r="N67" s="55"/>
       <c r="O67" s="56"/>
       <c r="P67" s="61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q67" s="57"/>
       <c r="R67" s="57"/>
@@ -24793,20 +25679,20 @@
       <c r="AG67" s="58"/>
     </row>
     <row r="68" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106"/>
-      <c r="M68" s="106"/>
-      <c r="N68" s="106"/>
-      <c r="O68" s="107"/>
+      <c r="F68" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="101"/>
       <c r="P68" s="61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q68" s="57"/>
       <c r="R68" s="57"/>
@@ -24827,18 +25713,18 @@
       <c r="AG68" s="58"/>
     </row>
     <row r="69" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="108"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="110"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="103"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="104"/>
       <c r="P69" s="61" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q69" s="57"/>
       <c r="R69" s="57"/>
@@ -24860,7 +25746,7 @@
     </row>
     <row r="70" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F70" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55"/>
@@ -24872,7 +25758,7 @@
       <c r="N70" s="55"/>
       <c r="O70" s="56"/>
       <c r="P70" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q70" s="59"/>
       <c r="R70" s="59"/>
@@ -24894,7 +25780,7 @@
     </row>
     <row r="71" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F71" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
@@ -24906,7 +25792,7 @@
       <c r="N71" s="55"/>
       <c r="O71" s="56"/>
       <c r="P71" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q71" s="59"/>
       <c r="R71" s="59"/>
@@ -24929,18 +25815,18 @@
     <row r="72" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="73" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E73" s="50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="75" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F75" s="50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F76" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G76" s="55"/>
       <c r="H76" s="55"/>
@@ -24952,7 +25838,7 @@
       <c r="N76" s="55"/>
       <c r="O76" s="56"/>
       <c r="P76" s="61" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q76" s="57"/>
       <c r="R76" s="57"/>
@@ -24973,20 +25859,20 @@
       <c r="AG76" s="58"/>
     </row>
     <row r="77" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="106"/>
-      <c r="O77" s="107"/>
+      <c r="F77" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="100"/>
+      <c r="N77" s="100"/>
+      <c r="O77" s="101"/>
       <c r="P77" s="61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q77" s="57"/>
       <c r="R77" s="57"/>
@@ -25007,18 +25893,18 @@
       <c r="AG77" s="58"/>
     </row>
     <row r="78" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="108"/>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="110"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
+      <c r="K78" s="103"/>
+      <c r="L78" s="103"/>
+      <c r="M78" s="103"/>
+      <c r="N78" s="103"/>
+      <c r="O78" s="104"/>
       <c r="P78" s="61" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q78" s="57"/>
       <c r="R78" s="57"/>
@@ -25040,7 +25926,7 @@
     </row>
     <row r="79" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F79" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G79" s="55"/>
       <c r="H79" s="55"/>
@@ -25052,7 +25938,7 @@
       <c r="N79" s="55"/>
       <c r="O79" s="56"/>
       <c r="P79" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q79" s="59"/>
       <c r="R79" s="59"/>
@@ -25074,7 +25960,7 @@
     </row>
     <row r="80" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F80" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G80" s="55"/>
       <c r="H80" s="55"/>
@@ -25086,7 +25972,7 @@
       <c r="N80" s="55"/>
       <c r="O80" s="56"/>
       <c r="P80" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q80" s="59"/>
       <c r="R80" s="59"/>
@@ -25109,13 +25995,13 @@
     <row r="81" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="82" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D82" s="50" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="84" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E84" s="50" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="4:5" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -25126,19 +26012,6 @@
     <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -25150,6 +26023,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25168,132 +26054,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -25349,7 +26235,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25403,7 +26289,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -25559,7 +26445,7 @@
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
       <c r="I10" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AP10" s="31"/>
     </row>
@@ -25624,10 +26510,10 @@
         <v>94</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP13" s="31"/>
     </row>
@@ -25641,10 +26527,10 @@
         <v>93</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W14" s="50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AP14" s="31"/>
     </row>
@@ -25696,7 +26582,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -25852,7 +26738,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
       <c r="I21" s="50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AP21" s="31"/>
     </row>
@@ -25917,10 +26803,10 @@
         <v>94</v>
       </c>
       <c r="S24" s="50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W24" s="50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP24" s="31"/>
     </row>
@@ -26005,132 +26891,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="72" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="85" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="79">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="92">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72" t="str">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72" t="str">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -26187,7 +27073,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E61045-FE60-412E-A32D-76CF4AF0BBB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99CE43-C422-49FE-8A2A-A0FE67B0B62B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="345" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="30960" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -3091,50 +3091,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3166,6 +3130,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3180,6 +3183,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3198,27 +3219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10008,20 +10008,20 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AX3" s="69" t="s">
+      <c r="AX3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="70" t="s">
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="70"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -10072,20 +10072,20 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AX4" s="69" t="s">
+      <c r="AX4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="70" t="s">
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -10873,823 +10873,874 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="81" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="73" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="80" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="77" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="77" t="s">
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="79"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="84"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="84">
+      <c r="A5" s="72">
         <v>43884</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="83" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="73" t="s">
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="73" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="75"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="87"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="74"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="73"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="75"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="87"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="75"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="87"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="75"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="87"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="75"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="87"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="75"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="87"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="75"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="87"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="74"/>
-      <c r="AU12" s="74"/>
-      <c r="AV12" s="75"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="87"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="74"/>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="74"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="74"/>
-      <c r="AS13" s="74"/>
-      <c r="AT13" s="74"/>
-      <c r="AU13" s="74"/>
-      <c r="AV13" s="75"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="87"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="74"/>
-      <c r="AS14" s="74"/>
-      <c r="AT14" s="74"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="75"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="87"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="74"/>
-      <c r="AS15" s="74"/>
-      <c r="AT15" s="74"/>
-      <c r="AU15" s="74"/>
-      <c r="AV15" s="75"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="87"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="74"/>
-      <c r="AU16" s="74"/>
-      <c r="AV16" s="75"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="86"/>
+      <c r="AQ16" s="86"/>
+      <c r="AR16" s="86"/>
+      <c r="AS16" s="86"/>
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="86"/>
+      <c r="AV16" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -11706,57 +11757,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11775,132 +11775,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="str">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -16826,132 +16826,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="str">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -21870,8 +21870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
   <dimension ref="A1:BE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22387,7 +22387,7 @@
       <c r="AV6" s="65">
         <v>0</v>
       </c>
-      <c r="AW6" s="111">
+      <c r="AW6" s="69">
         <v>0</v>
       </c>
       <c r="AX6" s="65">
@@ -23866,132 +23866,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="str">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
@@ -23999,112 +23999,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="95" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="96"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="96"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="96"/>
-      <c r="AQ5" s="96"/>
-      <c r="AR5" s="96"/>
-      <c r="AS5" s="96"/>
-      <c r="AT5" s="96"/>
-      <c r="AU5" s="96"/>
-      <c r="AV5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="98"/>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="98"/>
     </row>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
@@ -24113,490 +24113,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="98" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="94" t="s">
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="94"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="94"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="95"/>
+      <c r="AQ9" s="95"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="95"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="95"/>
     </row>
     <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="95" t="s">
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="97"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="97"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="98"/>
     </row>
     <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="95" t="s">
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="96"/>
-      <c r="AV11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="98"/>
     </row>
     <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95" t="s">
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="96"/>
-      <c r="AT12" s="96"/>
-      <c r="AU12" s="96"/>
-      <c r="AV12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="97"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="97"/>
+      <c r="AS12" s="97"/>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="98"/>
     </row>
     <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="95" t="s">
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="98"/>
     </row>
     <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="95" t="s">
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="96"/>
-      <c r="AS14" s="96"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="96"/>
-      <c r="AV14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="98"/>
     </row>
     <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="96"/>
-      <c r="AS15" s="96"/>
-      <c r="AT15" s="96"/>
-      <c r="AU15" s="96"/>
-      <c r="AV15" s="97"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="98"/>
     </row>
     <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="96"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="96"/>
-      <c r="AV16" s="97"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="98"/>
     </row>
     <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="96"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="96"/>
-      <c r="AV17" s="97"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="98"/>
     </row>
     <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
@@ -24605,229 +24605,239 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="95" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="96"/>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
-      <c r="AR20" s="96"/>
-      <c r="AS20" s="96"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="96"/>
-      <c r="AV20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="98"/>
     </row>
     <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="95" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="97"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="97"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="97"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="98"/>
     </row>
     <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="97"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="97"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="97"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="98"/>
     </row>
     <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="96"/>
-      <c r="AS23" s="96"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="96"/>
-      <c r="AV23" s="97"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="97"/>
+      <c r="AN23" s="97"/>
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="98"/>
     </row>
     <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -24844,28 +24854,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24885,132 +24885,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="str">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -25293,140 +25293,140 @@
     </row>
     <row r="39" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="108" t="s">
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="109"/>
-      <c r="W40" s="109"/>
-      <c r="X40" s="109"/>
-      <c r="Y40" s="109"/>
-      <c r="Z40" s="109"/>
-      <c r="AA40" s="109"/>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="109"/>
-      <c r="AD40" s="109"/>
-      <c r="AE40" s="109"/>
-      <c r="AF40" s="110"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="101"/>
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="101"/>
+      <c r="AD40" s="101"/>
+      <c r="AE40" s="101"/>
+      <c r="AF40" s="102"/>
     </row>
     <row r="41" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="95" t="s">
+      <c r="E41" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="95" t="b">
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="96" t="b">
         <v>1</v>
       </c>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
-      <c r="AB41" s="96"/>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="96"/>
-      <c r="AE41" s="96"/>
-      <c r="AF41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="97"/>
+      <c r="U41" s="97"/>
+      <c r="V41" s="97"/>
+      <c r="W41" s="97"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="97"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="98"/>
     </row>
     <row r="42" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="95" t="s">
+      <c r="E42" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="105" t="s">
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="106"/>
-      <c r="AC42" s="106"/>
-      <c r="AD42" s="106"/>
-      <c r="AE42" s="106"/>
-      <c r="AF42" s="107"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="105"/>
     </row>
     <row r="43" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="95" t="s">
+      <c r="E43" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="105" t="s">
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106"/>
-      <c r="AE43" s="106"/>
-      <c r="AF43" s="107"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="105"/>
     </row>
     <row r="44" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="51" t="s">
@@ -25441,60 +25441,60 @@
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
       <c r="N44" s="53"/>
-      <c r="O44" s="95" t="b">
+      <c r="O44" s="96" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
-      <c r="AF44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="98"/>
     </row>
     <row r="45" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="95" t="s">
+      <c r="E45" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="95" t="b">
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="96" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="98"/>
     </row>
     <row r="46" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -25679,18 +25679,18 @@
       <c r="AG67" s="58"/>
     </row>
     <row r="68" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="99" t="s">
+      <c r="F68" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="100"/>
-      <c r="K68" s="100"/>
-      <c r="L68" s="100"/>
-      <c r="M68" s="100"/>
-      <c r="N68" s="100"/>
-      <c r="O68" s="101"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="108"/>
       <c r="P68" s="61" t="s">
         <v>221</v>
       </c>
@@ -25713,16 +25713,16 @@
       <c r="AG68" s="58"/>
     </row>
     <row r="69" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="102"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="104"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="111"/>
       <c r="P69" s="61" t="s">
         <v>224</v>
       </c>
@@ -25859,18 +25859,18 @@
       <c r="AG76" s="58"/>
     </row>
     <row r="77" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="99" t="s">
+      <c r="F77" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100"/>
-      <c r="K77" s="100"/>
-      <c r="L77" s="100"/>
-      <c r="M77" s="100"/>
-      <c r="N77" s="100"/>
-      <c r="O77" s="101"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="107"/>
+      <c r="K77" s="107"/>
+      <c r="L77" s="107"/>
+      <c r="M77" s="107"/>
+      <c r="N77" s="107"/>
+      <c r="O77" s="108"/>
       <c r="P77" s="61" t="s">
         <v>220</v>
       </c>
@@ -25893,16 +25893,16 @@
       <c r="AG77" s="58"/>
     </row>
     <row r="78" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="102"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103"/>
-      <c r="N78" s="103"/>
-      <c r="O78" s="104"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="110"/>
+      <c r="L78" s="110"/>
+      <c r="M78" s="110"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="111"/>
       <c r="P78" s="61" t="s">
         <v>224</v>
       </c>
@@ -26012,6 +26012,19 @@
     <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -26023,19 +26036,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26054,132 +26054,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="str">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -26891,132 +26891,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="75" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91" t="s">
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85" t="str">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="73" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="92">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="80">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85" t="str">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85" t="str">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85" t="str">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99CE43-C422-49FE-8A2A-A0FE67B0B62B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ADFFEC-3211-427D-8836-4A7FF13455F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="32745" yWindow="600" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="513">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2398,6 +2398,12 @@
   </si>
   <si>
     <t>family</t>
+  </si>
+  <si>
+    <t>p_density</t>
+  </si>
+  <si>
+    <t>civil_point</t>
   </si>
 </sst>
 </file>
@@ -3100,6 +3106,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3130,45 +3175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3183,24 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3218,6 +3206,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10873,215 +10879,215 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="81" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="94" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81" t="str">
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="86" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="93"/>
-      <c r="AZ2" s="93"/>
-      <c r="BA2" s="93"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="89" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="82" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="82" t="s">
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="84"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="80"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="72">
+      <c r="A5" s="85">
         <v>43884</v>
       </c>
       <c r="B5" s="71"/>
@@ -11091,52 +11097,52 @@
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="85" t="s">
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="85" t="s">
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="87"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="76"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="71"/>
@@ -11147,46 +11153,46 @@
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="87"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="75"/>
+      <c r="AQ6" s="75"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="76"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="71"/>
@@ -11197,46 +11203,46 @@
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="87"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="76"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="71"/>
@@ -11247,46 +11253,46 @@
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="87"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="76"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="71"/>
@@ -11297,46 +11303,46 @@
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
       <c r="H9" s="71"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="87"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="76"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="71"/>
@@ -11347,46 +11353,46 @@
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
       <c r="H10" s="71"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="87"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="76"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="71"/>
@@ -11397,46 +11403,46 @@
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
       <c r="H11" s="71"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="87"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="76"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="71"/>
@@ -11447,46 +11453,46 @@
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
       <c r="H12" s="71"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="86"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="87"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="76"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="71"/>
@@ -11497,46 +11503,46 @@
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
       <c r="H13" s="71"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="86"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="87"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="75"/>
+      <c r="AQ13" s="75"/>
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="75"/>
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="76"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="71"/>
@@ -11547,46 +11553,46 @@
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
       <c r="H14" s="71"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="87"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="76"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="71"/>
@@ -11597,46 +11603,46 @@
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
       <c r="H15" s="71"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="86"/>
-      <c r="AV15" s="87"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="76"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="71"/>
@@ -11647,78 +11653,71 @@
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
       <c r="H16" s="71"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="86"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="86"/>
-      <c r="AS16" s="86"/>
-      <c r="AT16" s="86"/>
-      <c r="AU16" s="86"/>
-      <c r="AV16" s="87"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -11735,28 +11734,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11775,132 +11781,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73" t="str">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73" t="str">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -16826,132 +16832,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73" t="str">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73" t="str">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -21870,8 +21876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
   <dimension ref="A1:BE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
+      <selection activeCell="G42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23154,7 +23160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>403</v>
       </c>
@@ -23162,7 +23168,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" ht="36" x14ac:dyDescent="0.4">
       <c r="A35" s="48" t="s">
         <v>395</v>
       </c>
@@ -23191,7 +23197,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" ht="36" x14ac:dyDescent="0.4">
       <c r="A36" s="48" t="s">
         <v>399</v>
       </c>
@@ -23220,7 +23226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -23249,12 +23255,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" ht="36" x14ac:dyDescent="0.4">
       <c r="A40" s="48" t="s">
         <v>433</v>
       </c>
@@ -23271,22 +23277,22 @@
         <v>437</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G40" s="48" t="s">
         <v>439</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="K40" s="48" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>444</v>
@@ -23295,34 +23301,40 @@
         <v>445</v>
       </c>
       <c r="N40" s="48" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="O40" s="48" t="s">
         <v>447</v>
       </c>
       <c r="P40" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q40" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="R40" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="Q40" s="48" t="s">
+      <c r="S40" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="T40" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="R40" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="S40" s="48" t="s">
+      <c r="U40" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="T40" s="48" t="s">
+      <c r="V40" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="U40" s="48" t="s">
+      <c r="W40" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="V40" s="48" t="s">
+      <c r="X40" s="48" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" ht="36" x14ac:dyDescent="0.4">
       <c r="A41" s="48" t="s">
         <v>450</v>
       </c>
@@ -23339,22 +23351,22 @@
         <v>454</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G41" s="48" t="s">
         <v>456</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I41" s="48" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="K41" s="48" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="L41" s="48" t="s">
         <v>461</v>
@@ -23363,34 +23375,40 @@
         <v>462</v>
       </c>
       <c r="N41" s="48" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="O41" s="48" t="s">
         <v>464</v>
       </c>
       <c r="P41" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q41" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="R41" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="Q41" s="48" t="s">
+      <c r="S41" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="T41" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="R41" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="S41" s="48" t="s">
+      <c r="U41" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="T41" s="48" t="s">
+      <c r="V41" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="U41" s="48" t="s">
+      <c r="W41" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V41" s="48" t="s">
+      <c r="X41" s="48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -23445,11 +23463,11 @@
       <c r="R42">
         <v>1</v>
       </c>
-      <c r="S42" s="64">
-        <v>43953</v>
-      </c>
-      <c r="T42" t="s">
-        <v>8</v>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
       </c>
       <c r="U42" s="64">
         <v>43953</v>
@@ -23457,13 +23475,19 @@
       <c r="V42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="W42" s="64">
+        <v>43953</v>
+      </c>
+      <c r="X42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" ht="36" x14ac:dyDescent="0.4">
       <c r="A45" s="48" t="s">
         <v>469</v>
       </c>
@@ -23522,7 +23546,7 @@
         <v>480</v>
       </c>
       <c r="T45" s="48" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="U45" s="48" t="s">
         <v>447</v>
@@ -23531,19 +23555,25 @@
         <v>506</v>
       </c>
       <c r="W45" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="X45" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y45" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="X45" s="48" t="s">
+      <c r="Z45" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="Y45" s="48" t="s">
+      <c r="AA45" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="Z45" s="48" t="s">
+      <c r="AB45" s="48" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="36" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" ht="36" x14ac:dyDescent="0.4">
       <c r="A46" s="48" t="s">
         <v>431</v>
       </c>
@@ -23602,7 +23632,7 @@
         <v>489</v>
       </c>
       <c r="T46" s="48" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="U46" s="48" t="s">
         <v>464</v>
@@ -23611,19 +23641,25 @@
         <v>500</v>
       </c>
       <c r="W46" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="X46" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y46" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="X46" s="48" t="s">
+      <c r="Z46" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="Y46" s="48" t="s">
+      <c r="AA46" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="Z46" s="48" t="s">
+      <c r="AB46" s="48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -23681,16 +23717,22 @@
       <c r="V47">
         <v>1</v>
       </c>
-      <c r="W47" s="64">
-        <v>43953</v>
-      </c>
-      <c r="X47" t="s">
-        <v>8</v>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
       </c>
       <c r="Y47" s="64">
         <v>43953</v>
       </c>
       <c r="Z47" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="64">
+        <v>43953</v>
+      </c>
+      <c r="AB47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -23866,132 +23908,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73" t="str">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73" t="str">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
@@ -24816,6 +24858,40 @@
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -24832,40 +24908,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24885,132 +24927,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73" t="str">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73" t="str">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -25293,38 +25335,38 @@
     </row>
     <row r="39" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="100" t="s">
+      <c r="E40" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="100" t="s">
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="101"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="101"/>
-      <c r="AE40" s="101"/>
-      <c r="AF40" s="102"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="110"/>
+      <c r="T40" s="110"/>
+      <c r="U40" s="110"/>
+      <c r="V40" s="110"/>
+      <c r="W40" s="110"/>
+      <c r="X40" s="110"/>
+      <c r="Y40" s="110"/>
+      <c r="Z40" s="110"/>
+      <c r="AA40" s="110"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+      <c r="AF40" s="111"/>
     </row>
     <row r="41" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="96" t="s">
@@ -25373,26 +25415,26 @@
       <c r="L42" s="97"/>
       <c r="M42" s="97"/>
       <c r="N42" s="98"/>
-      <c r="O42" s="103" t="s">
+      <c r="O42" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="105"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="108"/>
     </row>
     <row r="43" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="96" t="s">
@@ -25407,26 +25449,26 @@
       <c r="L43" s="97"/>
       <c r="M43" s="97"/>
       <c r="N43" s="98"/>
-      <c r="O43" s="103" t="s">
+      <c r="O43" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="104"/>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="105"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="108"/>
     </row>
     <row r="44" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="51" t="s">
@@ -25679,18 +25721,18 @@
       <c r="AG67" s="58"/>
     </row>
     <row r="68" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="106" t="s">
+      <c r="F68" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="108"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="102"/>
       <c r="P68" s="61" t="s">
         <v>221</v>
       </c>
@@ -25713,16 +25755,16 @@
       <c r="AG68" s="58"/>
     </row>
     <row r="69" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="109"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="110"/>
-      <c r="K69" s="110"/>
-      <c r="L69" s="110"/>
-      <c r="M69" s="110"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="111"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="105"/>
       <c r="P69" s="61" t="s">
         <v>224</v>
       </c>
@@ -25859,18 +25901,18 @@
       <c r="AG76" s="58"/>
     </row>
     <row r="77" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="106" t="s">
+      <c r="F77" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="108"/>
+      <c r="G77" s="101"/>
+      <c r="H77" s="101"/>
+      <c r="I77" s="101"/>
+      <c r="J77" s="101"/>
+      <c r="K77" s="101"/>
+      <c r="L77" s="101"/>
+      <c r="M77" s="101"/>
+      <c r="N77" s="101"/>
+      <c r="O77" s="102"/>
       <c r="P77" s="61" t="s">
         <v>220</v>
       </c>
@@ -25893,16 +25935,16 @@
       <c r="AG77" s="58"/>
     </row>
     <row r="78" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="109"/>
-      <c r="G78" s="110"/>
-      <c r="H78" s="110"/>
-      <c r="I78" s="110"/>
-      <c r="J78" s="110"/>
-      <c r="K78" s="110"/>
-      <c r="L78" s="110"/>
-      <c r="M78" s="110"/>
-      <c r="N78" s="110"/>
-      <c r="O78" s="111"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="105"/>
       <c r="P78" s="61" t="s">
         <v>224</v>
       </c>
@@ -26012,19 +26054,6 @@
     <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -26036,6 +26065,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26054,132 +26096,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73" t="str">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73" t="str">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -26891,132 +26933,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="str">
+      <c r="A1" s="88" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79" t="s">
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="73" t="str">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="86" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="80">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="93">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73" t="str">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73" t="str">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73" t="str">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD010_ユーザインターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EDE583-0B0B-4494-863C-CA3A9EA17A44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66274E70-3A63-4893-B4B9-0561CD3D5155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37935" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="35970" yWindow="1275" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="593">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2340,10 +2340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -2667,6 +2663,134 @@
   </si>
   <si>
     <t xml:space="preserve"> over_evolution3_lv </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル騎士爵領</t>
+    <rPh sb="3" eb="5">
+      <t>キシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル準男爵領</t>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダンシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル男爵領</t>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル子爵領</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル伯爵領</t>
+    <rPh sb="3" eb="5">
+      <t>ハクシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル辺境伯領</t>
+    <rPh sb="3" eb="6">
+      <t>ヘンキョウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル侯爵領</t>
+    <rPh sb="3" eb="5">
+      <t>コウシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル公爵領</t>
+    <rPh sb="3" eb="5">
+      <t>コウシャク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル王家領</t>
+    <rPh sb="3" eb="5">
+      <t>オウケ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アデル王城</t>
+    <rPh sb="3" eb="5">
+      <t>オウジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3385,11 +3509,62 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3421,45 +3596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3474,24 +3610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3511,16 +3629,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10311,20 +10435,20 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AX3" s="77" t="s">
+      <c r="AX3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="78" t="s">
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="82"/>
+      <c r="BG3" s="82"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -10375,20 +10499,20 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="78" t="s">
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="82"/>
+      <c r="BG4" s="82"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -11176,172 +11300,172 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>表紙!$AX$4</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88" t="str">
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="105" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88" t="str">
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="97" t="str">
         <f>表紙!$BC$4</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="96" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
@@ -11384,644 +11508,637 @@
       <c r="AV4" s="91"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="79">
+      <c r="A5" s="96">
         <v>43884</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="99" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="92" t="s">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="92" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="87"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="87"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="87"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="94"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="87"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="94"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="87"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="94"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="87"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="94"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="87"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="94"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="87"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="87"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="87"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="87"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="86"/>
+      <c r="AQ16" s="86"/>
+      <c r="AR16" s="86"/>
+      <c r="AS16" s="86"/>
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="86"/>
+      <c r="AV16" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -12038,28 +12155,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12078,132 +12202,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -17129,132 +17253,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計 (2)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
@@ -22171,10 +22295,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:BE58"/>
+  <dimension ref="A1:BE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23047,7 +23171,7 @@
         <v>299</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>260</v>
@@ -23056,7 +23180,7 @@
         <v>261</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>263</v>
@@ -23077,25 +23201,25 @@
         <v>268</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M20" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="N20" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="N20" s="48" t="s">
+      <c r="O20" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="O20" s="48" t="s">
+      <c r="P20" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="Q20" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="R20" s="48" t="s">
         <v>525</v>
-      </c>
-      <c r="R20" s="48" t="s">
-        <v>526</v>
       </c>
       <c r="S20" s="48" t="s">
         <v>269</v>
@@ -23130,13 +23254,13 @@
         <v>275</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>277</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J21" s="48" t="s">
         <v>279</v>
@@ -23145,25 +23269,25 @@
         <v>280</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M21" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="N21" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="N21" s="48" t="s">
+      <c r="O21" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="O21" s="48" t="s">
+      <c r="P21" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="P21" s="48" t="s">
+      <c r="Q21" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="Q21" s="48" t="s">
+      <c r="R21" s="48" t="s">
         <v>525</v>
-      </c>
-      <c r="R21" s="48" t="s">
-        <v>526</v>
       </c>
       <c r="S21" s="48" t="s">
         <v>104</v>
@@ -23183,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C22" s="65">
         <v>1</v>
@@ -23213,7 +23337,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="66" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M22" s="65">
         <v>2</v>
@@ -23251,7 +23375,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C23" s="65">
         <v>100</v>
@@ -23281,7 +23405,7 @@
         <v>800</v>
       </c>
       <c r="L23" s="66" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M23" s="65">
         <v>3</v>
@@ -23319,7 +23443,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C24" s="65">
         <v>400</v>
@@ -23349,7 +23473,7 @@
         <v>3200</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M24" s="65">
         <v>0</v>
@@ -23383,100 +23507,100 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="119"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="120"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="78"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="119"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="120"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="78"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="120"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="78"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="120"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="78"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -23872,10 +23996,10 @@
         <v>434</v>
       </c>
       <c r="J46" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K46" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L46" s="48" t="s">
         <v>440</v>
@@ -23884,7 +24008,7 @@
         <v>441</v>
       </c>
       <c r="N46" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O46" s="48" t="s">
         <v>443</v>
@@ -23946,10 +24070,10 @@
         <v>451</v>
       </c>
       <c r="J47" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K47" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L47" s="48" t="s">
         <v>457</v>
@@ -23958,7 +24082,7 @@
         <v>458</v>
       </c>
       <c r="N47" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O47" s="48" t="s">
         <v>460</v>
@@ -24014,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -24032,10 +24156,10 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -24044,13 +24168,13 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="U48" s="64">
         <v>43953</v>
@@ -24090,10 +24214,10 @@
         <v>469</v>
       </c>
       <c r="G51" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="H51" s="48" t="s">
         <v>497</v>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>498</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>470</v>
@@ -24105,7 +24229,7 @@
         <v>472</v>
       </c>
       <c r="L51" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M51" s="48" t="s">
         <v>313</v>
@@ -24114,7 +24238,7 @@
         <v>473</v>
       </c>
       <c r="O51" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P51" s="48" t="s">
         <v>474</v>
@@ -24123,19 +24247,19 @@
         <v>475</v>
       </c>
       <c r="R51" s="48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S51" s="48" t="s">
         <v>476</v>
       </c>
       <c r="T51" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U51" s="48" t="s">
         <v>443</v>
       </c>
       <c r="V51" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W51" s="48" t="s">
         <v>442</v>
@@ -24191,7 +24315,7 @@
         <v>481</v>
       </c>
       <c r="L52" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M52" s="48" t="s">
         <v>258</v>
@@ -24200,7 +24324,7 @@
         <v>482</v>
       </c>
       <c r="O52" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P52" s="48" t="s">
         <v>483</v>
@@ -24209,19 +24333,19 @@
         <v>484</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S52" s="48" t="s">
         <v>485</v>
       </c>
       <c r="T52" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U52" s="48" t="s">
         <v>460</v>
       </c>
       <c r="V52" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W52" s="48" t="s">
         <v>459</v>
@@ -24262,10 +24386,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
       <c r="H53" t="s">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -24279,18 +24403,27 @@
       <c r="L53">
         <v>0</v>
       </c>
+      <c r="M53" t="s">
+        <v>574</v>
+      </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
+      <c r="P53" t="s">
+        <v>574</v>
+      </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
+      <c r="S53" t="s">
+        <v>574</v>
+      </c>
       <c r="T53">
         <v>1</v>
       </c>
@@ -24319,114 +24452,353 @@
         <v>8</v>
       </c>
     </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>584</v>
+      </c>
+      <c r="H54" t="s">
+        <v>573</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>573</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>573</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="64">
+        <v>43953</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="64">
+        <v>43953</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="36" x14ac:dyDescent="0.4">
-      <c r="A56" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="E56" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="F56" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="H56" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="J56" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="K56" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="L56" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="M56" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="N56" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="O56" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="P56" s="48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="36" x14ac:dyDescent="0.4">
-      <c r="A57" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="J57" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="K57" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="L57" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="M57" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="N57" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="O57" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="P57" s="48" t="s">
-        <v>107</v>
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>585</v>
+      </c>
+      <c r="H55" t="s">
+        <v>575</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55" t="s">
+        <v>575</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>10</v>
+      </c>
+      <c r="S55" t="s">
+        <v>575</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>10</v>
+      </c>
+      <c r="W55">
+        <v>10</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55" s="64">
+        <v>43954</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="64">
+        <v>43954</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>586</v>
+      </c>
+      <c r="H56" t="s">
+        <v>576</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>15</v>
+      </c>
+      <c r="M56" t="s">
+        <v>576</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>15</v>
+      </c>
+      <c r="P56" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>15</v>
+      </c>
+      <c r="S56" t="s">
+        <v>576</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>15</v>
+      </c>
+      <c r="W56">
+        <v>15</v>
+      </c>
+      <c r="X56">
+        <v>15</v>
+      </c>
+      <c r="Y56" s="64">
+        <v>43955</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA56" s="64">
+        <v>43955</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>587</v>
+      </c>
+      <c r="H57" t="s">
+        <v>577</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>20</v>
+      </c>
+      <c r="M57" t="s">
+        <v>577</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>20</v>
+      </c>
+      <c r="P57" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s">
+        <v>577</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>20</v>
+      </c>
+      <c r="W57">
+        <v>20</v>
+      </c>
+      <c r="X57">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="64">
+        <v>43956</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="64">
+        <v>43956</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -24435,7 +24807,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -24443,34 +24815,573 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
+      <c r="G58" t="s">
+        <v>588</v>
+      </c>
+      <c r="H58" t="s">
+        <v>578</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58" t="s">
+        <v>578</v>
+      </c>
+      <c r="N58">
         <v>1</v>
       </c>
-      <c r="M58" s="64">
+      <c r="O58">
+        <v>25</v>
+      </c>
+      <c r="P58" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>25</v>
+      </c>
+      <c r="S58" t="s">
+        <v>578</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>25</v>
+      </c>
+      <c r="W58">
+        <v>25</v>
+      </c>
+      <c r="X58">
+        <v>25</v>
+      </c>
+      <c r="Y58" s="64">
+        <v>43957</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="64">
+        <v>43957</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>589</v>
+      </c>
+      <c r="H59" t="s">
+        <v>579</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59" t="s">
+        <v>579</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>30</v>
+      </c>
+      <c r="S59" t="s">
+        <v>579</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>30</v>
+      </c>
+      <c r="W59">
+        <v>30</v>
+      </c>
+      <c r="X59">
+        <v>30</v>
+      </c>
+      <c r="Y59" s="64">
+        <v>43958</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="64">
+        <v>43958</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>590</v>
+      </c>
+      <c r="H60" t="s">
+        <v>580</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>35</v>
+      </c>
+      <c r="M60" t="s">
+        <v>580</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>35</v>
+      </c>
+      <c r="P60" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>35</v>
+      </c>
+      <c r="S60" t="s">
+        <v>580</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>35</v>
+      </c>
+      <c r="W60">
+        <v>35</v>
+      </c>
+      <c r="X60">
+        <v>35</v>
+      </c>
+      <c r="Y60" s="64">
+        <v>43959</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="64">
+        <v>43959</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>591</v>
+      </c>
+      <c r="H61" t="s">
+        <v>581</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>40</v>
+      </c>
+      <c r="M61" t="s">
+        <v>581</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>40</v>
+      </c>
+      <c r="P61" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s">
+        <v>581</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>40</v>
+      </c>
+      <c r="W61">
+        <v>40</v>
+      </c>
+      <c r="X61">
+        <v>40</v>
+      </c>
+      <c r="Y61" s="64">
+        <v>43960</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA61" s="64">
+        <v>43960</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>592</v>
+      </c>
+      <c r="H62" t="s">
+        <v>582</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>45</v>
+      </c>
+      <c r="M62" t="s">
+        <v>582</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>45</v>
+      </c>
+      <c r="P62" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s">
+        <v>582</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>45</v>
+      </c>
+      <c r="W62">
+        <v>45</v>
+      </c>
+      <c r="X62">
+        <v>45</v>
+      </c>
+      <c r="Y62" s="64">
+        <v>43961</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="64">
+        <v>43961</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Y63" s="64"/>
+      <c r="AA63" s="64"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="36" x14ac:dyDescent="0.4">
+      <c r="A65" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="I65" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="J65" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="K65" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="L65" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="M65" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="N65" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O65" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="P65" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="36" x14ac:dyDescent="0.4">
+      <c r="A66" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="I66" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="J66" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="K66" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="L66" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="M66" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N66" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O66" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P66" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="64">
         <v>43953</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N67" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="64">
+      <c r="O67" s="64">
         <v>43953</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -24491,132 +25402,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
@@ -24624,112 +25535,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="103" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="105"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="109"/>
     </row>
     <row r="6" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="103" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="105"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108"/>
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="109"/>
     </row>
     <row r="7" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
@@ -24738,490 +25649,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="106" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="102" t="s">
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="106"/>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="106"/>
     </row>
     <row r="10" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="103" t="s">
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="AF10" s="104"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="104"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="105"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="108"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="108"/>
+      <c r="AM10" s="108"/>
+      <c r="AN10" s="108"/>
+      <c r="AO10" s="108"/>
+      <c r="AP10" s="108"/>
+      <c r="AQ10" s="108"/>
+      <c r="AR10" s="108"/>
+      <c r="AS10" s="108"/>
+      <c r="AT10" s="108"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="109"/>
     </row>
     <row r="11" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="103" t="s">
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="105"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="108"/>
+      <c r="AN11" s="108"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="108"/>
+      <c r="AQ11" s="108"/>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="108"/>
+      <c r="AT11" s="108"/>
+      <c r="AU11" s="108"/>
+      <c r="AV11" s="109"/>
     </row>
     <row r="12" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102" t="s">
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="103" t="s">
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="104"/>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="104"/>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="104"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="104"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="105"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="109"/>
     </row>
     <row r="13" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="103" t="s">
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="105"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="108"/>
+      <c r="AL13" s="108"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="108"/>
+      <c r="AO13" s="108"/>
+      <c r="AP13" s="108"/>
+      <c r="AQ13" s="108"/>
+      <c r="AR13" s="108"/>
+      <c r="AS13" s="108"/>
+      <c r="AT13" s="108"/>
+      <c r="AU13" s="108"/>
+      <c r="AV13" s="109"/>
     </row>
     <row r="14" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="103" t="s">
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="105"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="108"/>
+      <c r="AL14" s="108"/>
+      <c r="AM14" s="108"/>
+      <c r="AN14" s="108"/>
+      <c r="AO14" s="108"/>
+      <c r="AP14" s="108"/>
+      <c r="AQ14" s="108"/>
+      <c r="AR14" s="108"/>
+      <c r="AS14" s="108"/>
+      <c r="AT14" s="108"/>
+      <c r="AU14" s="108"/>
+      <c r="AV14" s="109"/>
     </row>
     <row r="15" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="104"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="104"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="104"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="105"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="108"/>
+      <c r="AK15" s="108"/>
+      <c r="AL15" s="108"/>
+      <c r="AM15" s="108"/>
+      <c r="AN15" s="108"/>
+      <c r="AO15" s="108"/>
+      <c r="AP15" s="108"/>
+      <c r="AQ15" s="108"/>
+      <c r="AR15" s="108"/>
+      <c r="AS15" s="108"/>
+      <c r="AT15" s="108"/>
+      <c r="AU15" s="108"/>
+      <c r="AV15" s="109"/>
     </row>
     <row r="16" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="105"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="108"/>
+      <c r="AM16" s="108"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="108"/>
+      <c r="AP16" s="108"/>
+      <c r="AQ16" s="108"/>
+      <c r="AR16" s="108"/>
+      <c r="AS16" s="108"/>
+      <c r="AT16" s="108"/>
+      <c r="AU16" s="108"/>
+      <c r="AV16" s="109"/>
     </row>
     <row r="17" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="105"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="108"/>
+      <c r="AP17" s="108"/>
+      <c r="AQ17" s="108"/>
+      <c r="AR17" s="108"/>
+      <c r="AS17" s="108"/>
+      <c r="AT17" s="108"/>
+      <c r="AU17" s="108"/>
+      <c r="AV17" s="109"/>
     </row>
     <row r="18" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
@@ -25230,217 +26141,251 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="103" t="s">
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="104"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="105"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="108"/>
+      <c r="AL20" s="108"/>
+      <c r="AM20" s="108"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="108"/>
+      <c r="AP20" s="108"/>
+      <c r="AQ20" s="108"/>
+      <c r="AR20" s="108"/>
+      <c r="AS20" s="108"/>
+      <c r="AT20" s="108"/>
+      <c r="AU20" s="108"/>
+      <c r="AV20" s="109"/>
     </row>
     <row r="21" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="103" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="105"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="108"/>
+      <c r="AL21" s="108"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="108"/>
+      <c r="AP21" s="108"/>
+      <c r="AQ21" s="108"/>
+      <c r="AR21" s="108"/>
+      <c r="AS21" s="108"/>
+      <c r="AT21" s="108"/>
+      <c r="AU21" s="108"/>
+      <c r="AV21" s="109"/>
     </row>
     <row r="22" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="104"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="104"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="104"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="105"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="108"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="108"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="108"/>
+      <c r="AP22" s="108"/>
+      <c r="AQ22" s="108"/>
+      <c r="AR22" s="108"/>
+      <c r="AS22" s="108"/>
+      <c r="AT22" s="108"/>
+      <c r="AU22" s="108"/>
+      <c r="AV22" s="109"/>
     </row>
     <row r="23" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="103"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="104"/>
-      <c r="AG23" s="104"/>
-      <c r="AH23" s="104"/>
-      <c r="AI23" s="104"/>
-      <c r="AJ23" s="104"/>
-      <c r="AK23" s="104"/>
-      <c r="AL23" s="104"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="104"/>
-      <c r="AP23" s="104"/>
-      <c r="AQ23" s="104"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="105"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="108"/>
+      <c r="AJ23" s="108"/>
+      <c r="AK23" s="108"/>
+      <c r="AL23" s="108"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="108"/>
+      <c r="AO23" s="108"/>
+      <c r="AP23" s="108"/>
+      <c r="AQ23" s="108"/>
+      <c r="AR23" s="108"/>
+      <c r="AS23" s="108"/>
+      <c r="AT23" s="108"/>
+      <c r="AU23" s="108"/>
+      <c r="AV23" s="109"/>
     </row>
     <row r="24" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -25457,40 +26402,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25510,132 +26421,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>処理詳細</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -25918,140 +26829,140 @@
     </row>
     <row r="39" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="107" t="s">
+      <c r="E40" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="107" t="s">
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="108"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="109"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="121"/>
+      <c r="R40" s="121"/>
+      <c r="S40" s="121"/>
+      <c r="T40" s="121"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="121"/>
+      <c r="W40" s="121"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="121"/>
+      <c r="Z40" s="121"/>
+      <c r="AA40" s="121"/>
+      <c r="AB40" s="121"/>
+      <c r="AC40" s="121"/>
+      <c r="AD40" s="121"/>
+      <c r="AE40" s="121"/>
+      <c r="AF40" s="122"/>
     </row>
     <row r="41" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="103" t="b">
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="109"/>
+      <c r="O41" s="107" t="b">
         <v>1</v>
       </c>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="104"/>
-      <c r="T41" s="104"/>
-      <c r="U41" s="104"/>
-      <c r="V41" s="104"/>
-      <c r="W41" s="104"/>
-      <c r="X41" s="104"/>
-      <c r="Y41" s="104"/>
-      <c r="Z41" s="104"/>
-      <c r="AA41" s="104"/>
-      <c r="AB41" s="104"/>
-      <c r="AC41" s="104"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="104"/>
-      <c r="AF41" s="105"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="108"/>
+      <c r="U41" s="108"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="108"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="109"/>
     </row>
     <row r="42" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="110" t="s">
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="109"/>
+      <c r="O42" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="111"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="111"/>
-      <c r="AE42" s="111"/>
-      <c r="AF42" s="112"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="118"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="118"/>
+      <c r="U42" s="118"/>
+      <c r="V42" s="118"/>
+      <c r="W42" s="118"/>
+      <c r="X42" s="118"/>
+      <c r="Y42" s="118"/>
+      <c r="Z42" s="118"/>
+      <c r="AA42" s="118"/>
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="118"/>
+      <c r="AD42" s="118"/>
+      <c r="AE42" s="118"/>
+      <c r="AF42" s="119"/>
     </row>
     <row r="43" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="110" t="s">
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
-      <c r="AF43" s="112"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="118"/>
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="118"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="118"/>
+      <c r="AD43" s="118"/>
+      <c r="AE43" s="118"/>
+      <c r="AF43" s="119"/>
     </row>
     <row r="44" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="51" t="s">
@@ -26066,60 +26977,60 @@
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
       <c r="N44" s="53"/>
-      <c r="O44" s="103" t="b">
+      <c r="O44" s="107" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
-      <c r="U44" s="104"/>
-      <c r="V44" s="104"/>
-      <c r="W44" s="104"/>
-      <c r="X44" s="104"/>
-      <c r="Y44" s="104"/>
-      <c r="Z44" s="104"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="104"/>
-      <c r="AC44" s="104"/>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="104"/>
-      <c r="AF44" s="105"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
+      <c r="AD44" s="108"/>
+      <c r="AE44" s="108"/>
+      <c r="AF44" s="109"/>
     </row>
     <row r="45" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="103" t="b">
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="107" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="104"/>
-      <c r="V45" s="104"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="104"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="105"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="108"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="108"/>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="109"/>
     </row>
     <row r="46" spans="4:32" s="50" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="4:32" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -26304,18 +27215,18 @@
       <c r="AG67" s="58"/>
     </row>
     <row r="68" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="113" t="s">
+      <c r="F68" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
-      <c r="N68" s="114"/>
-      <c r="O68" s="115"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="112"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="112"/>
+      <c r="M68" s="112"/>
+      <c r="N68" s="112"/>
+      <c r="O68" s="113"/>
       <c r="P68" s="61" t="s">
         <v>221</v>
       </c>
@@ -26338,16 +27249,16 @@
       <c r="AG68" s="58"/>
     </row>
     <row r="69" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="116"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
-      <c r="O69" s="118"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="116"/>
       <c r="P69" s="61" t="s">
         <v>224</v>
       </c>
@@ -26484,18 +27395,18 @@
       <c r="AG76" s="58"/>
     </row>
     <row r="77" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="113" t="s">
+      <c r="F77" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114"/>
-      <c r="O77" s="115"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="113"/>
       <c r="P77" s="61" t="s">
         <v>220</v>
       </c>
@@ -26518,16 +27429,16 @@
       <c r="AG77" s="58"/>
     </row>
     <row r="78" spans="5:33" s="50" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="116"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="117"/>
-      <c r="L78" s="117"/>
-      <c r="M78" s="117"/>
-      <c r="N78" s="117"/>
-      <c r="O78" s="118"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="115"/>
+      <c r="L78" s="115"/>
+      <c r="M78" s="115"/>
+      <c r="N78" s="115"/>
+      <c r="O78" s="116"/>
       <c r="P78" s="61" t="s">
         <v>224</v>
       </c>
@@ -26637,19 +27548,6 @@
     <row r="90" spans="4:5" s="29" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -26661,6 +27559,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26682,132 +27593,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
@@ -27495,7 +28406,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -27665,7 +28576,7 @@
     </row>
     <row r="32" spans="1:50" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D32" s="71" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E32" s="72"/>
       <c r="F32" s="72"/>
@@ -27713,7 +28624,7 @@
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
       <c r="I33" s="70" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AP33" s="31"/>
     </row>
@@ -27724,7 +28635,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="39"/>
       <c r="I34" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AP34" s="31"/>
     </row>
@@ -27735,7 +28646,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="39"/>
       <c r="I35" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AP35" s="31"/>
     </row>
@@ -27746,7 +28657,7 @@
       <c r="G36" s="38"/>
       <c r="H36" s="39"/>
       <c r="I36" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AP36" s="31"/>
     </row>
@@ -27757,7 +28668,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
       <c r="I37" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AP37" s="31"/>
     </row>
@@ -27768,7 +28679,7 @@
       <c r="G38" s="38"/>
       <c r="H38" s="39"/>
       <c r="I38" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AP38" s="31"/>
     </row>
@@ -27779,7 +28690,7 @@
       <c r="G39" s="38"/>
       <c r="H39" s="39"/>
       <c r="I39" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AP39" s="31"/>
     </row>
@@ -27874,13 +28785,13 @@
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
       <c r="J42" s="70" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X42" s="70" t="s">
-        <v>562</v>
-      </c>
-      <c r="Z42" s="122" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="Z42" s="80" t="s">
+        <v>559</v>
       </c>
       <c r="AP42" s="31"/>
     </row>
@@ -27891,13 +28802,13 @@
       <c r="G43" s="38"/>
       <c r="H43" s="39"/>
       <c r="J43" s="70" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="X43" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z43" s="122" t="s">
-        <v>566</v>
+        <v>563</v>
+      </c>
+      <c r="Z43" s="80" t="s">
+        <v>565</v>
       </c>
       <c r="AP43" s="31"/>
     </row>
@@ -27908,7 +28819,7 @@
       <c r="G44" s="38"/>
       <c r="H44" s="39"/>
       <c r="I44" s="70" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AP44" s="31"/>
     </row>
@@ -27919,13 +28830,13 @@
       <c r="G45" s="38"/>
       <c r="H45" s="39"/>
       <c r="J45" s="70" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X45" s="70" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Z45" s="70" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AP45" s="31"/>
     </row>
@@ -27936,13 +28847,13 @@
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
       <c r="J46" s="70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="X46" s="70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z46" s="70" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP46" s="31"/>
     </row>
@@ -27953,7 +28864,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="39"/>
       <c r="I47" s="70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AP47" s="31"/>
     </row>
@@ -27964,13 +28875,13 @@
       <c r="G48" s="38"/>
       <c r="H48" s="39"/>
       <c r="J48" s="70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="X48" s="70" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Z48" s="70" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AP48" s="31"/>
     </row>
@@ -27981,13 +28892,13 @@
       <c r="G49" s="38"/>
       <c r="H49" s="39"/>
       <c r="J49" s="70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="X49" s="70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z49" s="70" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP49" s="31"/>
     </row>
@@ -28040,7 +28951,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -28195,7 +29106,7 @@
       <c r="H55" s="38"/>
       <c r="I55" s="39"/>
       <c r="J55" s="70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AP55" s="31"/>
     </row>
@@ -28206,7 +29117,7 @@
       <c r="H56" s="38"/>
       <c r="I56" s="39"/>
       <c r="J56" s="70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AP56" s="31"/>
     </row>
@@ -28217,7 +29128,7 @@
       <c r="H57" s="38"/>
       <c r="I57" s="39"/>
       <c r="J57" s="70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AP57" s="31"/>
     </row>
@@ -28228,7 +29139,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="39"/>
       <c r="J58" s="70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AP58" s="31"/>
     </row>
@@ -28238,11 +29149,11 @@
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="122" t="s">
-        <v>538</v>
+      <c r="J59" s="80" t="s">
+        <v>537</v>
       </c>
       <c r="X59" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP59" s="31"/>
     </row>
@@ -28253,7 +29164,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="39"/>
       <c r="J60" s="70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AP60" s="31"/>
     </row>
@@ -28264,7 +29175,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="39"/>
       <c r="J61" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AP61" s="31"/>
     </row>
@@ -28274,11 +29185,11 @@
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="122" t="s">
-        <v>539</v>
+      <c r="J62" s="80" t="s">
+        <v>538</v>
       </c>
       <c r="X62" s="70" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AP62" s="31"/>
     </row>
@@ -28289,7 +29200,7 @@
       <c r="H63" s="38"/>
       <c r="I63" s="39"/>
       <c r="J63" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP63" s="31"/>
     </row>
@@ -28300,7 +29211,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="39"/>
       <c r="J64" s="70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AP64" s="31"/>
     </row>
@@ -28310,11 +29221,11 @@
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
       <c r="I65" s="39"/>
-      <c r="J65" s="122" t="s">
-        <v>539</v>
+      <c r="J65" s="80" t="s">
+        <v>538</v>
       </c>
       <c r="X65" s="70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AP65" s="31"/>
     </row>
@@ -28328,7 +29239,7 @@
     </row>
     <row r="67" spans="1:45" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E67" s="71" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F67" s="72"/>
       <c r="G67" s="72"/>
@@ -28375,7 +29286,7 @@
       <c r="H68" s="38"/>
       <c r="I68" s="39"/>
       <c r="J68" s="70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AP68" s="31"/>
     </row>
@@ -28468,13 +29379,13 @@
       <c r="H71" s="38"/>
       <c r="I71" s="39"/>
       <c r="J71" s="70" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S71" s="70" t="s">
         <v>182</v>
       </c>
       <c r="W71" s="70" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP71" s="31"/>
     </row>
@@ -28524,7 +29435,7 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -28670,7 +29581,7 @@
       <c r="H77" s="38"/>
       <c r="I77" s="39"/>
       <c r="J77" s="70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AP77" s="31"/>
     </row>
@@ -28681,7 +29592,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="39"/>
       <c r="J78" s="70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AP78" s="31"/>
     </row>
@@ -28692,7 +29603,7 @@
       <c r="H79" s="38"/>
       <c r="I79" s="39"/>
       <c r="J79" s="70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AP79" s="31"/>
     </row>
@@ -28703,7 +29614,7 @@
       <c r="H80" s="38"/>
       <c r="I80" s="39"/>
       <c r="J80" s="70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AP80" s="31"/>
     </row>
@@ -28713,11 +29624,11 @@
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
       <c r="I81" s="39"/>
-      <c r="J81" s="122" t="s">
-        <v>546</v>
+      <c r="J81" s="80" t="s">
+        <v>545</v>
       </c>
       <c r="X81" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP81" s="31"/>
     </row>
@@ -28728,7 +29639,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="39"/>
       <c r="J82" s="70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AP82" s="31"/>
     </row>
@@ -28739,7 +29650,7 @@
       <c r="H83" s="38"/>
       <c r="I83" s="39"/>
       <c r="J83" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AP83" s="31"/>
     </row>
@@ -28749,11 +29660,11 @@
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
       <c r="I84" s="39"/>
-      <c r="J84" s="122" t="s">
-        <v>547</v>
+      <c r="J84" s="80" t="s">
+        <v>546</v>
       </c>
       <c r="X84" s="70" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AP84" s="31"/>
     </row>
@@ -28764,7 +29675,7 @@
       <c r="H85" s="38"/>
       <c r="I85" s="39"/>
       <c r="J85" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AP85" s="31"/>
     </row>
@@ -28775,7 +29686,7 @@
       <c r="H86" s="38"/>
       <c r="I86" s="39"/>
       <c r="J86" s="70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AP86" s="31"/>
     </row>
@@ -28785,11 +29696,11 @@
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
       <c r="I87" s="39"/>
-      <c r="J87" s="122" t="s">
-        <v>548</v>
+      <c r="J87" s="80" t="s">
+        <v>547</v>
       </c>
       <c r="X87" s="70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AP87" s="31"/>
     </row>
@@ -28803,7 +29714,7 @@
     </row>
     <row r="89" spans="5:42" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E89" s="71" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="72"/>
@@ -28850,7 +29761,7 @@
       <c r="H90" s="38"/>
       <c r="I90" s="39"/>
       <c r="J90" s="70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AP90" s="31"/>
     </row>
@@ -28861,7 +29772,7 @@
       <c r="H91" s="38"/>
       <c r="I91" s="39"/>
       <c r="J91" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AP91" s="31"/>
     </row>
@@ -28954,13 +29865,13 @@
       <c r="H94" s="38"/>
       <c r="I94" s="39"/>
       <c r="J94" s="70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S94" s="70" t="s">
         <v>182</v>
       </c>
       <c r="W94" s="70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AP94" s="31"/>
     </row>
@@ -29072,132 +29983,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>マッチング取込処理</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGCOMB010</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="50" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
